--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D2" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E2" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>85.517</v>
       </c>
       <c r="G2" t="n">
-        <v>1012.55</v>
+        <v>1012.516666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C3" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D3" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="E3" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F3" t="n">
-        <v>85.2961</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>1012.5</v>
+        <v>1012.55</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C4" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D4" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E4" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="F4" t="n">
-        <v>887.2781</v>
+        <v>85.2961</v>
       </c>
       <c r="G4" t="n">
-        <v>1012.433333333333</v>
+        <v>1012.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1006</v>
       </c>
       <c r="C5" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="D5" t="n">
         <v>1006</v>
       </c>
       <c r="E5" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="F5" t="n">
-        <v>2225.124</v>
+        <v>887.2781</v>
       </c>
       <c r="G5" t="n">
-        <v>1012.316666666667</v>
+        <v>1012.433333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C6" t="n">
         <v>1003</v>
       </c>
       <c r="D6" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E6" t="n">
         <v>1003</v>
       </c>
       <c r="F6" t="n">
-        <v>32.1363</v>
+        <v>2225.124</v>
       </c>
       <c r="G6" t="n">
-        <v>1012.166666666667</v>
+        <v>1012.316666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D7" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E7" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F7" t="n">
-        <v>346.4681</v>
+        <v>32.1363</v>
       </c>
       <c r="G7" t="n">
-        <v>1011.983333333333</v>
+        <v>1012.166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C8" t="n">
         <v>1001</v>
       </c>
       <c r="D8" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E8" t="n">
         <v>1001</v>
       </c>
       <c r="F8" t="n">
-        <v>163.5319</v>
+        <v>346.4681</v>
       </c>
       <c r="G8" t="n">
-        <v>1011.8</v>
+        <v>1011.983333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C9" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D9" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E9" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F9" t="n">
-        <v>92</v>
+        <v>163.5319</v>
       </c>
       <c r="G9" t="n">
-        <v>1011.666666666667</v>
+        <v>1011.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C10" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D10" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E10" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F10" t="n">
-        <v>145.3808</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
-        <v>1011.516666666667</v>
+        <v>1011.666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>1000</v>
       </c>
       <c r="F11" t="n">
-        <v>332.3318</v>
+        <v>145.3808</v>
       </c>
       <c r="G11" t="n">
-        <v>1011.366666666667</v>
+        <v>1011.516666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C12" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F12" t="n">
-        <v>1144.9231</v>
+        <v>332.3318</v>
       </c>
       <c r="G12" t="n">
-        <v>1011.283333333333</v>
+        <v>1011.366666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D13" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E13" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F13" t="n">
-        <v>876.6061</v>
+        <v>1144.9231</v>
       </c>
       <c r="G13" t="n">
-        <v>1011.183333333333</v>
+        <v>1011.283333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C14" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D14" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E14" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F14" t="n">
-        <v>495</v>
+        <v>876.6061</v>
       </c>
       <c r="G14" t="n">
-        <v>1011.066666666667</v>
+        <v>1011.183333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>999</v>
       </c>
       <c r="F15" t="n">
-        <v>1677.9427</v>
+        <v>495</v>
       </c>
       <c r="G15" t="n">
-        <v>1010.9</v>
+        <v>1011.066666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>999</v>
       </c>
       <c r="C16" t="n">
-        <v>995.8</v>
+        <v>999</v>
       </c>
       <c r="D16" t="n">
         <v>999</v>
       </c>
       <c r="E16" t="n">
-        <v>995.8</v>
+        <v>999</v>
       </c>
       <c r="F16" t="n">
-        <v>2897.6135</v>
+        <v>1677.9427</v>
       </c>
       <c r="G16" t="n">
-        <v>1010.68</v>
+        <v>1010.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C17" t="n">
-        <v>1004</v>
+        <v>995.8</v>
       </c>
       <c r="D17" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E17" t="n">
-        <v>1004</v>
+        <v>995.8</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2897.6135</v>
       </c>
       <c r="G17" t="n">
-        <v>1010.58</v>
+        <v>1010.68</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1004</v>
       </c>
       <c r="F18" t="n">
-        <v>2511.9172</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1010.563333333333</v>
+        <v>1010.58</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C19" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D19" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E19" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2511.9172</v>
       </c>
       <c r="G19" t="n">
-        <v>1010.496666666667</v>
+        <v>1010.563333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C20" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D20" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E20" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1010.33</v>
+        <v>1010.496666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C21" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D21" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E21" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F21" t="n">
-        <v>987.63069306</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1010.196666666667</v>
+        <v>1010.33</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C22" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D22" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E22" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>987.63069306</v>
       </c>
       <c r="G22" t="n">
-        <v>1010.096666666667</v>
+        <v>1010.196666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C23" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D23" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E23" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1010.013333333333</v>
+        <v>1010.096666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C24" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D24" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E24" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F24" t="n">
-        <v>2700.91369458</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1010.18</v>
+        <v>1010.013333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C25" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D25" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E25" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2700.91369458</v>
       </c>
       <c r="G25" t="n">
-        <v>1010.363333333333</v>
+        <v>1010.18</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1010.546666666667</v>
+        <v>1010.363333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>1016</v>
       </c>
       <c r="C27" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D27" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E27" t="n">
         <v>1016</v>
       </c>
       <c r="F27" t="n">
-        <v>3707.1818</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1010.763333333333</v>
+        <v>1010.546666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C28" t="n">
         <v>1018</v>
       </c>
-      <c r="C28" t="n">
-        <v>1020</v>
-      </c>
       <c r="D28" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E28" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F28" t="n">
-        <v>2774.139</v>
+        <v>3707.1818</v>
       </c>
       <c r="G28" t="n">
-        <v>1011.013333333333</v>
+        <v>1010.763333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C29" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="D29" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="E29" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="F29" t="n">
-        <v>568.3913</v>
+        <v>2774.139</v>
       </c>
       <c r="G29" t="n">
-        <v>1011.063333333333</v>
+        <v>1011.013333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C30" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D30" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E30" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>568.3913</v>
       </c>
       <c r="G30" t="n">
-        <v>1011.163333333333</v>
+        <v>1011.063333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C31" t="n">
         <v>1020</v>
       </c>
-      <c r="C31" t="n">
-        <v>1021</v>
-      </c>
       <c r="D31" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E31" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F31" t="n">
-        <v>442.4577</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>1011.313333333333</v>
+        <v>1011.163333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C32" t="n">
         <v>1021</v>
@@ -1492,13 +1492,13 @@
         <v>1021</v>
       </c>
       <c r="E32" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>442.4577</v>
       </c>
       <c r="G32" t="n">
-        <v>1011.58</v>
+        <v>1011.313333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="C33" t="n">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="D33" t="n">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="E33" t="n">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="F33" t="n">
-        <v>3771.009</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1011.563333333333</v>
+        <v>1011.58</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C34" t="n">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D34" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E34" t="n">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F34" t="n">
-        <v>300.1644</v>
+        <v>3771.009</v>
       </c>
       <c r="G34" t="n">
-        <v>1011.596666666667</v>
+        <v>1011.563333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="C35" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="D35" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="E35" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="F35" t="n">
-        <v>30.119</v>
+        <v>300.1644</v>
       </c>
       <c r="G35" t="n">
-        <v>1011.463333333333</v>
+        <v>1011.596666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C36" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D36" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E36" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="F36" t="n">
-        <v>19.881</v>
+        <v>30.119</v>
       </c>
       <c r="G36" t="n">
-        <v>1011.296666666667</v>
+        <v>1011.463333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C37" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D37" t="n">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E37" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F37" t="n">
-        <v>529.9571</v>
+        <v>19.881</v>
       </c>
       <c r="G37" t="n">
-        <v>1011.28</v>
+        <v>1011.296666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C38" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D38" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E38" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F38" t="n">
-        <v>4.6492</v>
+        <v>529.9571</v>
       </c>
       <c r="G38" t="n">
-        <v>1011.13</v>
+        <v>1011.28</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C39" t="n">
-        <v>997.6</v>
+        <v>1007</v>
       </c>
       <c r="D39" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E39" t="n">
-        <v>997.6</v>
+        <v>1007</v>
       </c>
       <c r="F39" t="n">
-        <v>3687.5444</v>
+        <v>4.6492</v>
       </c>
       <c r="G39" t="n">
-        <v>1010.806666666667</v>
+        <v>1011.13</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C40" t="n">
         <v>997.6</v>
       </c>
-      <c r="C40" t="n">
-        <v>1005</v>
-      </c>
       <c r="D40" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E40" t="n">
-        <v>997</v>
+        <v>997.6</v>
       </c>
       <c r="F40" t="n">
-        <v>7907.0125</v>
+        <v>3687.5444</v>
       </c>
       <c r="G40" t="n">
-        <v>1010.69</v>
+        <v>1010.806666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>997</v>
+        <v>997.6</v>
       </c>
       <c r="C41" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="D41" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="E41" t="n">
         <v>997</v>
       </c>
       <c r="F41" t="n">
-        <v>642.1661</v>
+        <v>7907.0125</v>
       </c>
       <c r="G41" t="n">
-        <v>1010.373333333333</v>
+        <v>1010.69</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C42" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D42" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E42" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F42" t="n">
-        <v>1946.1162</v>
+        <v>642.1661</v>
       </c>
       <c r="G42" t="n">
-        <v>1010.023333333333</v>
+        <v>1010.373333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>994.7</v>
+        <v>996</v>
       </c>
       <c r="C43" t="n">
-        <v>994.7</v>
+        <v>996</v>
       </c>
       <c r="D43" t="n">
-        <v>994.7</v>
+        <v>996</v>
       </c>
       <c r="E43" t="n">
-        <v>994.7</v>
+        <v>996</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>1946.1162</v>
       </c>
       <c r="G43" t="n">
-        <v>1009.651666666667</v>
+        <v>1010.023333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>994.7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6838</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>1009.263333333333</v>
+        <v>1009.651666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>994.7</v>
       </c>
       <c r="F45" t="n">
-        <v>80.8704</v>
+        <v>0.6838</v>
       </c>
       <c r="G45" t="n">
-        <v>1008.891666666667</v>
+        <v>1009.263333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>996</v>
+        <v>994.7</v>
       </c>
       <c r="C46" t="n">
-        <v>996</v>
+        <v>994.7</v>
       </c>
       <c r="D46" t="n">
-        <v>996</v>
+        <v>994.7</v>
       </c>
       <c r="E46" t="n">
-        <v>996</v>
+        <v>994.7</v>
       </c>
       <c r="F46" t="n">
-        <v>2.3977</v>
+        <v>80.8704</v>
       </c>
       <c r="G46" t="n">
-        <v>1008.525</v>
+        <v>1008.891666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>991.9</v>
+        <v>996</v>
       </c>
       <c r="C47" t="n">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="D47" t="n">
-        <v>991.9</v>
+        <v>996</v>
       </c>
       <c r="E47" t="n">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="F47" t="n">
-        <v>43.0373</v>
+        <v>2.3977</v>
       </c>
       <c r="G47" t="n">
-        <v>1008.058333333333</v>
+        <v>1008.525</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>990</v>
+        <v>991.9</v>
       </c>
       <c r="C48" t="n">
         <v>990</v>
       </c>
       <c r="D48" t="n">
-        <v>990</v>
+        <v>991.9</v>
       </c>
       <c r="E48" t="n">
         <v>990</v>
       </c>
       <c r="F48" t="n">
-        <v>69.6647</v>
+        <v>43.0373</v>
       </c>
       <c r="G48" t="n">
-        <v>1007.558333333333</v>
+        <v>1008.058333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>990</v>
       </c>
       <c r="F49" t="n">
-        <v>61.2739</v>
+        <v>69.6647</v>
       </c>
       <c r="G49" t="n">
-        <v>1007.041666666667</v>
+        <v>1007.558333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>990</v>
       </c>
       <c r="F50" t="n">
-        <v>46.9636</v>
+        <v>61.2739</v>
       </c>
       <c r="G50" t="n">
-        <v>1006.508333333333</v>
+        <v>1007.041666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>987.4</v>
+        <v>990</v>
       </c>
       <c r="C51" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="D51" t="n">
-        <v>987.4</v>
+        <v>990</v>
       </c>
       <c r="E51" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="F51" t="n">
-        <v>1017.5401</v>
+        <v>46.9636</v>
       </c>
       <c r="G51" t="n">
-        <v>1005.941666666666</v>
+        <v>1006.508333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>986</v>
+        <v>987.4</v>
       </c>
       <c r="C52" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D52" t="n">
-        <v>986</v>
+        <v>987.4</v>
       </c>
       <c r="E52" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F52" t="n">
-        <v>62.1922</v>
+        <v>1017.5401</v>
       </c>
       <c r="G52" t="n">
-        <v>1005.341666666667</v>
+        <v>1005.941666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,35 +2218,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C53" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D53" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E53" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F53" t="n">
-        <v>189.8102</v>
+        <v>62.1922</v>
       </c>
       <c r="G53" t="n">
-        <v>1004.925</v>
+        <v>1005.341666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>986</v>
-      </c>
-      <c r="K53" t="n">
-        <v>986</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2257,40 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C54" t="n">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D54" t="n">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E54" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F54" t="n">
-        <v>2327.93139297</v>
+        <v>189.8102</v>
       </c>
       <c r="G54" t="n">
-        <v>1004.558333333333</v>
+        <v>1004.925</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>994</v>
-      </c>
-      <c r="K54" t="n">
-        <v>986</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C55" t="n">
         <v>997</v>
@@ -2309,31 +2297,23 @@
         <v>997</v>
       </c>
       <c r="E55" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F55" t="n">
-        <v>1355.1831</v>
+        <v>2327.93139297</v>
       </c>
       <c r="G55" t="n">
-        <v>1004.241666666667</v>
+        <v>1004.558333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>997</v>
-      </c>
-      <c r="K55" t="n">
-        <v>986</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2355,23 +2335,19 @@
         <v>997</v>
       </c>
       <c r="F56" t="n">
-        <v>144.0769</v>
+        <v>1355.1831</v>
       </c>
       <c r="G56" t="n">
-        <v>1004.008333333333</v>
+        <v>1004.241666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>997</v>
-      </c>
-      <c r="K56" t="n">
-        <v>997</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2382,40 +2358,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>994.1</v>
+        <v>997</v>
       </c>
       <c r="C57" t="n">
-        <v>994.1</v>
+        <v>997</v>
       </c>
       <c r="D57" t="n">
-        <v>994.1</v>
+        <v>997</v>
       </c>
       <c r="E57" t="n">
-        <v>994.1</v>
+        <v>997</v>
       </c>
       <c r="F57" t="n">
-        <v>441.4577</v>
+        <v>144.0769</v>
       </c>
       <c r="G57" t="n">
-        <v>1003.843333333333</v>
+        <v>1004.008333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>997</v>
-      </c>
-      <c r="K57" t="n">
-        <v>997</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>997</v>
+        <v>994.1</v>
       </c>
       <c r="C58" t="n">
-        <v>997</v>
+        <v>994.1</v>
       </c>
       <c r="D58" t="n">
-        <v>997</v>
+        <v>994.1</v>
       </c>
       <c r="E58" t="n">
-        <v>997</v>
+        <v>994.1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0001</v>
+        <v>441.4577</v>
       </c>
       <c r="G58" t="n">
-        <v>1003.693333333333</v>
+        <v>1003.843333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2449,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>997</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2466,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C59" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D59" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E59" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>0.0001</v>
       </c>
       <c r="G59" t="n">
-        <v>1003.626666666667</v>
+        <v>1003.693333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2501,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>999.4</v>
+        <v>1002</v>
       </c>
       <c r="C60" t="n">
-        <v>999.3</v>
+        <v>1002</v>
       </c>
       <c r="D60" t="n">
-        <v>999.4</v>
+        <v>1002</v>
       </c>
       <c r="E60" t="n">
-        <v>999.3</v>
+        <v>1002</v>
       </c>
       <c r="F60" t="n">
-        <v>1655</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="n">
-        <v>1003.448333333333</v>
+        <v>1003.626666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2536,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>998.1</v>
+        <v>999.4</v>
       </c>
       <c r="C61" t="n">
-        <v>998.1</v>
+        <v>999.3</v>
       </c>
       <c r="D61" t="n">
-        <v>998.1</v>
+        <v>999.4</v>
       </c>
       <c r="E61" t="n">
-        <v>998.1</v>
+        <v>999.3</v>
       </c>
       <c r="F61" t="n">
-        <v>2400</v>
+        <v>1655</v>
       </c>
       <c r="G61" t="n">
-        <v>1003.25</v>
+        <v>1003.448333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2571,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1007</v>
+        <v>998.1</v>
       </c>
       <c r="C62" t="n">
-        <v>1007</v>
+        <v>998.1</v>
       </c>
       <c r="D62" t="n">
-        <v>1007</v>
+        <v>998.1</v>
       </c>
       <c r="E62" t="n">
-        <v>1007</v>
+        <v>998.1</v>
       </c>
       <c r="F62" t="n">
-        <v>2.20655412</v>
+        <v>2400</v>
       </c>
       <c r="G62" t="n">
-        <v>1003.133333333333</v>
+        <v>1003.25</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2606,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C63" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D63" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E63" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="F63" t="n">
-        <v>1074</v>
+        <v>2.20655412</v>
       </c>
       <c r="G63" t="n">
-        <v>1003.033333333333</v>
+        <v>1003.133333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2653,10 +2615,10 @@
         <v>1003</v>
       </c>
       <c r="F64" t="n">
-        <v>36</v>
+        <v>1074</v>
       </c>
       <c r="G64" t="n">
-        <v>1002.983333333333</v>
+        <v>1003.033333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2676,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="C65" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="D65" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="E65" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="F65" t="n">
-        <v>6480.3207</v>
+        <v>36</v>
       </c>
       <c r="G65" t="n">
-        <v>1002.901666666667</v>
+        <v>1002.983333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2723,10 +2685,10 @@
         <v>998.1</v>
       </c>
       <c r="F66" t="n">
-        <v>62.2891</v>
+        <v>6480.3207</v>
       </c>
       <c r="G66" t="n">
-        <v>1002.82</v>
+        <v>1002.901666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2746,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>999</v>
+        <v>998.1</v>
       </c>
       <c r="C67" t="n">
-        <v>999</v>
+        <v>998.1</v>
       </c>
       <c r="D67" t="n">
-        <v>999</v>
+        <v>998.1</v>
       </c>
       <c r="E67" t="n">
-        <v>999</v>
+        <v>998.1</v>
       </c>
       <c r="F67" t="n">
-        <v>199.8598</v>
+        <v>62.2891</v>
       </c>
       <c r="G67" t="n">
-        <v>1002.786666666667</v>
+        <v>1002.82</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2793,10 +2755,10 @@
         <v>999</v>
       </c>
       <c r="F68" t="n">
-        <v>100.0999</v>
+        <v>199.8598</v>
       </c>
       <c r="G68" t="n">
-        <v>1002.753333333333</v>
+        <v>1002.786666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2828,10 +2790,10 @@
         <v>999</v>
       </c>
       <c r="F69" t="n">
-        <v>2886.8303</v>
+        <v>100.0999</v>
       </c>
       <c r="G69" t="n">
-        <v>1002.67</v>
+        <v>1002.753333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2863,10 +2825,10 @@
         <v>999</v>
       </c>
       <c r="F70" t="n">
-        <v>165.2299</v>
+        <v>2886.8303</v>
       </c>
       <c r="G70" t="n">
-        <v>1002.653333333333</v>
+        <v>1002.67</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2898,10 +2860,10 @@
         <v>999</v>
       </c>
       <c r="F71" t="n">
-        <v>80.4264</v>
+        <v>165.2299</v>
       </c>
       <c r="G71" t="n">
-        <v>1002.636666666667</v>
+        <v>1002.653333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2933,10 +2895,10 @@
         <v>999</v>
       </c>
       <c r="F72" t="n">
-        <v>1326.8</v>
+        <v>80.4264</v>
       </c>
       <c r="G72" t="n">
-        <v>1002.603333333333</v>
+        <v>1002.636666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2959,19 +2921,19 @@
         <v>999</v>
       </c>
       <c r="C73" t="n">
-        <v>998.1</v>
+        <v>999</v>
       </c>
       <c r="D73" t="n">
         <v>999</v>
       </c>
       <c r="E73" t="n">
-        <v>998.1</v>
+        <v>999</v>
       </c>
       <c r="F73" t="n">
-        <v>557.2127</v>
+        <v>1326.8</v>
       </c>
       <c r="G73" t="n">
-        <v>1002.571666666666</v>
+        <v>1002.603333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2991,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>998.1</v>
+        <v>999</v>
       </c>
       <c r="C74" t="n">
         <v>998.1</v>
       </c>
       <c r="D74" t="n">
-        <v>998.1</v>
+        <v>999</v>
       </c>
       <c r="E74" t="n">
         <v>998.1</v>
       </c>
       <c r="F74" t="n">
-        <v>852.4299999999999</v>
+        <v>557.2127</v>
       </c>
       <c r="G74" t="n">
-        <v>1002.556666666667</v>
+        <v>1002.571666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3026,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1001</v>
+        <v>998.1</v>
       </c>
       <c r="C75" t="n">
-        <v>1001</v>
+        <v>998.1</v>
       </c>
       <c r="D75" t="n">
-        <v>1001</v>
+        <v>998.1</v>
       </c>
       <c r="E75" t="n">
-        <v>1001</v>
+        <v>998.1</v>
       </c>
       <c r="F75" t="n">
-        <v>2212</v>
+        <v>852.4299999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>1002.59</v>
+        <v>1002.556666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3064,19 +3026,19 @@
         <v>1001</v>
       </c>
       <c r="C76" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="D76" t="n">
         <v>1001</v>
       </c>
       <c r="E76" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="F76" t="n">
-        <v>773.2153</v>
+        <v>2212</v>
       </c>
       <c r="G76" t="n">
-        <v>1002.628333333333</v>
+        <v>1002.59</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3096,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C77" t="n">
         <v>998.1</v>
       </c>
-      <c r="C77" t="n">
-        <v>990.1</v>
-      </c>
       <c r="D77" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E77" t="n">
         <v>998.1</v>
       </c>
-      <c r="E77" t="n">
-        <v>990.1</v>
-      </c>
       <c r="F77" t="n">
-        <v>937.8357999999999</v>
+        <v>773.2153</v>
       </c>
       <c r="G77" t="n">
-        <v>1002.396666666666</v>
+        <v>1002.628333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3131,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>994.2</v>
+        <v>998.1</v>
       </c>
       <c r="C78" t="n">
-        <v>993.1</v>
+        <v>990.1</v>
       </c>
       <c r="D78" t="n">
-        <v>994.2</v>
+        <v>998.1</v>
       </c>
       <c r="E78" t="n">
-        <v>993.1</v>
+        <v>990.1</v>
       </c>
       <c r="F78" t="n">
-        <v>229.1408</v>
+        <v>937.8357999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>1002.215</v>
+        <v>1002.396666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3166,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>992.2</v>
+        <v>994.2</v>
       </c>
       <c r="C79" t="n">
-        <v>992.1</v>
+        <v>993.1</v>
       </c>
       <c r="D79" t="n">
-        <v>992.2</v>
+        <v>994.2</v>
       </c>
       <c r="E79" t="n">
-        <v>992.1</v>
+        <v>993.1</v>
       </c>
       <c r="F79" t="n">
-        <v>100.7983</v>
+        <v>229.1408</v>
       </c>
       <c r="G79" t="n">
-        <v>1001.983333333333</v>
+        <v>1002.215</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3201,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>992.1</v>
+        <v>992.2</v>
       </c>
       <c r="C80" t="n">
         <v>992.1</v>
       </c>
       <c r="D80" t="n">
-        <v>992.1</v>
+        <v>992.2</v>
       </c>
       <c r="E80" t="n">
         <v>992.1</v>
       </c>
       <c r="F80" t="n">
-        <v>2338.4094</v>
+        <v>100.7983</v>
       </c>
       <c r="G80" t="n">
-        <v>1001.735</v>
+        <v>1001.983333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3236,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1001</v>
+        <v>992.1</v>
       </c>
       <c r="C81" t="n">
-        <v>1001</v>
+        <v>992.1</v>
       </c>
       <c r="D81" t="n">
-        <v>1001</v>
+        <v>992.1</v>
       </c>
       <c r="E81" t="n">
-        <v>1001</v>
+        <v>992.1</v>
       </c>
       <c r="F81" t="n">
-        <v>279.7812</v>
+        <v>2338.4094</v>
       </c>
       <c r="G81" t="n">
-        <v>1001.585</v>
+        <v>1001.735</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3271,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C82" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D82" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E82" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F82" t="n">
-        <v>495</v>
+        <v>279.7812</v>
       </c>
       <c r="G82" t="n">
-        <v>1001.468333333333</v>
+        <v>1001.585</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3306,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C83" t="n">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D83" t="n">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E83" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F83" t="n">
-        <v>941.8437</v>
+        <v>495</v>
       </c>
       <c r="G83" t="n">
-        <v>1001.435</v>
+        <v>1001.468333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3341,19 +3303,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C84" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D84" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E84" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="F84" t="n">
-        <v>4523.7353</v>
+        <v>941.8437</v>
       </c>
       <c r="G84" t="n">
         <v>1001.435</v>
@@ -3376,19 +3338,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C85" t="n">
         <v>1015</v>
       </c>
-      <c r="C85" t="n">
-        <v>1016</v>
-      </c>
       <c r="D85" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E85" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F85" t="n">
-        <v>345.8788</v>
+        <v>4523.7353</v>
       </c>
       <c r="G85" t="n">
         <v>1001.435</v>
@@ -3411,19 +3373,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C86" t="n">
         <v>1016</v>
       </c>
       <c r="D86" t="n">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E86" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F86" t="n">
-        <v>3467.951</v>
+        <v>345.8788</v>
       </c>
       <c r="G86" t="n">
         <v>1001.435</v>
@@ -3446,28 +3408,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C87" t="n">
         <v>1016</v>
       </c>
       <c r="D87" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E87" t="n">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F87" t="n">
-        <v>623.4948000000001</v>
+        <v>3467.951</v>
       </c>
       <c r="G87" t="n">
-        <v>1001.401666666666</v>
+        <v>1001.435</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3481,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C88" t="n">
         <v>1016</v>
@@ -3490,19 +3452,19 @@
         <v>1016</v>
       </c>
       <c r="E88" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="F88" t="n">
-        <v>1667.5756</v>
+        <v>623.4948000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>1001.335</v>
+        <v>1001.401666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3516,28 +3478,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C89" t="n">
         <v>1016</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1014</v>
       </c>
       <c r="D89" t="n">
         <v>1016</v>
       </c>
       <c r="E89" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F89" t="n">
-        <v>860.2051</v>
+        <v>1667.5756</v>
       </c>
       <c r="G89" t="n">
-        <v>1001.318333333333</v>
+        <v>1001.335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3551,28 +3513,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C90" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D90" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E90" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>860.2051</v>
       </c>
       <c r="G90" t="n">
-        <v>1001.151666666666</v>
+        <v>1001.318333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3586,28 +3548,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C91" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D91" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E91" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>1001.051666666666</v>
+        <v>1001.151666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3633,10 +3595,10 @@
         <v>1014</v>
       </c>
       <c r="F92" t="n">
-        <v>7036.4716</v>
+        <v>0.6</v>
       </c>
       <c r="G92" t="n">
-        <v>1000.951666666666</v>
+        <v>1001.051666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3656,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="C93" t="n">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="D93" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="E93" t="n">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="F93" t="n">
         <v>7036.4716</v>
       </c>
       <c r="G93" t="n">
-        <v>1000.818333333333</v>
+        <v>1000.951666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3691,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C94" t="n">
         <v>1004</v>
       </c>
       <c r="D94" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E94" t="n">
         <v>1004</v>
       </c>
       <c r="F94" t="n">
-        <v>1866.0681</v>
+        <v>7036.4716</v>
       </c>
       <c r="G94" t="n">
-        <v>1000.618333333333</v>
+        <v>1000.818333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3726,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C95" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D95" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E95" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F95" t="n">
-        <v>5.3122</v>
+        <v>1866.0681</v>
       </c>
       <c r="G95" t="n">
-        <v>1000.551666666666</v>
+        <v>1000.618333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3761,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C96" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D96" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E96" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F96" t="n">
-        <v>913.9458</v>
+        <v>5.3122</v>
       </c>
       <c r="G96" t="n">
-        <v>1000.518333333333</v>
+        <v>1000.551666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3796,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C97" t="n">
         <v>1004</v>
       </c>
       <c r="D97" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E97" t="n">
         <v>1004</v>
       </c>
       <c r="F97" t="n">
-        <v>181.0127</v>
+        <v>913.9458</v>
       </c>
       <c r="G97" t="n">
-        <v>1000.435</v>
+        <v>1000.518333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3834,19 +3796,19 @@
         <v>1005</v>
       </c>
       <c r="C98" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D98" t="n">
         <v>1005</v>
       </c>
       <c r="E98" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F98" t="n">
-        <v>2879.8346</v>
+        <v>181.0127</v>
       </c>
       <c r="G98" t="n">
-        <v>1000.351666666666</v>
+        <v>1000.435</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3866,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C99" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D99" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E99" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F99" t="n">
-        <v>50.015</v>
+        <v>2879.8346</v>
       </c>
       <c r="G99" t="n">
-        <v>1000.525</v>
+        <v>1000.351666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3913,10 +3875,10 @@
         <v>1008</v>
       </c>
       <c r="F100" t="n">
-        <v>64</v>
+        <v>50.015</v>
       </c>
       <c r="G100" t="n">
-        <v>1000.575</v>
+        <v>1000.525</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3936,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C101" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D101" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E101" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="F101" t="n">
-        <v>2233.2014</v>
+        <v>64</v>
       </c>
       <c r="G101" t="n">
-        <v>1000.741666666666</v>
+        <v>1000.575</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3974,19 +3936,19 @@
         <v>1006</v>
       </c>
       <c r="C102" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D102" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E102" t="n">
         <v>1005</v>
       </c>
       <c r="F102" t="n">
-        <v>2073.7299</v>
+        <v>2233.2014</v>
       </c>
       <c r="G102" t="n">
-        <v>1000.891666666666</v>
+        <v>1000.741666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4006,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C103" t="n">
         <v>1005</v>
       </c>
       <c r="D103" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E103" t="n">
         <v>1005</v>
       </c>
       <c r="F103" t="n">
-        <v>1158</v>
+        <v>2073.7299</v>
       </c>
       <c r="G103" t="n">
-        <v>1001.063333333333</v>
+        <v>1000.891666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4053,10 +4015,10 @@
         <v>1005</v>
       </c>
       <c r="F104" t="n">
-        <v>100.1581</v>
+        <v>1158</v>
       </c>
       <c r="G104" t="n">
-        <v>1001.235</v>
+        <v>1001.063333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4088,10 +4050,10 @@
         <v>1005</v>
       </c>
       <c r="F105" t="n">
-        <v>6076.5849</v>
+        <v>100.1581</v>
       </c>
       <c r="G105" t="n">
-        <v>1001.406666666666</v>
+        <v>1001.235</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4123,10 +4085,10 @@
         <v>1005</v>
       </c>
       <c r="F106" t="n">
-        <v>675.4618</v>
+        <v>6076.5849</v>
       </c>
       <c r="G106" t="n">
-        <v>1001.556666666667</v>
+        <v>1001.406666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4158,10 +4120,10 @@
         <v>1005</v>
       </c>
       <c r="F107" t="n">
-        <v>596.8201</v>
+        <v>675.4618</v>
       </c>
       <c r="G107" t="n">
-        <v>1001.806666666667</v>
+        <v>1001.556666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4193,10 +4155,10 @@
         <v>1005</v>
       </c>
       <c r="F108" t="n">
-        <v>20.2348</v>
+        <v>596.8201</v>
       </c>
       <c r="G108" t="n">
-        <v>1002.056666666667</v>
+        <v>1001.806666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4228,10 +4190,10 @@
         <v>1005</v>
       </c>
       <c r="F109" t="n">
-        <v>113.5594</v>
+        <v>20.2348</v>
       </c>
       <c r="G109" t="n">
-        <v>1002.306666666667</v>
+        <v>1002.056666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4251,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C110" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="D110" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E110" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F110" t="n">
-        <v>390.8217</v>
+        <v>113.5594</v>
       </c>
       <c r="G110" t="n">
-        <v>1002.49</v>
+        <v>1002.306666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4286,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C111" t="n">
         <v>1001</v>
       </c>
       <c r="D111" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E111" t="n">
         <v>1001</v>
       </c>
       <c r="F111" t="n">
-        <v>99.5</v>
+        <v>390.8217</v>
       </c>
       <c r="G111" t="n">
-        <v>1002.756666666666</v>
+        <v>1002.49</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4333,10 +4295,10 @@
         <v>1001</v>
       </c>
       <c r="F112" t="n">
-        <v>107.2391</v>
+        <v>99.5</v>
       </c>
       <c r="G112" t="n">
-        <v>1003.006666666666</v>
+        <v>1002.756666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4368,10 +4330,10 @@
         <v>1001</v>
       </c>
       <c r="F113" t="n">
-        <v>254.4469</v>
+        <v>107.2391</v>
       </c>
       <c r="G113" t="n">
-        <v>1003.123333333333</v>
+        <v>1003.006666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4403,19 +4365,23 @@
         <v>1001</v>
       </c>
       <c r="F114" t="n">
-        <v>595</v>
+        <v>254.4469</v>
       </c>
       <c r="G114" t="n">
-        <v>1003.19</v>
+        <v>1003.123333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1001</v>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4438,20 +4404,28 @@
         <v>1001</v>
       </c>
       <c r="F115" t="n">
-        <v>429</v>
+        <v>595</v>
       </c>
       <c r="G115" t="n">
-        <v>1003.256666666666</v>
+        <v>1003.19</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4473,20 +4447,28 @@
         <v>1001</v>
       </c>
       <c r="F116" t="n">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="G116" t="n">
-        <v>1003.323333333333</v>
+        <v>1003.256666666666</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4508,19 +4490,23 @@
         <v>1001</v>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="G117" t="n">
-        <v>1003.438333333333</v>
+        <v>1003.323333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1001</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
@@ -4540,13 +4526,13 @@
         <v>1001</v>
       </c>
       <c r="E118" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F118" t="n">
-        <v>9583.8338</v>
+        <v>25</v>
       </c>
       <c r="G118" t="n">
-        <v>1003.505</v>
+        <v>1003.438333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4555,8 +4541,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4569,7 +4561,7 @@
         <v>1001</v>
       </c>
       <c r="C119" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D119" t="n">
         <v>1001</v>
@@ -4578,10 +4570,10 @@
         <v>1000</v>
       </c>
       <c r="F119" t="n">
-        <v>5923.5537</v>
+        <v>9583.8338</v>
       </c>
       <c r="G119" t="n">
-        <v>1003.471666666666</v>
+        <v>1003.505</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4590,8 +4582,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4601,22 +4599,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C120" t="n">
         <v>1000</v>
       </c>
       <c r="D120" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E120" t="n">
         <v>1000</v>
       </c>
       <c r="F120" t="n">
-        <v>191</v>
+        <v>5923.5537</v>
       </c>
       <c r="G120" t="n">
-        <v>1003.483333333333</v>
+        <v>1003.471666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4625,8 +4623,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4648,10 +4652,10 @@
         <v>1000</v>
       </c>
       <c r="F121" t="n">
-        <v>382.8377</v>
+        <v>191</v>
       </c>
       <c r="G121" t="n">
-        <v>1003.515</v>
+        <v>1003.483333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4660,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4683,10 +4693,10 @@
         <v>1000</v>
       </c>
       <c r="F122" t="n">
-        <v>103</v>
+        <v>382.8377</v>
       </c>
       <c r="G122" t="n">
-        <v>1003.398333333333</v>
+        <v>1003.515</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4695,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4718,10 +4734,10 @@
         <v>1000</v>
       </c>
       <c r="F123" t="n">
-        <v>370</v>
+        <v>103</v>
       </c>
       <c r="G123" t="n">
-        <v>1003.348333333333</v>
+        <v>1003.398333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4730,8 +4746,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4753,10 +4775,10 @@
         <v>1000</v>
       </c>
       <c r="F124" t="n">
-        <v>278.705</v>
+        <v>370</v>
       </c>
       <c r="G124" t="n">
-        <v>1003.298333333333</v>
+        <v>1003.348333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4765,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4788,10 +4816,10 @@
         <v>1000</v>
       </c>
       <c r="F125" t="n">
-        <v>35.8227</v>
+        <v>278.705</v>
       </c>
       <c r="G125" t="n">
-        <v>1003.33</v>
+        <v>1003.298333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4800,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4823,10 +4857,10 @@
         <v>1000</v>
       </c>
       <c r="F126" t="n">
-        <v>43.3771</v>
+        <v>35.8227</v>
       </c>
       <c r="G126" t="n">
-        <v>1003.361666666666</v>
+        <v>1003.33</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4835,8 +4869,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4858,10 +4898,10 @@
         <v>1000</v>
       </c>
       <c r="F127" t="n">
-        <v>411.4053</v>
+        <v>43.3771</v>
       </c>
       <c r="G127" t="n">
-        <v>1003.378333333333</v>
+        <v>1003.361666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4870,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4893,10 +4939,10 @@
         <v>1000</v>
       </c>
       <c r="F128" t="n">
-        <v>144.4053</v>
+        <v>411.4053</v>
       </c>
       <c r="G128" t="n">
-        <v>1003.395</v>
+        <v>1003.378333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4905,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4928,10 +4980,10 @@
         <v>1000</v>
       </c>
       <c r="F129" t="n">
-        <v>191.8461</v>
+        <v>144.4053</v>
       </c>
       <c r="G129" t="n">
-        <v>1003.411666666667</v>
+        <v>1003.395</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4940,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4963,10 +5021,10 @@
         <v>1000</v>
       </c>
       <c r="F130" t="n">
-        <v>510.8795</v>
+        <v>191.8461</v>
       </c>
       <c r="G130" t="n">
-        <v>1003.428333333333</v>
+        <v>1003.411666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4975,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4998,10 +5062,10 @@
         <v>1000</v>
       </c>
       <c r="F131" t="n">
-        <v>1287.7059</v>
+        <v>510.8795</v>
       </c>
       <c r="G131" t="n">
-        <v>1003.445</v>
+        <v>1003.428333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5010,8 +5074,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5033,10 +5103,10 @@
         <v>1000</v>
       </c>
       <c r="F132" t="n">
-        <v>12995.1543</v>
+        <v>1287.7059</v>
       </c>
       <c r="G132" t="n">
-        <v>1003.461666666666</v>
+        <v>1003.445</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5045,8 +5115,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5068,10 +5144,10 @@
         <v>1000</v>
       </c>
       <c r="F133" t="n">
-        <v>2677.6453</v>
+        <v>12995.1543</v>
       </c>
       <c r="G133" t="n">
-        <v>1003.493333333333</v>
+        <v>1003.461666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5080,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5103,10 +5185,10 @@
         <v>1000</v>
       </c>
       <c r="F134" t="n">
-        <v>41.2473</v>
+        <v>2677.6453</v>
       </c>
       <c r="G134" t="n">
-        <v>1003.525</v>
+        <v>1003.493333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5115,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5138,10 +5226,10 @@
         <v>1000</v>
       </c>
       <c r="F135" t="n">
-        <v>45.0659</v>
+        <v>41.2473</v>
       </c>
       <c r="G135" t="n">
-        <v>1003.508333333333</v>
+        <v>1003.525</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5150,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5173,10 +5267,10 @@
         <v>1000</v>
       </c>
       <c r="F136" t="n">
-        <v>76.43170000000001</v>
+        <v>45.0659</v>
       </c>
       <c r="G136" t="n">
-        <v>1003.54</v>
+        <v>1003.508333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5185,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5208,10 +5308,10 @@
         <v>1000</v>
       </c>
       <c r="F137" t="n">
-        <v>40.0689</v>
+        <v>76.43170000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>1003.705</v>
+        <v>1003.54</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5220,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5243,10 +5349,10 @@
         <v>1000</v>
       </c>
       <c r="F138" t="n">
-        <v>768.5700000000001</v>
+        <v>40.0689</v>
       </c>
       <c r="G138" t="n">
-        <v>1003.82</v>
+        <v>1003.705</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5255,8 +5361,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5278,10 +5390,10 @@
         <v>1000</v>
       </c>
       <c r="F139" t="n">
-        <v>217</v>
+        <v>768.5700000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>1003.951666666667</v>
+        <v>1003.82</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5290,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5313,10 +5431,10 @@
         <v>1000</v>
       </c>
       <c r="F140" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="G140" t="n">
-        <v>1004.083333333333</v>
+        <v>1003.951666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5325,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5348,10 +5472,10 @@
         <v>1000</v>
       </c>
       <c r="F141" t="n">
-        <v>4919.948</v>
+        <v>25</v>
       </c>
       <c r="G141" t="n">
-        <v>1004.066666666667</v>
+        <v>1004.083333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5360,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5383,10 +5513,10 @@
         <v>1000</v>
       </c>
       <c r="F142" t="n">
-        <v>230.9871</v>
+        <v>4919.948</v>
       </c>
       <c r="G142" t="n">
-        <v>1003.983333333333</v>
+        <v>1004.066666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5395,8 +5525,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5418,10 +5554,10 @@
         <v>1000</v>
       </c>
       <c r="F143" t="n">
-        <v>2198.4819</v>
+        <v>230.9871</v>
       </c>
       <c r="G143" t="n">
-        <v>1003.8</v>
+        <v>1003.983333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5430,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5453,10 +5595,10 @@
         <v>1000</v>
       </c>
       <c r="F144" t="n">
-        <v>1300.7261</v>
+        <v>2198.4819</v>
       </c>
       <c r="G144" t="n">
-        <v>1003.55</v>
+        <v>1003.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5465,8 +5607,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5488,10 +5636,10 @@
         <v>1000</v>
       </c>
       <c r="F145" t="n">
-        <v>1224.4026</v>
+        <v>1300.7261</v>
       </c>
       <c r="G145" t="n">
-        <v>1003.283333333333</v>
+        <v>1003.55</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5500,8 +5648,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5523,10 +5677,10 @@
         <v>1000</v>
       </c>
       <c r="F146" t="n">
-        <v>44.9925</v>
+        <v>1224.4026</v>
       </c>
       <c r="G146" t="n">
-        <v>1003.016666666667</v>
+        <v>1003.283333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5535,8 +5689,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5558,10 +5718,10 @@
         <v>1000</v>
       </c>
       <c r="F147" t="n">
-        <v>972.0734</v>
+        <v>44.9925</v>
       </c>
       <c r="G147" t="n">
-        <v>1002.75</v>
+        <v>1003.016666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5570,8 +5730,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5593,10 +5759,10 @@
         <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>169.5863</v>
+        <v>972.0734</v>
       </c>
       <c r="G148" t="n">
-        <v>1002.483333333333</v>
+        <v>1002.75</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5605,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5628,10 +5800,10 @@
         <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>7843.155</v>
+        <v>169.5863</v>
       </c>
       <c r="G149" t="n">
-        <v>1002.25</v>
+        <v>1002.483333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5640,8 +5812,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5663,10 +5841,10 @@
         <v>1000</v>
       </c>
       <c r="F150" t="n">
-        <v>753.3468</v>
+        <v>7843.155</v>
       </c>
       <c r="G150" t="n">
-        <v>1002.083333333333</v>
+        <v>1002.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5675,8 +5853,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5698,21 +5882,68 @@
         <v>1000</v>
       </c>
       <c r="F151" t="n">
+        <v>753.3468</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1002.083333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F152" t="n">
         <v>56.1976</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G152" t="n">
         <v>1001.833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>85.517</v>
       </c>
       <c r="G2" t="n">
+        <v>1014.866666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>1012.516666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>45</v>
       </c>
       <c r="G3" t="n">
+        <v>1014.6</v>
+      </c>
+      <c r="H3" t="n">
         <v>1012.55</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>85.2961</v>
       </c>
       <c r="G4" t="n">
+        <v>1013.866666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>1012.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>887.2781</v>
       </c>
       <c r="G5" t="n">
+        <v>1012.866666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>1012.433333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2225.124</v>
       </c>
       <c r="G6" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>1012.316666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>32.1363</v>
       </c>
       <c r="G7" t="n">
+        <v>1010.533333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1012.166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>346.4681</v>
       </c>
       <c r="G8" t="n">
+        <v>1009.133333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>1011.983333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>163.5319</v>
       </c>
       <c r="G9" t="n">
+        <v>1007.933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1011.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>92</v>
       </c>
       <c r="G10" t="n">
+        <v>1006.933333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>1011.666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>145.3808</v>
       </c>
       <c r="G11" t="n">
+        <v>1005.866666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>1011.516666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>332.3318</v>
       </c>
       <c r="G12" t="n">
+        <v>1005.133333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1011.366666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1144.9231</v>
       </c>
       <c r="G13" t="n">
+        <v>1004.933333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>1011.283333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>876.6061</v>
       </c>
       <c r="G14" t="n">
+        <v>1004.533333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>1011.183333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>495</v>
       </c>
       <c r="G15" t="n">
+        <v>1004.066666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>1011.066666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1677.9427</v>
       </c>
       <c r="G16" t="n">
+        <v>1003.333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>1010.9</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2897.6135</v>
       </c>
       <c r="G17" t="n">
+        <v>1002.386666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1010.68</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>1001.72</v>
+      </c>
+      <c r="H18" t="n">
         <v>1010.58</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2511.9172</v>
       </c>
       <c r="G19" t="n">
+        <v>1001.386666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1010.563333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>1001.386666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>1010.496666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>1001.653333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>1010.33</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>987.63069306</v>
       </c>
       <c r="G22" t="n">
+        <v>1002.12</v>
+      </c>
+      <c r="H22" t="n">
         <v>1010.196666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>1002.853333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>1010.096666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
+        <v>1003.653333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>1010.013333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2700.91369458</v>
       </c>
       <c r="G25" t="n">
+        <v>1004.386666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>1010.18</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>1005.453333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1010.363333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
+        <v>1006.52</v>
+      </c>
+      <c r="H27" t="n">
         <v>1010.546666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3707.1818</v>
       </c>
       <c r="G28" t="n">
+        <v>1007.653333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>1010.763333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>2774.139</v>
       </c>
       <c r="G29" t="n">
+        <v>1008.986666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>1011.013333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>568.3913</v>
       </c>
       <c r="G30" t="n">
+        <v>1010.053333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1011.063333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4</v>
       </c>
       <c r="G31" t="n">
+        <v>1011.453333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1011.163333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>442.4577</v>
       </c>
       <c r="G32" t="n">
+        <v>1013.133333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>1011.313333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
+        <v>1014.266666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>1011.58</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3771.009</v>
       </c>
       <c r="G34" t="n">
+        <v>1014.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>1011.563333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>300.1644</v>
       </c>
       <c r="G35" t="n">
+        <v>1015.466666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1011.596666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>30.119</v>
       </c>
       <c r="G36" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="H36" t="n">
         <v>1011.463333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>19.881</v>
       </c>
       <c r="G37" t="n">
+        <v>1015.333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>1011.296666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>529.9571</v>
       </c>
       <c r="G38" t="n">
+        <v>1015.133333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>1011.28</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4.6492</v>
       </c>
       <c r="G39" t="n">
+        <v>1014.733333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1011.13</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3687.5444</v>
       </c>
       <c r="G40" t="n">
+        <v>1013.573333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>1010.806666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>7907.0125</v>
       </c>
       <c r="G41" t="n">
+        <v>1012.84</v>
+      </c>
+      <c r="H41" t="n">
         <v>1010.69</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>642.1661</v>
       </c>
       <c r="G42" t="n">
+        <v>1011.573333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>1010.373333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1946.1162</v>
       </c>
       <c r="G43" t="n">
+        <v>1010.106666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>1010.023333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
+        <v>1008.42</v>
+      </c>
+      <c r="H44" t="n">
         <v>1009.651666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>0.6838</v>
       </c>
       <c r="G45" t="n">
+        <v>1007.066666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1009.263333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>80.8704</v>
       </c>
       <c r="G46" t="n">
+        <v>1005.38</v>
+      </c>
+      <c r="H46" t="n">
         <v>1008.891666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2.3977</v>
       </c>
       <c r="G47" t="n">
+        <v>1003.713333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>1008.525</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>43.0373</v>
       </c>
       <c r="G48" t="n">
+        <v>1001.646666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>1008.058333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>69.6647</v>
       </c>
       <c r="G49" t="n">
+        <v>1000.18</v>
+      </c>
+      <c r="H49" t="n">
         <v>1007.558333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>61.2739</v>
       </c>
       <c r="G50" t="n">
+        <v>998.4466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>1007.041666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>46.9636</v>
       </c>
       <c r="G51" t="n">
+        <v>997.1800000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>1006.508333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,27 @@
         <v>1017.5401</v>
       </c>
       <c r="G52" t="n">
+        <v>995.7800000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>1005.941666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>990</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2397,27 @@
         <v>62.1922</v>
       </c>
       <c r="G53" t="n">
+        <v>994.2466666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>1005.341666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>985</v>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2441,27 @@
         <v>189.8102</v>
       </c>
       <c r="G54" t="n">
+        <v>993.38</v>
+      </c>
+      <c r="H54" t="n">
         <v>1004.925</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>986</v>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2485,25 @@
         <v>2327.93139297</v>
       </c>
       <c r="G55" t="n">
+        <v>993.34</v>
+      </c>
+      <c r="H55" t="n">
         <v>1004.558333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2527,25 @@
         <v>1355.1831</v>
       </c>
       <c r="G56" t="n">
+        <v>992.8066666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>1004.241666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2569,25 @@
         <v>144.0769</v>
       </c>
       <c r="G57" t="n">
+        <v>992.8066666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>1004.008333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2611,25 @@
         <v>441.4577</v>
       </c>
       <c r="G58" t="n">
+        <v>992.6800000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>1003.843333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2653,25 @@
         <v>0.0001</v>
       </c>
       <c r="G59" t="n">
+        <v>992.8333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>1003.693333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2695,25 @@
         <v>1200</v>
       </c>
       <c r="G60" t="n">
+        <v>993.3199999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>1003.626666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2737,25 @@
         <v>1655</v>
       </c>
       <c r="G61" t="n">
+        <v>993.6266666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>1003.448333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2779,25 @@
         <v>2400</v>
       </c>
       <c r="G62" t="n">
+        <v>993.7666666666665</v>
+      </c>
+      <c r="H62" t="n">
         <v>1003.25</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2821,25 @@
         <v>2.20655412</v>
       </c>
       <c r="G63" t="n">
+        <v>994.8999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>1003.133333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2863,25 @@
         <v>1074</v>
       </c>
       <c r="G64" t="n">
+        <v>995.7666666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>1003.033333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2905,25 @@
         <v>36</v>
       </c>
       <c r="G65" t="n">
+        <v>996.6333333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>1002.983333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2947,25 @@
         <v>6480.3207</v>
       </c>
       <c r="G66" t="n">
+        <v>997.1733333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>1002.901666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2989,25 @@
         <v>62.2891</v>
       </c>
       <c r="G67" t="n">
+        <v>998.0466666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>1002.82</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3031,25 @@
         <v>199.8598</v>
       </c>
       <c r="G68" t="n">
+        <v>998.9133333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>1002.786666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3073,25 @@
         <v>100.0999</v>
       </c>
       <c r="G69" t="n">
+        <v>999.2466666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>1002.753333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3115,25 @@
         <v>2886.8303</v>
       </c>
       <c r="G70" t="n">
+        <v>999.3799999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>1002.67</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3157,25 @@
         <v>165.2299</v>
       </c>
       <c r="G71" t="n">
+        <v>999.5133333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>1002.653333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3199,25 @@
         <v>80.4264</v>
       </c>
       <c r="G72" t="n">
+        <v>999.6466666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>1002.636666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3241,25 @@
         <v>1326.8</v>
       </c>
       <c r="G73" t="n">
+        <v>999.9733333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>1002.603333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3283,25 @@
         <v>557.2127</v>
       </c>
       <c r="G74" t="n">
+        <v>1000.046666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1002.571666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3325,25 @@
         <v>852.4299999999999</v>
       </c>
       <c r="G75" t="n">
+        <v>999.7866666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>1002.556666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3367,25 @@
         <v>2212</v>
       </c>
       <c r="G76" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="H76" t="n">
         <v>1002.59</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3409,25 @@
         <v>773.2153</v>
       </c>
       <c r="G77" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="H77" t="n">
         <v>1002.628333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3451,25 @@
         <v>937.8357999999999</v>
       </c>
       <c r="G78" t="n">
+        <v>998.7733333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1002.396666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3493,25 @@
         <v>229.1408</v>
       </c>
       <c r="G79" t="n">
+        <v>998.1133333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>1002.215</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3535,25 @@
         <v>100.7983</v>
       </c>
       <c r="G80" t="n">
+        <v>997.3866666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>1001.983333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3577,25 @@
         <v>2338.4094</v>
       </c>
       <c r="G81" t="n">
+        <v>996.9866666666668</v>
+      </c>
+      <c r="H81" t="n">
         <v>1001.735</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3619,27 @@
         <v>279.7812</v>
       </c>
       <c r="G82" t="n">
+        <v>997.1800000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>1001.585</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>992.1</v>
+      </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3663,25 @@
         <v>495</v>
       </c>
       <c r="G83" t="n">
+        <v>997.58</v>
+      </c>
+      <c r="H83" t="n">
         <v>1001.468333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3705,25 @@
         <v>941.8437</v>
       </c>
       <c r="G84" t="n">
+        <v>998.38</v>
+      </c>
+      <c r="H84" t="n">
         <v>1001.435</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3747,25 @@
         <v>4523.7353</v>
       </c>
       <c r="G85" t="n">
+        <v>999.4466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>1001.435</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3789,25 @@
         <v>345.8788</v>
       </c>
       <c r="G86" t="n">
+        <v>1000.58</v>
+      </c>
+      <c r="H86" t="n">
         <v>1001.435</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3831,25 @@
         <v>3467.951</v>
       </c>
       <c r="G87" t="n">
+        <v>1001.713333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1001.435</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3873,25 @@
         <v>623.4948000000001</v>
       </c>
       <c r="G88" t="n">
+        <v>1002.846666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1001.401666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3915,25 @@
         <v>1667.5756</v>
       </c>
       <c r="G89" t="n">
+        <v>1004.04</v>
+      </c>
+      <c r="H89" t="n">
         <v>1001.335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3957,25 @@
         <v>860.2051</v>
       </c>
       <c r="G90" t="n">
+        <v>1005.1</v>
+      </c>
+      <c r="H90" t="n">
         <v>1001.318333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3999,25 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
+        <v>1005.7</v>
+      </c>
+      <c r="H91" t="n">
         <v>1001.151666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4041,25 @@
         <v>0.6</v>
       </c>
       <c r="G92" t="n">
+        <v>1006.826666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>1001.051666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4083,25 @@
         <v>7036.4716</v>
       </c>
       <c r="G93" t="n">
+        <v>1008.486666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1000.951666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4125,25 @@
         <v>7036.4716</v>
       </c>
       <c r="G94" t="n">
+        <v>1009.213333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>1000.818333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4167,25 @@
         <v>1866.0681</v>
       </c>
       <c r="G95" t="n">
+        <v>1010.006666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>1000.618333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4209,25 @@
         <v>5.3122</v>
       </c>
       <c r="G96" t="n">
+        <v>1010.866666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>1000.551666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4251,25 @@
         <v>913.9458</v>
       </c>
       <c r="G97" t="n">
+        <v>1011.066666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>1000.518333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4293,25 @@
         <v>181.0127</v>
       </c>
       <c r="G98" t="n">
+        <v>1011</v>
+      </c>
+      <c r="H98" t="n">
         <v>1000.435</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4335,25 @@
         <v>2879.8346</v>
       </c>
       <c r="G99" t="n">
+        <v>1010.4</v>
+      </c>
+      <c r="H99" t="n">
         <v>1000.351666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4377,25 @@
         <v>50.015</v>
       </c>
       <c r="G100" t="n">
+        <v>1009.933333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1000.525</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4419,25 @@
         <v>64</v>
       </c>
       <c r="G101" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>1000.575</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4461,25 @@
         <v>2233.2014</v>
       </c>
       <c r="G102" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="H102" t="n">
         <v>1000.741666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4503,25 @@
         <v>2073.7299</v>
       </c>
       <c r="G103" t="n">
+        <v>1008.066666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>1000.891666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4545,25 @@
         <v>1158</v>
       </c>
       <c r="G104" t="n">
+        <v>1007.333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1001.063333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4587,25 @@
         <v>100.1581</v>
       </c>
       <c r="G105" t="n">
+        <v>1006.733333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1001.235</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4629,25 @@
         <v>6076.5849</v>
       </c>
       <c r="G106" t="n">
+        <v>1006.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>1001.406666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4671,25 @@
         <v>675.4618</v>
       </c>
       <c r="G107" t="n">
+        <v>1005.733333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1001.556666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4713,25 @@
         <v>596.8201</v>
       </c>
       <c r="G108" t="n">
+        <v>1005.066666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>1001.806666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4755,25 @@
         <v>20.2348</v>
       </c>
       <c r="G109" t="n">
+        <v>1005.133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1002.056666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4797,25 @@
         <v>113.5594</v>
       </c>
       <c r="G110" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="H110" t="n">
         <v>1002.306666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4839,25 @@
         <v>390.8217</v>
       </c>
       <c r="G111" t="n">
+        <v>1004.933333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>1002.49</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4881,25 @@
         <v>99.5</v>
       </c>
       <c r="G112" t="n">
+        <v>1004.733333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>1002.756666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4923,25 @@
         <v>107.2391</v>
       </c>
       <c r="G113" t="n">
+        <v>1004.533333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>1003.006666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,22 +4965,25 @@
         <v>254.4469</v>
       </c>
       <c r="G114" t="n">
+        <v>1004.466666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>1003.123333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4407,26 +5007,27 @@
         <v>595</v>
       </c>
       <c r="G115" t="n">
+        <v>1004</v>
+      </c>
+      <c r="H115" t="n">
         <v>1003.19</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
         <v>1001</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,26 +5051,25 @@
         <v>429</v>
       </c>
       <c r="G116" t="n">
+        <v>1003.533333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>1003.256666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,22 +5093,27 @@
         <v>339</v>
       </c>
       <c r="G117" t="n">
+        <v>1003.133333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>1003.323333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>1001</v>
       </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,24 +5137,27 @@
         <v>25</v>
       </c>
       <c r="G118" t="n">
+        <v>1002.866666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>1003.438333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
         <v>1001</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,24 +5181,27 @@
         <v>9583.8338</v>
       </c>
       <c r="G119" t="n">
+        <v>1002.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>1003.505</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
         <v>1001</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,24 +5225,27 @@
         <v>5923.5537</v>
       </c>
       <c r="G120" t="n">
+        <v>1002.266666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>1003.471666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
         <v>1001</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,24 +5269,27 @@
         <v>191</v>
       </c>
       <c r="G121" t="n">
+        <v>1001.933333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>1003.483333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,24 +5313,27 @@
         <v>382.8377</v>
       </c>
       <c r="G122" t="n">
+        <v>1001.6</v>
+      </c>
+      <c r="H122" t="n">
         <v>1003.515</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,24 +5357,27 @@
         <v>103</v>
       </c>
       <c r="G123" t="n">
+        <v>1001.266666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>1003.398333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,24 +5401,27 @@
         <v>370</v>
       </c>
       <c r="G124" t="n">
+        <v>1000.933333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1003.348333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,24 +5445,27 @@
         <v>278.705</v>
       </c>
       <c r="G125" t="n">
+        <v>1000.6</v>
+      </c>
+      <c r="H125" t="n">
         <v>1003.298333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4860,24 +5489,27 @@
         <v>35.8227</v>
       </c>
       <c r="G126" t="n">
+        <v>1000.533333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1003.33</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4901,24 +5533,27 @@
         <v>43.3771</v>
       </c>
       <c r="G127" t="n">
+        <v>1000.466666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>1003.361666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,24 +5577,27 @@
         <v>411.4053</v>
       </c>
       <c r="G128" t="n">
+        <v>1000.4</v>
+      </c>
+      <c r="H128" t="n">
         <v>1003.378333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,24 +5621,27 @@
         <v>144.4053</v>
       </c>
       <c r="G129" t="n">
+        <v>1000.333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>1003.395</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,24 +5665,25 @@
         <v>191.8461</v>
       </c>
       <c r="G130" t="n">
+        <v>1000.266666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>1003.411666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,24 +5707,27 @@
         <v>510.8795</v>
       </c>
       <c r="G131" t="n">
+        <v>1000.2</v>
+      </c>
+      <c r="H131" t="n">
         <v>1003.428333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,24 +5751,27 @@
         <v>1287.7059</v>
       </c>
       <c r="G132" t="n">
+        <v>1000.133333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>1003.445</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,24 +5795,27 @@
         <v>12995.1543</v>
       </c>
       <c r="G133" t="n">
+        <v>1000.066666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>1003.461666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,24 +5839,25 @@
         <v>2677.6453</v>
       </c>
       <c r="G134" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>1003.493333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5229,24 +5881,25 @@
         <v>41.2473</v>
       </c>
       <c r="G135" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>1003.525</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,24 +5923,25 @@
         <v>45.0659</v>
       </c>
       <c r="G136" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>1003.508333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5311,24 +5965,25 @@
         <v>76.43170000000001</v>
       </c>
       <c r="G137" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>1003.54</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,24 +6007,25 @@
         <v>40.0689</v>
       </c>
       <c r="G138" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>1003.705</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,24 +6049,25 @@
         <v>768.5700000000001</v>
       </c>
       <c r="G139" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>1003.82</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,24 +6091,25 @@
         <v>217</v>
       </c>
       <c r="G140" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>1003.951666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5475,24 +6133,25 @@
         <v>25</v>
       </c>
       <c r="G141" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>1004.083333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,24 +6175,25 @@
         <v>4919.948</v>
       </c>
       <c r="G142" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>1004.066666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,24 +6217,27 @@
         <v>230.9871</v>
       </c>
       <c r="G143" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>1003.983333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,24 +6261,27 @@
         <v>2198.4819</v>
       </c>
       <c r="G144" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>1003.8</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,24 +6305,27 @@
         <v>1300.7261</v>
       </c>
       <c r="G145" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>1003.55</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,24 +6349,27 @@
         <v>1224.4026</v>
       </c>
       <c r="G146" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>1003.283333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,24 +6393,27 @@
         <v>44.9925</v>
       </c>
       <c r="G147" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H147" t="n">
         <v>1003.016666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,24 +6437,27 @@
         <v>972.0734</v>
       </c>
       <c r="G148" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>1002.75</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,24 +6481,27 @@
         <v>169.5863</v>
       </c>
       <c r="G149" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>1002.483333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,24 +6525,27 @@
         <v>7843.155</v>
       </c>
       <c r="G150" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>1002.25</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,24 +6569,27 @@
         <v>753.3468</v>
       </c>
       <c r="G151" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>1002.083333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,24 +6613,457 @@
         <v>56.1976</v>
       </c>
       <c r="G152" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>1001.833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1196.5955</v>
+      </c>
+      <c r="G153" t="n">
+        <v>999.8466666666666</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1001.545</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F154" t="n">
+        <v>225.27</v>
+      </c>
+      <c r="G154" t="n">
+        <v>999.8466666666666</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1001.478333333333</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11436.652</v>
+      </c>
+      <c r="G155" t="n">
+        <v>999.8466666666666</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1001.411666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>213.1157</v>
+      </c>
+      <c r="G156" t="n">
+        <v>999.9133333333333</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1001.345</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>84.61109999999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>999.9799999999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1001.295</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>345</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1000.046666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1001.245</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>285.8907</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1000.18</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1001.245</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F160" t="n">
+        <v>290</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1000.38</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1001.161666666667</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2276.6843</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1000.38</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1001.028333333333</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F162" t="n">
+        <v>109.7029</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1000.38</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1000.911666666667</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C2" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D2" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E2" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F2" t="n">
-        <v>85.517</v>
+        <v>3013.9796</v>
       </c>
       <c r="G2" t="n">
-        <v>1014.866666666667</v>
+        <v>31990.33219043</v>
       </c>
       <c r="H2" t="n">
-        <v>1012.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C3" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D3" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E3" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1014.6</v>
+        <v>31991.33219043</v>
       </c>
       <c r="H3" t="n">
-        <v>1012.55</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C4" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D4" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="E4" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F4" t="n">
-        <v>85.2961</v>
+        <v>10249.7053</v>
       </c>
       <c r="G4" t="n">
-        <v>1013.866666666667</v>
+        <v>42241.03749043</v>
       </c>
       <c r="H4" t="n">
-        <v>1012.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="C5" t="n">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="D5" t="n">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="E5" t="n">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="F5" t="n">
-        <v>887.2781</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1012.866666666667</v>
+        <v>42242.03749043</v>
       </c>
       <c r="H5" t="n">
-        <v>1012.433333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="C6" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="D6" t="n">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="E6" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="F6" t="n">
-        <v>2225.124</v>
+        <v>360</v>
       </c>
       <c r="G6" t="n">
-        <v>1011.6</v>
+        <v>41882.03749043</v>
       </c>
       <c r="H6" t="n">
-        <v>1012.316666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C7" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="D7" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="E7" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="F7" t="n">
-        <v>32.1363</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>1010.533333333333</v>
+        <v>41877.03749043</v>
       </c>
       <c r="H7" t="n">
-        <v>1012.166666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1002</v>
+        <v>1015</v>
       </c>
       <c r="C8" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D8" t="n">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="E8" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="F8" t="n">
-        <v>346.4681</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>1009.133333333333</v>
+        <v>41883.03749043</v>
       </c>
       <c r="H8" t="n">
-        <v>1011.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="C9" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="D9" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="E9" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="F9" t="n">
-        <v>163.5319</v>
+        <v>3172.64427286</v>
       </c>
       <c r="G9" t="n">
-        <v>1007.933333333333</v>
+        <v>45055.68176329001</v>
       </c>
       <c r="H9" t="n">
-        <v>1011.8</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="C10" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="D10" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="E10" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>2930.5428</v>
       </c>
       <c r="G10" t="n">
-        <v>1006.933333333333</v>
+        <v>42125.13896329</v>
       </c>
       <c r="H10" t="n">
-        <v>1011.666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="C11" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="D11" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="E11" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="F11" t="n">
-        <v>145.3808</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1005.866666666667</v>
+        <v>42126.13896329</v>
       </c>
       <c r="H11" t="n">
-        <v>1011.516666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="D12" t="n">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="E12" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="F12" t="n">
-        <v>332.3318</v>
+        <v>7838.0125</v>
       </c>
       <c r="G12" t="n">
-        <v>1005.133333333333</v>
+        <v>49964.15146329</v>
       </c>
       <c r="H12" t="n">
-        <v>1011.366666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="C13" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="D13" t="n">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="E13" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="F13" t="n">
-        <v>1144.9231</v>
+        <v>1195</v>
       </c>
       <c r="G13" t="n">
-        <v>1004.933333333333</v>
+        <v>49964.15146329</v>
       </c>
       <c r="H13" t="n">
-        <v>1011.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="C14" t="n">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="D14" t="n">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="E14" t="n">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="F14" t="n">
-        <v>876.6061</v>
+        <v>961.26002714</v>
       </c>
       <c r="G14" t="n">
-        <v>1004.533333333333</v>
+        <v>50925.41149043</v>
       </c>
       <c r="H14" t="n">
-        <v>1011.183333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="C15" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="D15" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="E15" t="n">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="F15" t="n">
-        <v>495</v>
+        <v>539.7399</v>
       </c>
       <c r="G15" t="n">
-        <v>1004.066666666666</v>
+        <v>50385.67159043</v>
       </c>
       <c r="H15" t="n">
-        <v>1011.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="C16" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="D16" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="E16" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="F16" t="n">
-        <v>1677.9427</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1003.333333333333</v>
+        <v>50386.67159043</v>
       </c>
       <c r="H16" t="n">
-        <v>1010.9</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="C17" t="n">
-        <v>995.8</v>
+        <v>1018</v>
       </c>
       <c r="D17" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="E17" t="n">
-        <v>995.8</v>
+        <v>1018</v>
       </c>
       <c r="F17" t="n">
-        <v>2897.6135</v>
+        <v>24.3672</v>
       </c>
       <c r="G17" t="n">
-        <v>1002.386666666667</v>
+        <v>50386.67159043</v>
       </c>
       <c r="H17" t="n">
-        <v>1010.68</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="C18" t="n">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="D18" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="E18" t="n">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3880.1393</v>
       </c>
       <c r="G18" t="n">
-        <v>1001.72</v>
+        <v>54266.81089043</v>
       </c>
       <c r="H18" t="n">
-        <v>1010.58</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="C19" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="D19" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="E19" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="F19" t="n">
-        <v>2511.9172</v>
+        <v>2277.5652</v>
       </c>
       <c r="G19" t="n">
-        <v>1001.386666666667</v>
+        <v>56544.37609043</v>
       </c>
       <c r="H19" t="n">
-        <v>1010.563333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="C20" t="n">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="D20" t="n">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="E20" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>1209.9612</v>
       </c>
       <c r="G20" t="n">
-        <v>1001.386666666667</v>
+        <v>57754.33729043</v>
       </c>
       <c r="H20" t="n">
-        <v>1010.496666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C21" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="D21" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="E21" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3711.2893</v>
       </c>
       <c r="G21" t="n">
-        <v>1001.653333333333</v>
+        <v>54043.04799043</v>
       </c>
       <c r="H21" t="n">
-        <v>1010.33</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="C22" t="n">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="D22" t="n">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="E22" t="n">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="F22" t="n">
-        <v>987.63069306</v>
+        <v>2897.61350293</v>
       </c>
       <c r="G22" t="n">
-        <v>1002.12</v>
+        <v>56940.66149336</v>
       </c>
       <c r="H22" t="n">
-        <v>1010.196666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="C23" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D23" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="E23" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>74.55</v>
       </c>
       <c r="G23" t="n">
-        <v>1002.853333333333</v>
+        <v>56866.11149336</v>
       </c>
       <c r="H23" t="n">
-        <v>1010.096666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C24" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D24" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="E24" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>354.7363</v>
       </c>
       <c r="G24" t="n">
-        <v>1003.653333333333</v>
+        <v>56866.11149336</v>
       </c>
       <c r="H24" t="n">
-        <v>1010.013333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C25" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D25" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E25" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="F25" t="n">
-        <v>2700.91369458</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>1004.386666666667</v>
+        <v>56666.11149336</v>
       </c>
       <c r="H25" t="n">
-        <v>1010.18</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,33 +1276,30 @@
         <v>1016</v>
       </c>
       <c r="C26" t="n">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D26" t="n">
         <v>1016</v>
       </c>
       <c r="E26" t="n">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>1005.453333333333</v>
+        <v>56641.11149336</v>
       </c>
       <c r="H26" t="n">
-        <v>1010.363333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C27" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="D27" t="n">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E27" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>1147.2719</v>
       </c>
       <c r="G27" t="n">
-        <v>1006.52</v>
+        <v>55493.83959336</v>
       </c>
       <c r="H27" t="n">
-        <v>1010.546666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C28" t="n">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="D28" t="n">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="E28" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="F28" t="n">
-        <v>3707.1818</v>
+        <v>6.7222</v>
       </c>
       <c r="G28" t="n">
-        <v>1007.653333333333</v>
+        <v>55500.56179335999</v>
       </c>
       <c r="H28" t="n">
-        <v>1010.763333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="C29" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="D29" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E29" t="n">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="F29" t="n">
-        <v>2774.139</v>
+        <v>91.221</v>
       </c>
       <c r="G29" t="n">
-        <v>1008.986666666666</v>
+        <v>55500.56179335999</v>
       </c>
       <c r="H29" t="n">
-        <v>1011.013333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C30" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D30" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E30" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F30" t="n">
-        <v>568.3913</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>1010.053333333333</v>
+        <v>55505.56179335999</v>
       </c>
       <c r="H30" t="n">
-        <v>1011.063333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C31" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D31" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E31" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>85.517</v>
       </c>
       <c r="G31" t="n">
-        <v>1011.453333333333</v>
+        <v>55505.56179335999</v>
       </c>
       <c r="H31" t="n">
-        <v>1011.163333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C32" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D32" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="E32" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F32" t="n">
-        <v>442.4577</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
-        <v>1013.133333333333</v>
+        <v>55550.56179335999</v>
       </c>
       <c r="H32" t="n">
-        <v>1011.313333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="C33" t="n">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="D33" t="n">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="E33" t="n">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>85.2961</v>
       </c>
       <c r="G33" t="n">
-        <v>1014.266666666667</v>
+        <v>55465.26569335999</v>
       </c>
       <c r="H33" t="n">
-        <v>1011.58</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C34" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D34" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="E34" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F34" t="n">
-        <v>3771.009</v>
+        <v>887.2781</v>
       </c>
       <c r="G34" t="n">
-        <v>1014.8</v>
+        <v>54577.98759335999</v>
       </c>
       <c r="H34" t="n">
-        <v>1011.563333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C35" t="n">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D35" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="E35" t="n">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="F35" t="n">
-        <v>300.1644</v>
+        <v>2225.124</v>
       </c>
       <c r="G35" t="n">
-        <v>1015.466666666667</v>
+        <v>52352.86359335999</v>
       </c>
       <c r="H35" t="n">
-        <v>1011.596666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C36" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D36" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E36" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F36" t="n">
-        <v>30.119</v>
+        <v>32.1363</v>
       </c>
       <c r="G36" t="n">
-        <v>1015.6</v>
+        <v>52352.86359335999</v>
       </c>
       <c r="H36" t="n">
-        <v>1011.463333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C37" t="n">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D37" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E37" t="n">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F37" t="n">
-        <v>19.881</v>
+        <v>346.4681</v>
       </c>
       <c r="G37" t="n">
-        <v>1015.333333333333</v>
+        <v>52006.39549335999</v>
       </c>
       <c r="H37" t="n">
-        <v>1011.296666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="C38" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D38" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="E38" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F38" t="n">
-        <v>529.9571</v>
+        <v>163.5319</v>
       </c>
       <c r="G38" t="n">
-        <v>1015.133333333333</v>
+        <v>52006.39549335999</v>
       </c>
       <c r="H38" t="n">
-        <v>1011.28</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C39" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D39" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E39" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F39" t="n">
-        <v>4.6492</v>
+        <v>92</v>
       </c>
       <c r="G39" t="n">
-        <v>1014.733333333333</v>
+        <v>52098.39549335999</v>
       </c>
       <c r="H39" t="n">
-        <v>1011.13</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C40" t="n">
-        <v>997.6</v>
+        <v>1000</v>
       </c>
       <c r="D40" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E40" t="n">
-        <v>997.6</v>
+        <v>1000</v>
       </c>
       <c r="F40" t="n">
-        <v>3687.5444</v>
+        <v>145.3808</v>
       </c>
       <c r="G40" t="n">
-        <v>1013.573333333333</v>
+        <v>51953.01469335999</v>
       </c>
       <c r="H40" t="n">
-        <v>1010.806666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>997.6</v>
+        <v>1000</v>
       </c>
       <c r="C41" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D41" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F41" t="n">
-        <v>7907.0125</v>
+        <v>332.3318</v>
       </c>
       <c r="G41" t="n">
-        <v>1012.84</v>
+        <v>51953.01469335999</v>
       </c>
       <c r="H41" t="n">
-        <v>1010.69</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="C42" t="n">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="D42" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="E42" t="n">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="F42" t="n">
-        <v>642.1661</v>
+        <v>1144.9231</v>
       </c>
       <c r="G42" t="n">
-        <v>1011.573333333333</v>
+        <v>53097.93779335999</v>
       </c>
       <c r="H42" t="n">
-        <v>1010.373333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="C43" t="n">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D43" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E43" t="n">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="F43" t="n">
-        <v>1946.1162</v>
+        <v>876.6061</v>
       </c>
       <c r="G43" t="n">
-        <v>1010.106666666667</v>
+        <v>52221.33169335999</v>
       </c>
       <c r="H43" t="n">
-        <v>1010.023333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="C44" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="D44" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="E44" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>495</v>
       </c>
       <c r="G44" t="n">
-        <v>1008.42</v>
+        <v>51726.33169335999</v>
       </c>
       <c r="H44" t="n">
-        <v>1009.651666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="C45" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="D45" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="E45" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6838</v>
+        <v>1677.9427</v>
       </c>
       <c r="G45" t="n">
-        <v>1007.066666666667</v>
+        <v>51726.33169335999</v>
       </c>
       <c r="H45" t="n">
-        <v>1009.263333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="C46" t="n">
-        <v>994.7</v>
+        <v>995.8</v>
       </c>
       <c r="D46" t="n">
-        <v>994.7</v>
+        <v>999</v>
       </c>
       <c r="E46" t="n">
-        <v>994.7</v>
+        <v>995.8</v>
       </c>
       <c r="F46" t="n">
-        <v>80.8704</v>
+        <v>2897.6135</v>
       </c>
       <c r="G46" t="n">
-        <v>1005.38</v>
+        <v>48828.71819335999</v>
       </c>
       <c r="H46" t="n">
-        <v>1008.891666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="C47" t="n">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="D47" t="n">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="E47" t="n">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="F47" t="n">
-        <v>2.3977</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>1003.713333333333</v>
+        <v>48829.71819335999</v>
       </c>
       <c r="H47" t="n">
-        <v>1008.525</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>991.9</v>
+        <v>1004</v>
       </c>
       <c r="C48" t="n">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="D48" t="n">
-        <v>991.9</v>
+        <v>1004</v>
       </c>
       <c r="E48" t="n">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="F48" t="n">
-        <v>43.0373</v>
+        <v>2511.9172</v>
       </c>
       <c r="G48" t="n">
-        <v>1001.646666666667</v>
+        <v>48829.71819335999</v>
       </c>
       <c r="H48" t="n">
-        <v>1008.058333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="C49" t="n">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="D49" t="n">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="E49" t="n">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="F49" t="n">
-        <v>69.6647</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>1000.18</v>
+        <v>48830.71819335999</v>
       </c>
       <c r="H49" t="n">
-        <v>1007.558333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="C50" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="D50" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="E50" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="F50" t="n">
-        <v>61.2739</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>998.4466666666667</v>
+        <v>48831.71819335999</v>
       </c>
       <c r="H50" t="n">
-        <v>1007.041666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="C51" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="D51" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="E51" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="F51" t="n">
-        <v>46.9636</v>
+        <v>987.63069306</v>
       </c>
       <c r="G51" t="n">
-        <v>997.1800000000001</v>
+        <v>49819.34888641999</v>
       </c>
       <c r="H51" t="n">
-        <v>1006.508333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,42 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>987.4</v>
+        <v>1012</v>
       </c>
       <c r="C52" t="n">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="D52" t="n">
-        <v>987.4</v>
+        <v>1012</v>
       </c>
       <c r="E52" t="n">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="F52" t="n">
-        <v>1017.5401</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>995.7800000000001</v>
+        <v>49820.34888641999</v>
       </c>
       <c r="H52" t="n">
-        <v>1005.941666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,42 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="C53" t="n">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="D53" t="n">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="E53" t="n">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="F53" t="n">
-        <v>62.1922</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>994.2466666666667</v>
+        <v>49821.34888641999</v>
       </c>
       <c r="H53" t="n">
-        <v>1005.341666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,42 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="C54" t="n">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="D54" t="n">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="E54" t="n">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="F54" t="n">
-        <v>189.8102</v>
+        <v>2700.91369458</v>
       </c>
       <c r="G54" t="n">
-        <v>993.38</v>
+        <v>52522.26258099999</v>
       </c>
       <c r="H54" t="n">
-        <v>1004.925</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,40 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="C55" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="D55" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="E55" t="n">
-        <v>995</v>
+        <v>1016</v>
       </c>
       <c r="F55" t="n">
-        <v>2327.93139297</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>993.34</v>
+        <v>52523.26258099999</v>
       </c>
       <c r="H55" t="n">
-        <v>1004.558333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,40 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="C56" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="D56" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="E56" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="F56" t="n">
-        <v>1355.1831</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>992.8066666666667</v>
+        <v>52523.26258099999</v>
       </c>
       <c r="H56" t="n">
-        <v>1004.241666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="C57" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="D57" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="E57" t="n">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="F57" t="n">
-        <v>144.0769</v>
+        <v>3707.1818</v>
       </c>
       <c r="G57" t="n">
-        <v>992.8066666666667</v>
+        <v>56230.44438099999</v>
       </c>
       <c r="H57" t="n">
-        <v>1004.008333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,40 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>994.1</v>
+        <v>1018</v>
       </c>
       <c r="C58" t="n">
-        <v>994.1</v>
+        <v>1020</v>
       </c>
       <c r="D58" t="n">
-        <v>994.1</v>
+        <v>1020</v>
       </c>
       <c r="E58" t="n">
-        <v>994.1</v>
+        <v>1018</v>
       </c>
       <c r="F58" t="n">
-        <v>441.4577</v>
+        <v>2774.139</v>
       </c>
       <c r="G58" t="n">
-        <v>992.6800000000001</v>
+        <v>59004.58338099999</v>
       </c>
       <c r="H58" t="n">
-        <v>1003.843333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,40 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="C59" t="n">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="D59" t="n">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="E59" t="n">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0001</v>
+        <v>568.3913</v>
       </c>
       <c r="G59" t="n">
-        <v>992.8333333333334</v>
+        <v>58436.19208099999</v>
       </c>
       <c r="H59" t="n">
-        <v>1003.693333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,40 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="C60" t="n">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="D60" t="n">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="E60" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>993.3199999999999</v>
+        <v>58440.19208099999</v>
       </c>
       <c r="H60" t="n">
-        <v>1003.626666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,40 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>999.4</v>
+        <v>1020</v>
       </c>
       <c r="C61" t="n">
-        <v>999.3</v>
+        <v>1021</v>
       </c>
       <c r="D61" t="n">
-        <v>999.4</v>
+        <v>1021</v>
       </c>
       <c r="E61" t="n">
-        <v>999.3</v>
+        <v>1020</v>
       </c>
       <c r="F61" t="n">
-        <v>1655</v>
+        <v>442.4577</v>
       </c>
       <c r="G61" t="n">
-        <v>993.6266666666666</v>
+        <v>58882.64978099999</v>
       </c>
       <c r="H61" t="n">
-        <v>1003.448333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,40 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="C62" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="D62" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="E62" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="F62" t="n">
-        <v>2400</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>993.7666666666665</v>
+        <v>58882.64978099999</v>
       </c>
       <c r="H62" t="n">
-        <v>1003.25</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,40 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C63" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D63" t="n">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="E63" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="F63" t="n">
-        <v>2.20655412</v>
+        <v>3771.009</v>
       </c>
       <c r="G63" t="n">
-        <v>994.8999999999999</v>
+        <v>55111.64078099999</v>
       </c>
       <c r="H63" t="n">
-        <v>1003.133333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,40 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="C64" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="D64" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="E64" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="F64" t="n">
-        <v>1074</v>
+        <v>300.1644</v>
       </c>
       <c r="G64" t="n">
-        <v>995.7666666666665</v>
+        <v>55411.80518099999</v>
       </c>
       <c r="H64" t="n">
-        <v>1003.033333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,40 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C65" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="D65" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E65" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="F65" t="n">
-        <v>36</v>
+        <v>30.119</v>
       </c>
       <c r="G65" t="n">
-        <v>996.6333333333332</v>
+        <v>55381.68618099999</v>
       </c>
       <c r="H65" t="n">
-        <v>1002.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,40 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>998.1</v>
+        <v>1007</v>
       </c>
       <c r="C66" t="n">
-        <v>998.1</v>
+        <v>1006</v>
       </c>
       <c r="D66" t="n">
-        <v>998.1</v>
+        <v>1007</v>
       </c>
       <c r="E66" t="n">
-        <v>998.1</v>
+        <v>1006</v>
       </c>
       <c r="F66" t="n">
-        <v>6480.3207</v>
+        <v>19.881</v>
       </c>
       <c r="G66" t="n">
-        <v>997.1733333333333</v>
+        <v>55361.80518099999</v>
       </c>
       <c r="H66" t="n">
-        <v>1002.901666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,40 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="C67" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="D67" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="E67" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="F67" t="n">
-        <v>62.2891</v>
+        <v>529.9571</v>
       </c>
       <c r="G67" t="n">
-        <v>998.0466666666666</v>
+        <v>55891.76228099999</v>
       </c>
       <c r="H67" t="n">
-        <v>1002.82</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3016,40 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="C68" t="n">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="D68" t="n">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="E68" t="n">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="F68" t="n">
-        <v>199.8598</v>
+        <v>4.6492</v>
       </c>
       <c r="G68" t="n">
-        <v>998.9133333333333</v>
+        <v>55887.11308099999</v>
       </c>
       <c r="H68" t="n">
-        <v>1002.786666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,40 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C69" t="n">
-        <v>999</v>
+        <v>997.6</v>
       </c>
       <c r="D69" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E69" t="n">
-        <v>999</v>
+        <v>997.6</v>
       </c>
       <c r="F69" t="n">
-        <v>100.0999</v>
+        <v>3687.5444</v>
       </c>
       <c r="G69" t="n">
-        <v>999.2466666666666</v>
+        <v>52199.56868099999</v>
       </c>
       <c r="H69" t="n">
-        <v>1002.753333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,40 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>999</v>
+        <v>997.6</v>
       </c>
       <c r="C70" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="D70" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E70" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F70" t="n">
-        <v>2886.8303</v>
+        <v>7907.0125</v>
       </c>
       <c r="G70" t="n">
-        <v>999.3799999999999</v>
+        <v>60106.58118099999</v>
       </c>
       <c r="H70" t="n">
-        <v>1002.67</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,40 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C71" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D71" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E71" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F71" t="n">
-        <v>165.2299</v>
+        <v>642.1661</v>
       </c>
       <c r="G71" t="n">
-        <v>999.5133333333332</v>
+        <v>59464.41508099998</v>
       </c>
       <c r="H71" t="n">
-        <v>1002.653333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3184,40 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C72" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D72" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E72" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F72" t="n">
-        <v>80.4264</v>
+        <v>1946.1162</v>
       </c>
       <c r="G72" t="n">
-        <v>999.6466666666666</v>
+        <v>57518.29888099999</v>
       </c>
       <c r="H72" t="n">
-        <v>1002.636666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,40 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>999</v>
+        <v>994.7</v>
       </c>
       <c r="C73" t="n">
-        <v>999</v>
+        <v>994.7</v>
       </c>
       <c r="D73" t="n">
-        <v>999</v>
+        <v>994.7</v>
       </c>
       <c r="E73" t="n">
-        <v>999</v>
+        <v>994.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1326.8</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>999.9733333333332</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H73" t="n">
-        <v>1002.603333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,40 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>999</v>
+        <v>994.7</v>
       </c>
       <c r="C74" t="n">
-        <v>998.1</v>
+        <v>994.7</v>
       </c>
       <c r="D74" t="n">
-        <v>999</v>
+        <v>994.7</v>
       </c>
       <c r="E74" t="n">
-        <v>998.1</v>
+        <v>994.7</v>
       </c>
       <c r="F74" t="n">
-        <v>557.2127</v>
+        <v>0.6838</v>
       </c>
       <c r="G74" t="n">
-        <v>1000.046666666667</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H74" t="n">
-        <v>1002.571666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,40 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>998.1</v>
+        <v>994.7</v>
       </c>
       <c r="C75" t="n">
-        <v>998.1</v>
+        <v>994.7</v>
       </c>
       <c r="D75" t="n">
-        <v>998.1</v>
+        <v>994.7</v>
       </c>
       <c r="E75" t="n">
-        <v>998.1</v>
+        <v>994.7</v>
       </c>
       <c r="F75" t="n">
-        <v>852.4299999999999</v>
+        <v>80.8704</v>
       </c>
       <c r="G75" t="n">
-        <v>999.7866666666666</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H75" t="n">
-        <v>1002.556666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,40 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C76" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D76" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E76" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F76" t="n">
-        <v>2212</v>
+        <v>2.3977</v>
       </c>
       <c r="G76" t="n">
-        <v>999.9</v>
+        <v>57500.69658099999</v>
       </c>
       <c r="H76" t="n">
-        <v>1002.59</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,40 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1001</v>
+        <v>991.9</v>
       </c>
       <c r="C77" t="n">
-        <v>998.1</v>
+        <v>990</v>
       </c>
       <c r="D77" t="n">
-        <v>1001</v>
+        <v>991.9</v>
       </c>
       <c r="E77" t="n">
-        <v>998.1</v>
+        <v>990</v>
       </c>
       <c r="F77" t="n">
-        <v>773.2153</v>
+        <v>43.0373</v>
       </c>
       <c r="G77" t="n">
-        <v>999.9</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H77" t="n">
-        <v>1002.628333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,40 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>998.1</v>
+        <v>990</v>
       </c>
       <c r="C78" t="n">
-        <v>990.1</v>
+        <v>990</v>
       </c>
       <c r="D78" t="n">
-        <v>998.1</v>
+        <v>990</v>
       </c>
       <c r="E78" t="n">
-        <v>990.1</v>
+        <v>990</v>
       </c>
       <c r="F78" t="n">
-        <v>937.8357999999999</v>
+        <v>69.6647</v>
       </c>
       <c r="G78" t="n">
-        <v>998.7733333333333</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H78" t="n">
-        <v>1002.396666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,40 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>994.2</v>
+        <v>990</v>
       </c>
       <c r="C79" t="n">
-        <v>993.1</v>
+        <v>990</v>
       </c>
       <c r="D79" t="n">
-        <v>994.2</v>
+        <v>990</v>
       </c>
       <c r="E79" t="n">
-        <v>993.1</v>
+        <v>990</v>
       </c>
       <c r="F79" t="n">
-        <v>229.1408</v>
+        <v>61.2739</v>
       </c>
       <c r="G79" t="n">
-        <v>998.1133333333333</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H79" t="n">
-        <v>1002.215</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,40 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>992.2</v>
+        <v>990</v>
       </c>
       <c r="C80" t="n">
-        <v>992.1</v>
+        <v>990</v>
       </c>
       <c r="D80" t="n">
-        <v>992.2</v>
+        <v>990</v>
       </c>
       <c r="E80" t="n">
-        <v>992.1</v>
+        <v>990</v>
       </c>
       <c r="F80" t="n">
-        <v>100.7983</v>
+        <v>46.9636</v>
       </c>
       <c r="G80" t="n">
-        <v>997.3866666666668</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H80" t="n">
-        <v>1001.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,40 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>992.1</v>
+        <v>987.4</v>
       </c>
       <c r="C81" t="n">
-        <v>992.1</v>
+        <v>985</v>
       </c>
       <c r="D81" t="n">
-        <v>992.1</v>
+        <v>987.4</v>
       </c>
       <c r="E81" t="n">
-        <v>992.1</v>
+        <v>985</v>
       </c>
       <c r="F81" t="n">
-        <v>2338.4094</v>
+        <v>1017.5401</v>
       </c>
       <c r="G81" t="n">
-        <v>996.9866666666668</v>
+        <v>56440.11918099999</v>
       </c>
       <c r="H81" t="n">
-        <v>1001.735</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="C82" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="D82" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="E82" t="n">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="F82" t="n">
-        <v>279.7812</v>
+        <v>62.1922</v>
       </c>
       <c r="G82" t="n">
-        <v>997.1800000000001</v>
+        <v>56502.31138099998</v>
       </c>
       <c r="H82" t="n">
-        <v>1001.585</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>992.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,40 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C83" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="D83" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="E83" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F83" t="n">
-        <v>495</v>
+        <v>189.8102</v>
       </c>
       <c r="G83" t="n">
-        <v>997.58</v>
+        <v>56692.12158099998</v>
       </c>
       <c r="H83" t="n">
-        <v>1001.468333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,40 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="C84" t="n">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="D84" t="n">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="E84" t="n">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F84" t="n">
-        <v>941.8437</v>
+        <v>2327.93139297</v>
       </c>
       <c r="G84" t="n">
-        <v>998.38</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H84" t="n">
-        <v>1001.435</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,40 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="C85" t="n">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="D85" t="n">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="E85" t="n">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="F85" t="n">
-        <v>4523.7353</v>
+        <v>1355.1831</v>
       </c>
       <c r="G85" t="n">
-        <v>999.4466666666667</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H85" t="n">
-        <v>1001.435</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,40 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="C86" t="n">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="D86" t="n">
-        <v>1017</v>
+        <v>997</v>
       </c>
       <c r="E86" t="n">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="F86" t="n">
-        <v>345.8788</v>
+        <v>144.0769</v>
       </c>
       <c r="G86" t="n">
-        <v>1000.58</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H86" t="n">
-        <v>1001.435</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,40 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1017</v>
+        <v>994.1</v>
       </c>
       <c r="C87" t="n">
-        <v>1016</v>
+        <v>994.1</v>
       </c>
       <c r="D87" t="n">
-        <v>1020</v>
+        <v>994.1</v>
       </c>
       <c r="E87" t="n">
-        <v>1011</v>
+        <v>994.1</v>
       </c>
       <c r="F87" t="n">
-        <v>3467.951</v>
+        <v>441.4577</v>
       </c>
       <c r="G87" t="n">
-        <v>1001.713333333333</v>
+        <v>58578.59527396999</v>
       </c>
       <c r="H87" t="n">
-        <v>1001.435</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,40 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="C88" t="n">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="D88" t="n">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="E88" t="n">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="F88" t="n">
-        <v>623.4948000000001</v>
+        <v>0.0001</v>
       </c>
       <c r="G88" t="n">
-        <v>1002.846666666667</v>
+        <v>58578.59537396998</v>
       </c>
       <c r="H88" t="n">
-        <v>1001.401666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,40 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="C89" t="n">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="D89" t="n">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="E89" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F89" t="n">
-        <v>1667.5756</v>
+        <v>1200</v>
       </c>
       <c r="G89" t="n">
-        <v>1004.04</v>
+        <v>59778.59537396998</v>
       </c>
       <c r="H89" t="n">
-        <v>1001.335</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,40 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1016</v>
+        <v>999.4</v>
       </c>
       <c r="C90" t="n">
-        <v>1014</v>
+        <v>999.3</v>
       </c>
       <c r="D90" t="n">
-        <v>1016</v>
+        <v>999.4</v>
       </c>
       <c r="E90" t="n">
-        <v>1014</v>
+        <v>999.3</v>
       </c>
       <c r="F90" t="n">
-        <v>860.2051</v>
+        <v>1655</v>
       </c>
       <c r="G90" t="n">
-        <v>1005.1</v>
+        <v>58123.59537396998</v>
       </c>
       <c r="H90" t="n">
-        <v>1001.318333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,40 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1010</v>
+        <v>998.1</v>
       </c>
       <c r="C91" t="n">
-        <v>1010</v>
+        <v>998.1</v>
       </c>
       <c r="D91" t="n">
-        <v>1010</v>
+        <v>998.1</v>
       </c>
       <c r="E91" t="n">
-        <v>1010</v>
+        <v>998.1</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>2400</v>
       </c>
       <c r="G91" t="n">
-        <v>1005.7</v>
+        <v>55723.59537396998</v>
       </c>
       <c r="H91" t="n">
-        <v>1001.151666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,40 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C92" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D92" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E92" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6</v>
+        <v>2.20655412</v>
       </c>
       <c r="G92" t="n">
-        <v>1006.826666666667</v>
+        <v>55725.80192808998</v>
       </c>
       <c r="H92" t="n">
-        <v>1001.051666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,40 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="C93" t="n">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="D93" t="n">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="E93" t="n">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="F93" t="n">
-        <v>7036.4716</v>
+        <v>1074</v>
       </c>
       <c r="G93" t="n">
-        <v>1008.486666666667</v>
+        <v>54651.80192808998</v>
       </c>
       <c r="H93" t="n">
-        <v>1000.951666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,40 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C94" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D94" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E94" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F94" t="n">
-        <v>7036.4716</v>
+        <v>36</v>
       </c>
       <c r="G94" t="n">
-        <v>1009.213333333333</v>
+        <v>54651.80192808998</v>
       </c>
       <c r="H94" t="n">
-        <v>1000.818333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,40 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1004</v>
+        <v>998.1</v>
       </c>
       <c r="C95" t="n">
-        <v>1004</v>
+        <v>998.1</v>
       </c>
       <c r="D95" t="n">
-        <v>1004</v>
+        <v>998.1</v>
       </c>
       <c r="E95" t="n">
-        <v>1004</v>
+        <v>998.1</v>
       </c>
       <c r="F95" t="n">
-        <v>1866.0681</v>
+        <v>6480.3207</v>
       </c>
       <c r="G95" t="n">
-        <v>1010.006666666667</v>
+        <v>48171.48122808998</v>
       </c>
       <c r="H95" t="n">
-        <v>1000.618333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,40 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="C96" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="D96" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="E96" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="F96" t="n">
-        <v>5.3122</v>
+        <v>62.2891</v>
       </c>
       <c r="G96" t="n">
-        <v>1010.866666666667</v>
+        <v>48171.48122808998</v>
       </c>
       <c r="H96" t="n">
-        <v>1000.551666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,40 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C97" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D97" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E97" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F97" t="n">
-        <v>913.9458</v>
+        <v>199.8598</v>
       </c>
       <c r="G97" t="n">
-        <v>1011.066666666666</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H97" t="n">
-        <v>1000.518333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,40 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C98" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D98" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E98" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F98" t="n">
-        <v>181.0127</v>
+        <v>100.0999</v>
       </c>
       <c r="G98" t="n">
-        <v>1011</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H98" t="n">
-        <v>1000.435</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4320,40 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C99" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D99" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E99" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F99" t="n">
-        <v>2879.8346</v>
+        <v>2886.8303</v>
       </c>
       <c r="G99" t="n">
-        <v>1010.4</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H99" t="n">
-        <v>1000.351666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,40 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C100" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D100" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E100" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="F100" t="n">
-        <v>50.015</v>
+        <v>165.2299</v>
       </c>
       <c r="G100" t="n">
-        <v>1009.933333333333</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H100" t="n">
-        <v>1000.525</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,40 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C101" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D101" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E101" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="F101" t="n">
-        <v>64</v>
+        <v>80.4264</v>
       </c>
       <c r="G101" t="n">
-        <v>1009.4</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H101" t="n">
-        <v>1000.575</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,40 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C102" t="n">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D102" t="n">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="E102" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F102" t="n">
-        <v>2233.2014</v>
+        <v>1326.8</v>
       </c>
       <c r="G102" t="n">
-        <v>1008.8</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H102" t="n">
-        <v>1000.741666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,40 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C103" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="D103" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E103" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="F103" t="n">
-        <v>2073.7299</v>
+        <v>557.2127</v>
       </c>
       <c r="G103" t="n">
-        <v>1008.066666666666</v>
+        <v>47814.12832808998</v>
       </c>
       <c r="H103" t="n">
-        <v>1000.891666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,40 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="C104" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="D104" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="E104" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="F104" t="n">
-        <v>1158</v>
+        <v>852.4299999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>1007.333333333333</v>
+        <v>47814.12832808998</v>
       </c>
       <c r="H104" t="n">
-        <v>1001.063333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,40 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C105" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D105" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E105" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="F105" t="n">
-        <v>100.1581</v>
+        <v>2212</v>
       </c>
       <c r="G105" t="n">
-        <v>1006.733333333333</v>
+        <v>50026.12832808998</v>
       </c>
       <c r="H105" t="n">
-        <v>1001.235</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,40 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C106" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="D106" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E106" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="F106" t="n">
-        <v>6076.5849</v>
+        <v>773.2153</v>
       </c>
       <c r="G106" t="n">
-        <v>1006.4</v>
+        <v>49252.91302808998</v>
       </c>
       <c r="H106" t="n">
-        <v>1001.406666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,40 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="C107" t="n">
-        <v>1005</v>
+        <v>990.1</v>
       </c>
       <c r="D107" t="n">
-        <v>1005</v>
+        <v>998.1</v>
       </c>
       <c r="E107" t="n">
-        <v>1005</v>
+        <v>990.1</v>
       </c>
       <c r="F107" t="n">
-        <v>675.4618</v>
+        <v>937.8357999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>1005.733333333333</v>
+        <v>48315.07722808998</v>
       </c>
       <c r="H107" t="n">
-        <v>1001.556666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,40 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1005</v>
+        <v>994.2</v>
       </c>
       <c r="C108" t="n">
-        <v>1005</v>
+        <v>993.1</v>
       </c>
       <c r="D108" t="n">
-        <v>1005</v>
+        <v>994.2</v>
       </c>
       <c r="E108" t="n">
-        <v>1005</v>
+        <v>993.1</v>
       </c>
       <c r="F108" t="n">
-        <v>596.8201</v>
+        <v>229.1408</v>
       </c>
       <c r="G108" t="n">
-        <v>1005.066666666666</v>
+        <v>48544.21802808998</v>
       </c>
       <c r="H108" t="n">
-        <v>1001.806666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,40 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1005</v>
+        <v>992.2</v>
       </c>
       <c r="C109" t="n">
-        <v>1005</v>
+        <v>992.1</v>
       </c>
       <c r="D109" t="n">
-        <v>1005</v>
+        <v>992.2</v>
       </c>
       <c r="E109" t="n">
-        <v>1005</v>
+        <v>992.1</v>
       </c>
       <c r="F109" t="n">
-        <v>20.2348</v>
+        <v>100.7983</v>
       </c>
       <c r="G109" t="n">
-        <v>1005.133333333333</v>
+        <v>48443.41972808998</v>
       </c>
       <c r="H109" t="n">
-        <v>1002.056666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,40 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1005</v>
+        <v>992.1</v>
       </c>
       <c r="C110" t="n">
-        <v>1005</v>
+        <v>992.1</v>
       </c>
       <c r="D110" t="n">
-        <v>1005</v>
+        <v>992.1</v>
       </c>
       <c r="E110" t="n">
-        <v>1005</v>
+        <v>992.1</v>
       </c>
       <c r="F110" t="n">
-        <v>113.5594</v>
+        <v>2338.4094</v>
       </c>
       <c r="G110" t="n">
-        <v>1005.2</v>
+        <v>48443.41972808998</v>
       </c>
       <c r="H110" t="n">
-        <v>1002.306666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,40 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C111" t="n">
         <v>1001</v>
       </c>
       <c r="D111" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E111" t="n">
         <v>1001</v>
       </c>
       <c r="F111" t="n">
-        <v>390.8217</v>
+        <v>279.7812</v>
       </c>
       <c r="G111" t="n">
-        <v>1004.933333333333</v>
+        <v>48723.20092808997</v>
       </c>
       <c r="H111" t="n">
-        <v>1002.49</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,40 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C112" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="D112" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E112" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F112" t="n">
-        <v>99.5</v>
+        <v>495</v>
       </c>
       <c r="G112" t="n">
-        <v>1004.733333333333</v>
+        <v>49218.20092808997</v>
       </c>
       <c r="H112" t="n">
-        <v>1002.756666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,40 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C113" t="n">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="D113" t="n">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="E113" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="F113" t="n">
-        <v>107.2391</v>
+        <v>941.8437</v>
       </c>
       <c r="G113" t="n">
-        <v>1004.533333333333</v>
+        <v>50160.04462808997</v>
       </c>
       <c r="H113" t="n">
-        <v>1003.006666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4950,40 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="C114" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="D114" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="E114" t="n">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="F114" t="n">
-        <v>254.4469</v>
+        <v>4523.7353</v>
       </c>
       <c r="G114" t="n">
-        <v>1004.466666666667</v>
+        <v>54683.77992808997</v>
       </c>
       <c r="H114" t="n">
-        <v>1003.123333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4992,42 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="C115" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D115" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="E115" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="F115" t="n">
-        <v>595</v>
+        <v>345.8788</v>
       </c>
       <c r="G115" t="n">
-        <v>1004</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H115" t="n">
-        <v>1003.19</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,40 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="C116" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D116" t="n">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="E116" t="n">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="F116" t="n">
-        <v>429</v>
+        <v>3467.951</v>
       </c>
       <c r="G116" t="n">
-        <v>1003.533333333333</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H116" t="n">
-        <v>1003.256666666666</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,42 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="C117" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D117" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="E117" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="F117" t="n">
-        <v>339</v>
+        <v>623.4948000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>1003.133333333333</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H117" t="n">
-        <v>1003.323333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,42 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="C118" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D118" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="E118" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>1667.5756</v>
       </c>
       <c r="G118" t="n">
-        <v>1002.866666666667</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H118" t="n">
-        <v>1003.438333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,42 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="C119" t="n">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="D119" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="E119" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="F119" t="n">
-        <v>9583.8338</v>
+        <v>860.2051</v>
       </c>
       <c r="G119" t="n">
-        <v>1002.6</v>
+        <v>54169.45362808997</v>
       </c>
       <c r="H119" t="n">
-        <v>1003.505</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="C120" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D120" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="E120" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F120" t="n">
-        <v>5923.5537</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>1002.266666666667</v>
+        <v>54167.45362808997</v>
       </c>
       <c r="H120" t="n">
-        <v>1003.471666666666</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="C121" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="D121" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="E121" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="F121" t="n">
-        <v>191</v>
+        <v>0.6</v>
       </c>
       <c r="G121" t="n">
-        <v>1001.933333333333</v>
+        <v>54168.05362808997</v>
       </c>
       <c r="H121" t="n">
-        <v>1003.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,42 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="C122" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="D122" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="E122" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="F122" t="n">
-        <v>382.8377</v>
+        <v>7036.4716</v>
       </c>
       <c r="G122" t="n">
-        <v>1001.6</v>
+        <v>54168.05362808997</v>
       </c>
       <c r="H122" t="n">
-        <v>1003.515</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,42 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C123" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D123" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E123" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F123" t="n">
-        <v>103</v>
+        <v>7036.4716</v>
       </c>
       <c r="G123" t="n">
-        <v>1001.266666666667</v>
+        <v>47131.58202808997</v>
       </c>
       <c r="H123" t="n">
-        <v>1003.398333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,42 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C124" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D124" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E124" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F124" t="n">
-        <v>370</v>
+        <v>1866.0681</v>
       </c>
       <c r="G124" t="n">
-        <v>1000.933333333333</v>
+        <v>47131.58202808997</v>
       </c>
       <c r="H124" t="n">
-        <v>1003.348333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,42 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C125" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D125" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E125" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F125" t="n">
-        <v>278.705</v>
+        <v>5.3122</v>
       </c>
       <c r="G125" t="n">
-        <v>1000.6</v>
+        <v>47136.89422808997</v>
       </c>
       <c r="H125" t="n">
-        <v>1003.298333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,42 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C126" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D126" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E126" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F126" t="n">
-        <v>35.8227</v>
+        <v>913.9458</v>
       </c>
       <c r="G126" t="n">
-        <v>1000.533333333333</v>
+        <v>46222.94842808997</v>
       </c>
       <c r="H126" t="n">
-        <v>1003.33</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,42 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C127" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D127" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E127" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F127" t="n">
-        <v>43.3771</v>
+        <v>181.0127</v>
       </c>
       <c r="G127" t="n">
-        <v>1000.466666666667</v>
+        <v>46222.94842808997</v>
       </c>
       <c r="H127" t="n">
-        <v>1003.361666666666</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,42 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C128" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D128" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E128" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F128" t="n">
-        <v>411.4053</v>
+        <v>2879.8346</v>
       </c>
       <c r="G128" t="n">
-        <v>1000.4</v>
+        <v>43343.11382808997</v>
       </c>
       <c r="H128" t="n">
-        <v>1003.378333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,42 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C129" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="D129" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E129" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F129" t="n">
-        <v>144.4053</v>
+        <v>50.015</v>
       </c>
       <c r="G129" t="n">
-        <v>1000.333333333333</v>
+        <v>43393.12882808997</v>
       </c>
       <c r="H129" t="n">
-        <v>1003.395</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,40 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="C130" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="D130" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E130" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="F130" t="n">
-        <v>191.8461</v>
+        <v>64</v>
       </c>
       <c r="G130" t="n">
-        <v>1000.266666666667</v>
+        <v>43393.12882808997</v>
       </c>
       <c r="H130" t="n">
-        <v>1003.411666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,42 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C131" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="D131" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="E131" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F131" t="n">
-        <v>510.8795</v>
+        <v>2233.2014</v>
       </c>
       <c r="G131" t="n">
-        <v>1000.2</v>
+        <v>41159.92742808997</v>
       </c>
       <c r="H131" t="n">
-        <v>1003.428333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,42 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C132" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D132" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="E132" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F132" t="n">
-        <v>1287.7059</v>
+        <v>2073.7299</v>
       </c>
       <c r="G132" t="n">
-        <v>1000.133333333333</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H132" t="n">
-        <v>1003.445</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,42 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C133" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D133" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E133" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F133" t="n">
-        <v>12995.1543</v>
+        <v>1158</v>
       </c>
       <c r="G133" t="n">
-        <v>1000.066666666666</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H133" t="n">
-        <v>1003.461666666666</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,40 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C134" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D134" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E134" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F134" t="n">
-        <v>2677.6453</v>
+        <v>100.1581</v>
       </c>
       <c r="G134" t="n">
-        <v>999.9999999999999</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H134" t="n">
-        <v>1003.493333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,40 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C135" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D135" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E135" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F135" t="n">
-        <v>41.2473</v>
+        <v>6076.5849</v>
       </c>
       <c r="G135" t="n">
-        <v>999.9999999999999</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H135" t="n">
-        <v>1003.525</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,40 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C136" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D136" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E136" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F136" t="n">
-        <v>45.0659</v>
+        <v>675.4618</v>
       </c>
       <c r="G136" t="n">
-        <v>999.9999999999999</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H136" t="n">
-        <v>1003.508333333333</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,40 +5158,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C137" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D137" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E137" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F137" t="n">
-        <v>76.43170000000001</v>
+        <v>596.8201</v>
       </c>
       <c r="G137" t="n">
-        <v>999.9999999999999</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H137" t="n">
-        <v>1003.54</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5992,40 +5193,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C138" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D138" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E138" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F138" t="n">
-        <v>40.0689</v>
+        <v>20.2348</v>
       </c>
       <c r="G138" t="n">
-        <v>999.9999999999999</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H138" t="n">
-        <v>1003.705</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,40 +5228,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C139" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D139" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E139" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F139" t="n">
-        <v>768.5700000000001</v>
+        <v>113.5594</v>
       </c>
       <c r="G139" t="n">
-        <v>999.9999999999999</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H139" t="n">
-        <v>1003.82</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,40 +5263,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C140" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D140" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E140" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F140" t="n">
-        <v>217</v>
+        <v>390.8217</v>
       </c>
       <c r="G140" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H140" t="n">
-        <v>1003.951666666667</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,40 +5298,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C141" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D141" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E141" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F141" t="n">
-        <v>25</v>
+        <v>99.5</v>
       </c>
       <c r="G141" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H141" t="n">
-        <v>1004.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,40 +5333,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C142" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D142" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E142" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F142" t="n">
-        <v>4919.948</v>
+        <v>107.2391</v>
       </c>
       <c r="G142" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H142" t="n">
-        <v>1004.066666666667</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,42 +5368,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C143" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D143" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E143" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F143" t="n">
-        <v>230.9871</v>
+        <v>254.4469</v>
       </c>
       <c r="G143" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H143" t="n">
-        <v>1003.983333333333</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,42 +5403,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C144" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D144" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E144" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F144" t="n">
-        <v>2198.4819</v>
+        <v>595</v>
       </c>
       <c r="G144" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H144" t="n">
-        <v>1003.8</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,42 +5438,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C145" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D145" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E145" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F145" t="n">
-        <v>1300.7261</v>
+        <v>429</v>
       </c>
       <c r="G145" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H145" t="n">
-        <v>1003.55</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6334,42 +5473,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C146" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D146" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E146" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F146" t="n">
-        <v>1224.4026</v>
+        <v>339</v>
       </c>
       <c r="G146" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H146" t="n">
-        <v>1003.283333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6378,42 +5508,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C147" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D147" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E147" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F147" t="n">
-        <v>44.9925</v>
+        <v>25</v>
       </c>
       <c r="G147" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H147" t="n">
-        <v>1003.016666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,42 +5543,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C148" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D148" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E148" t="n">
         <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>972.0734</v>
+        <v>9583.8338</v>
       </c>
       <c r="G148" t="n">
-        <v>999.9999999999999</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H148" t="n">
-        <v>1002.75</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,42 +5578,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C149" t="n">
         <v>1000</v>
       </c>
       <c r="D149" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E149" t="n">
         <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>169.5863</v>
+        <v>5923.5537</v>
       </c>
       <c r="G149" t="n">
-        <v>999.9999999999999</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H149" t="n">
-        <v>1002.483333333333</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,30 +5625,21 @@
         <v>1000</v>
       </c>
       <c r="F150" t="n">
-        <v>7843.155</v>
+        <v>191</v>
       </c>
       <c r="G150" t="n">
-        <v>999.9999999999999</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H150" t="n">
-        <v>1002.25</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6566,30 +5660,21 @@
         <v>1000</v>
       </c>
       <c r="F151" t="n">
-        <v>753.3468</v>
+        <v>382.8377</v>
       </c>
       <c r="G151" t="n">
-        <v>999.9999999999999</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H151" t="n">
-        <v>1002.083333333333</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6610,30 +5695,21 @@
         <v>1000</v>
       </c>
       <c r="F152" t="n">
-        <v>56.1976</v>
+        <v>103</v>
       </c>
       <c r="G152" t="n">
-        <v>999.9999999999999</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H152" t="n">
-        <v>1001.833333333333</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,42 +5718,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>997.7</v>
+        <v>1000</v>
       </c>
       <c r="C153" t="n">
-        <v>997.7</v>
+        <v>1000</v>
       </c>
       <c r="D153" t="n">
-        <v>997.7</v>
+        <v>1000</v>
       </c>
       <c r="E153" t="n">
-        <v>997.7</v>
+        <v>1000</v>
       </c>
       <c r="F153" t="n">
-        <v>1196.5955</v>
+        <v>370</v>
       </c>
       <c r="G153" t="n">
-        <v>999.8466666666666</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H153" t="n">
-        <v>1001.545</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,30 +5765,21 @@
         <v>1000</v>
       </c>
       <c r="F154" t="n">
-        <v>225.27</v>
+        <v>278.705</v>
       </c>
       <c r="G154" t="n">
-        <v>999.8466666666666</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H154" t="n">
-        <v>1001.478333333333</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>997.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6742,30 +5800,21 @@
         <v>1000</v>
       </c>
       <c r="F155" t="n">
-        <v>11436.652</v>
+        <v>35.8227</v>
       </c>
       <c r="G155" t="n">
-        <v>999.8466666666666</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H155" t="n">
-        <v>1001.411666666667</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6774,40 +5823,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C156" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D156" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E156" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F156" t="n">
-        <v>213.1157</v>
+        <v>43.3771</v>
       </c>
       <c r="G156" t="n">
-        <v>999.9133333333333</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H156" t="n">
-        <v>1001.345</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6816,40 +5858,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C157" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D157" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E157" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F157" t="n">
-        <v>84.61109999999999</v>
+        <v>411.4053</v>
       </c>
       <c r="G157" t="n">
-        <v>999.9799999999999</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H157" t="n">
-        <v>1001.295</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1000</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,40 +5897,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C158" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D158" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E158" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F158" t="n">
-        <v>345</v>
+        <v>144.4053</v>
       </c>
       <c r="G158" t="n">
-        <v>1000.046666666667</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H158" t="n">
-        <v>1001.245</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6900,40 +5938,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C159" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D159" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E159" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F159" t="n">
-        <v>285.8907</v>
+        <v>191.8461</v>
       </c>
       <c r="G159" t="n">
-        <v>1000.18</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H159" t="n">
-        <v>1001.245</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6942,42 +5979,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C160" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D160" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E160" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F160" t="n">
-        <v>290</v>
+        <v>510.8795</v>
       </c>
       <c r="G160" t="n">
-        <v>1000.38</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H160" t="n">
-        <v>1001.161666666667</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>1002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6998,28 +6026,21 @@
         <v>1000</v>
       </c>
       <c r="F161" t="n">
-        <v>2276.6843</v>
+        <v>1287.7059</v>
       </c>
       <c r="G161" t="n">
-        <v>1000.38</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H161" t="n">
-        <v>1001.028333333333</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7040,30 +6061,1072 @@
         <v>1000</v>
       </c>
       <c r="F162" t="n">
+        <v>12995.1543</v>
+      </c>
+      <c r="G162" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2677.6453</v>
+      </c>
+      <c r="G163" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>41.2473</v>
+      </c>
+      <c r="G164" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>45.0659</v>
+      </c>
+      <c r="G165" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F166" t="n">
+        <v>76.43170000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F167" t="n">
+        <v>40.0689</v>
+      </c>
+      <c r="G167" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>768.5700000000001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>217</v>
+      </c>
+      <c r="G169" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F170" t="n">
+        <v>25</v>
+      </c>
+      <c r="G170" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4919.948</v>
+      </c>
+      <c r="G171" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>230.9871</v>
+      </c>
+      <c r="G172" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2198.4819</v>
+      </c>
+      <c r="G173" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1300.7261</v>
+      </c>
+      <c r="G174" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1224.4026</v>
+      </c>
+      <c r="G175" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F176" t="n">
+        <v>44.9925</v>
+      </c>
+      <c r="G176" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F177" t="n">
+        <v>972.0734</v>
+      </c>
+      <c r="G177" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>169.5863</v>
+      </c>
+      <c r="G178" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7843.155</v>
+      </c>
+      <c r="G179" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>753.3468</v>
+      </c>
+      <c r="G180" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>56.1976</v>
+      </c>
+      <c r="G181" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1196.5955</v>
+      </c>
+      <c r="G182" t="n">
+        <v>31575.22662808997</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>225.27</v>
+      </c>
+      <c r="G183" t="n">
+        <v>31800.49662808998</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11436.652</v>
+      </c>
+      <c r="G184" t="n">
+        <v>31800.49662808998</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F185" t="n">
+        <v>213.1157</v>
+      </c>
+      <c r="G185" t="n">
+        <v>32013.61232808997</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>84.61109999999999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>32013.61232808997</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>345</v>
+      </c>
+      <c r="G187" t="n">
+        <v>32013.61232808997</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>285.8907</v>
+      </c>
+      <c r="G188" t="n">
+        <v>32299.50302808997</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F189" t="n">
+        <v>290</v>
+      </c>
+      <c r="G189" t="n">
+        <v>32589.50302808997</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2276.6843</v>
+      </c>
+      <c r="G190" t="n">
+        <v>30312.81872808997</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F191" t="n">
         <v>109.7029</v>
       </c>
-      <c r="G162" t="n">
-        <v>1000.38</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1000.911666666667</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+      <c r="G191" t="n">
+        <v>30312.81872808997</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C2" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D2" t="n">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E2" t="n">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F2" t="n">
-        <v>3013.9796</v>
+        <v>495</v>
       </c>
       <c r="G2" t="n">
-        <v>31990.33219043</v>
+        <v>51726.33169335999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="C3" t="n">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="D3" t="n">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="E3" t="n">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>1677.9427</v>
       </c>
       <c r="G3" t="n">
-        <v>31991.33219043</v>
+        <v>51726.33169335999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="C4" t="n">
-        <v>1014</v>
+        <v>995.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="E4" t="n">
-        <v>1013</v>
+        <v>995.8</v>
       </c>
       <c r="F4" t="n">
-        <v>10249.7053</v>
+        <v>2897.6135</v>
       </c>
       <c r="G4" t="n">
-        <v>42241.03749043</v>
+        <v>48828.71819335999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="C5" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="D5" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="E5" t="n">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>42242.03749043</v>
+        <v>48829.71819335999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="C6" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="D6" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="E6" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="F6" t="n">
-        <v>360</v>
+        <v>2511.9172</v>
       </c>
       <c r="G6" t="n">
-        <v>41882.03749043</v>
+        <v>48829.71819335999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C7" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D7" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E7" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>41877.03749043</v>
+        <v>48830.71819335999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C8" t="n">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="D8" t="n">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="E8" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>41883.03749043</v>
+        <v>48831.71819335999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C9" t="n">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D9" t="n">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="E9" t="n">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F9" t="n">
-        <v>3172.64427286</v>
+        <v>987.63069306</v>
       </c>
       <c r="G9" t="n">
-        <v>45055.68176329001</v>
+        <v>49819.34888641999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C10" t="n">
         <v>1012</v>
       </c>
       <c r="D10" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E10" t="n">
         <v>1012</v>
       </c>
       <c r="F10" t="n">
-        <v>2930.5428</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>42125.13896329</v>
+        <v>49820.34888641999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C11" t="n">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D11" t="n">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E11" t="n">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>42126.13896329</v>
+        <v>49821.34888641999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C12" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D12" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E12" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F12" t="n">
-        <v>7838.0125</v>
+        <v>2700.91369458</v>
       </c>
       <c r="G12" t="n">
-        <v>49964.15146329</v>
+        <v>52522.26258099999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C13" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D13" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E13" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F13" t="n">
-        <v>1195</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>49964.15146329</v>
+        <v>52523.26258099999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C14" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D14" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E14" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F14" t="n">
-        <v>961.26002714</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>50925.41149043</v>
+        <v>52523.26258099999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C15" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D15" t="n">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E15" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F15" t="n">
-        <v>539.7399</v>
+        <v>3707.1818</v>
       </c>
       <c r="G15" t="n">
-        <v>50385.67159043</v>
+        <v>56230.44438099999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,19 +945,19 @@
         <v>1018</v>
       </c>
       <c r="C16" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D16" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E16" t="n">
         <v>1018</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2774.139</v>
       </c>
       <c r="G16" t="n">
-        <v>50386.67159043</v>
+        <v>59004.58338099999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C17" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D17" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E17" t="n">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F17" t="n">
-        <v>24.3672</v>
+        <v>568.3913</v>
       </c>
       <c r="G17" t="n">
-        <v>50386.67159043</v>
+        <v>58436.19208099999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C18" t="n">
         <v>1020</v>
       </c>
       <c r="D18" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E18" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F18" t="n">
-        <v>3880.1393</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>54266.81089043</v>
+        <v>58440.19208099999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,13 +1043,14 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C19" t="n">
         <v>1021</v>
@@ -1037,19 +1059,19 @@
         <v>1021</v>
       </c>
       <c r="E19" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F19" t="n">
-        <v>2277.5652</v>
+        <v>442.4577</v>
       </c>
       <c r="G19" t="n">
-        <v>56544.37609043</v>
+        <v>58882.64978099999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1066,25 +1089,25 @@
         <v>1021</v>
       </c>
       <c r="C20" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D20" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E20" t="n">
         <v>1021</v>
       </c>
       <c r="F20" t="n">
-        <v>1209.9612</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>57754.33729043</v>
+        <v>58882.64978099999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C21" t="n">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="D21" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E21" t="n">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F21" t="n">
-        <v>3711.2893</v>
+        <v>3771.009</v>
       </c>
       <c r="G21" t="n">
-        <v>54043.04799043</v>
+        <v>55111.64078099999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C22" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D22" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E22" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F22" t="n">
-        <v>2897.61350293</v>
+        <v>300.1644</v>
       </c>
       <c r="G22" t="n">
-        <v>56940.66149336</v>
+        <v>55411.80518099999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C23" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="D23" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="E23" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="F23" t="n">
-        <v>74.55</v>
+        <v>30.119</v>
       </c>
       <c r="G23" t="n">
-        <v>56866.11149336</v>
+        <v>55381.68618099999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="C24" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D24" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="E24" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F24" t="n">
-        <v>354.7363</v>
+        <v>19.881</v>
       </c>
       <c r="G24" t="n">
-        <v>56866.11149336</v>
+        <v>55361.80518099999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C25" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D25" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="E25" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>529.9571</v>
       </c>
       <c r="G25" t="n">
-        <v>56666.11149336</v>
+        <v>55891.76228099999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C26" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D26" t="n">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="E26" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F26" t="n">
-        <v>25</v>
+        <v>4.6492</v>
       </c>
       <c r="G26" t="n">
-        <v>56641.11149336</v>
+        <v>55887.11308099999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="C27" t="n">
-        <v>1004</v>
+        <v>997.6</v>
       </c>
       <c r="D27" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="E27" t="n">
-        <v>1004</v>
+        <v>997.6</v>
       </c>
       <c r="F27" t="n">
-        <v>1147.2719</v>
+        <v>3687.5444</v>
       </c>
       <c r="G27" t="n">
-        <v>55493.83959336</v>
+        <v>52199.56868099999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1006</v>
+        <v>997.6</v>
       </c>
       <c r="C28" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D28" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E28" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F28" t="n">
-        <v>6.7222</v>
+        <v>7907.0125</v>
       </c>
       <c r="G28" t="n">
-        <v>55500.56179335999</v>
+        <v>60106.58118099999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="C29" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="D29" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="E29" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F29" t="n">
-        <v>91.221</v>
+        <v>642.1661</v>
       </c>
       <c r="G29" t="n">
-        <v>55500.56179335999</v>
+        <v>59464.41508099998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="C30" t="n">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="D30" t="n">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="E30" t="n">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>1946.1162</v>
       </c>
       <c r="G30" t="n">
-        <v>55505.56179335999</v>
+        <v>57518.29888099999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1010</v>
+        <v>994.7</v>
       </c>
       <c r="C31" t="n">
-        <v>1010</v>
+        <v>994.7</v>
       </c>
       <c r="D31" t="n">
-        <v>1010</v>
+        <v>994.7</v>
       </c>
       <c r="E31" t="n">
-        <v>1010</v>
+        <v>994.7</v>
       </c>
       <c r="F31" t="n">
-        <v>85.517</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>55505.56179335999</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1012</v>
+        <v>994.7</v>
       </c>
       <c r="C32" t="n">
-        <v>1014</v>
+        <v>994.7</v>
       </c>
       <c r="D32" t="n">
-        <v>1014</v>
+        <v>994.7</v>
       </c>
       <c r="E32" t="n">
-        <v>1012</v>
+        <v>994.7</v>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>0.6838</v>
       </c>
       <c r="G32" t="n">
-        <v>55550.56179335999</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1009</v>
+        <v>994.7</v>
       </c>
       <c r="C33" t="n">
-        <v>1009</v>
+        <v>994.7</v>
       </c>
       <c r="D33" t="n">
-        <v>1009</v>
+        <v>994.7</v>
       </c>
       <c r="E33" t="n">
-        <v>1009</v>
+        <v>994.7</v>
       </c>
       <c r="F33" t="n">
-        <v>85.2961</v>
+        <v>80.8704</v>
       </c>
       <c r="G33" t="n">
-        <v>55465.26569335999</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C34" t="n">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="D34" t="n">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="E34" t="n">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="F34" t="n">
-        <v>887.2781</v>
+        <v>2.3977</v>
       </c>
       <c r="G34" t="n">
-        <v>54577.98759335999</v>
+        <v>57500.69658099999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1006</v>
+        <v>991.9</v>
       </c>
       <c r="C35" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="D35" t="n">
-        <v>1006</v>
+        <v>991.9</v>
       </c>
       <c r="E35" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F35" t="n">
-        <v>2225.124</v>
+        <v>43.0373</v>
       </c>
       <c r="G35" t="n">
-        <v>52352.86359335999</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C36" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="D36" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E36" t="n">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="F36" t="n">
-        <v>32.1363</v>
+        <v>69.6647</v>
       </c>
       <c r="G36" t="n">
-        <v>52352.86359335999</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="C37" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="D37" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="E37" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F37" t="n">
-        <v>346.4681</v>
+        <v>61.2739</v>
       </c>
       <c r="G37" t="n">
-        <v>52006.39549335999</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C38" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="D38" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="E38" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="F38" t="n">
-        <v>163.5319</v>
+        <v>46.9636</v>
       </c>
       <c r="G38" t="n">
-        <v>52006.39549335999</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1004</v>
+        <v>987.4</v>
       </c>
       <c r="C39" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="D39" t="n">
-        <v>1004</v>
+        <v>987.4</v>
       </c>
       <c r="E39" t="n">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="F39" t="n">
-        <v>92</v>
+        <v>1017.5401</v>
       </c>
       <c r="G39" t="n">
-        <v>52098.39549335999</v>
+        <v>56440.11918099999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C40" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="D40" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="E40" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="F40" t="n">
-        <v>145.3808</v>
+        <v>62.1922</v>
       </c>
       <c r="G40" t="n">
-        <v>51953.01469335999</v>
+        <v>56502.31138099998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C41" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D41" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E41" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F41" t="n">
-        <v>332.3318</v>
+        <v>189.8102</v>
       </c>
       <c r="G41" t="n">
-        <v>51953.01469335999</v>
+        <v>56692.12158099998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="C42" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D42" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E42" t="n">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F42" t="n">
-        <v>1144.9231</v>
+        <v>2327.93139297</v>
       </c>
       <c r="G42" t="n">
-        <v>53097.93779335999</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C43" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D43" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E43" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F43" t="n">
-        <v>876.6061</v>
+        <v>1355.1831</v>
       </c>
       <c r="G43" t="n">
-        <v>52221.33169335999</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C44" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D44" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E44" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F44" t="n">
-        <v>495</v>
+        <v>144.0769</v>
       </c>
       <c r="G44" t="n">
-        <v>51726.33169335999</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>999</v>
+        <v>994.1</v>
       </c>
       <c r="C45" t="n">
-        <v>999</v>
+        <v>994.1</v>
       </c>
       <c r="D45" t="n">
-        <v>999</v>
+        <v>994.1</v>
       </c>
       <c r="E45" t="n">
-        <v>999</v>
+        <v>994.1</v>
       </c>
       <c r="F45" t="n">
-        <v>1677.9427</v>
+        <v>441.4577</v>
       </c>
       <c r="G45" t="n">
-        <v>51726.33169335999</v>
+        <v>58578.59527396999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C46" t="n">
-        <v>995.8</v>
+        <v>997</v>
       </c>
       <c r="D46" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E46" t="n">
-        <v>995.8</v>
+        <v>997</v>
       </c>
       <c r="F46" t="n">
-        <v>2897.6135</v>
+        <v>0.0001</v>
       </c>
       <c r="G46" t="n">
-        <v>48828.71819335999</v>
+        <v>58578.59537396998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C47" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D47" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E47" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G47" t="n">
-        <v>48829.71819335999</v>
+        <v>59778.59537396998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1004</v>
+        <v>999.4</v>
       </c>
       <c r="C48" t="n">
-        <v>1004</v>
+        <v>999.3</v>
       </c>
       <c r="D48" t="n">
-        <v>1004</v>
+        <v>999.4</v>
       </c>
       <c r="E48" t="n">
-        <v>1004</v>
+        <v>999.3</v>
       </c>
       <c r="F48" t="n">
-        <v>2511.9172</v>
+        <v>1655</v>
       </c>
       <c r="G48" t="n">
-        <v>48829.71819335999</v>
+        <v>58123.59537396998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1006</v>
+        <v>998.1</v>
       </c>
       <c r="C49" t="n">
-        <v>1006</v>
+        <v>998.1</v>
       </c>
       <c r="D49" t="n">
-        <v>1006</v>
+        <v>998.1</v>
       </c>
       <c r="E49" t="n">
-        <v>1006</v>
+        <v>998.1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="n">
-        <v>48830.71819335999</v>
+        <v>55723.59537396998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2125,10 +2178,10 @@
         <v>1007</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>2.20655412</v>
       </c>
       <c r="G50" t="n">
-        <v>48831.71819335999</v>
+        <v>55725.80192808998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="C51" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D51" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="E51" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="F51" t="n">
-        <v>987.63069306</v>
+        <v>1074</v>
       </c>
       <c r="G51" t="n">
-        <v>49819.34888641999</v>
+        <v>54651.80192808998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C52" t="n">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="D52" t="n">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E52" t="n">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G52" t="n">
-        <v>49820.34888641999</v>
+        <v>54651.80192808998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1013</v>
+        <v>998.1</v>
       </c>
       <c r="C53" t="n">
-        <v>1013</v>
+        <v>998.1</v>
       </c>
       <c r="D53" t="n">
-        <v>1013</v>
+        <v>998.1</v>
       </c>
       <c r="E53" t="n">
-        <v>1013</v>
+        <v>998.1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>6480.3207</v>
       </c>
       <c r="G53" t="n">
-        <v>49821.34888641999</v>
+        <v>48171.48122808998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1014</v>
+        <v>998.1</v>
       </c>
       <c r="C54" t="n">
-        <v>1015</v>
+        <v>998.1</v>
       </c>
       <c r="D54" t="n">
-        <v>1015</v>
+        <v>998.1</v>
       </c>
       <c r="E54" t="n">
-        <v>1014</v>
+        <v>998.1</v>
       </c>
       <c r="F54" t="n">
-        <v>2700.91369458</v>
+        <v>62.2891</v>
       </c>
       <c r="G54" t="n">
-        <v>52522.26258099999</v>
+        <v>48171.48122808998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C55" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="D55" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="E55" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>199.8598</v>
       </c>
       <c r="G55" t="n">
-        <v>52523.26258099999</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C56" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="D56" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="E56" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>100.0999</v>
       </c>
       <c r="G56" t="n">
-        <v>52523.26258099999</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C57" t="n">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="D57" t="n">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="E57" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="F57" t="n">
-        <v>3707.1818</v>
+        <v>2886.8303</v>
       </c>
       <c r="G57" t="n">
-        <v>56230.44438099999</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="C58" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="D58" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="E58" t="n">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="F58" t="n">
-        <v>2774.139</v>
+        <v>165.2299</v>
       </c>
       <c r="G58" t="n">
-        <v>59004.58338099999</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="C59" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="D59" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="E59" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="F59" t="n">
-        <v>568.3913</v>
+        <v>80.4264</v>
       </c>
       <c r="G59" t="n">
-        <v>58436.19208099999</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="C60" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="D60" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="E60" t="n">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>1326.8</v>
       </c>
       <c r="G60" t="n">
-        <v>58440.19208099999</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="C61" t="n">
-        <v>1021</v>
+        <v>998.1</v>
       </c>
       <c r="D61" t="n">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="E61" t="n">
-        <v>1020</v>
+        <v>998.1</v>
       </c>
       <c r="F61" t="n">
-        <v>442.4577</v>
+        <v>557.2127</v>
       </c>
       <c r="G61" t="n">
-        <v>58882.64978099999</v>
+        <v>47814.12832808998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1021</v>
+        <v>998.1</v>
       </c>
       <c r="C62" t="n">
-        <v>1021</v>
+        <v>998.1</v>
       </c>
       <c r="D62" t="n">
-        <v>1021</v>
+        <v>998.1</v>
       </c>
       <c r="E62" t="n">
-        <v>1021</v>
+        <v>998.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>852.4299999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>58882.64978099999</v>
+        <v>47814.12832808998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="C63" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="D63" t="n">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="E63" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="F63" t="n">
-        <v>3771.009</v>
+        <v>2212</v>
       </c>
       <c r="G63" t="n">
-        <v>55111.64078099999</v>
+        <v>50026.12832808998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="C64" t="n">
-        <v>1016</v>
+        <v>998.1</v>
       </c>
       <c r="D64" t="n">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="E64" t="n">
-        <v>1016</v>
+        <v>998.1</v>
       </c>
       <c r="F64" t="n">
-        <v>300.1644</v>
+        <v>773.2153</v>
       </c>
       <c r="G64" t="n">
-        <v>55411.80518099999</v>
+        <v>49252.91302808998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1009</v>
+        <v>998.1</v>
       </c>
       <c r="C65" t="n">
-        <v>1009</v>
+        <v>990.1</v>
       </c>
       <c r="D65" t="n">
-        <v>1009</v>
+        <v>998.1</v>
       </c>
       <c r="E65" t="n">
-        <v>1009</v>
+        <v>990.1</v>
       </c>
       <c r="F65" t="n">
-        <v>30.119</v>
+        <v>937.8357999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>55381.68618099999</v>
+        <v>48315.07722808998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1007</v>
+        <v>994.2</v>
       </c>
       <c r="C66" t="n">
-        <v>1006</v>
+        <v>993.1</v>
       </c>
       <c r="D66" t="n">
-        <v>1007</v>
+        <v>994.2</v>
       </c>
       <c r="E66" t="n">
-        <v>1006</v>
+        <v>993.1</v>
       </c>
       <c r="F66" t="n">
-        <v>19.881</v>
+        <v>229.1408</v>
       </c>
       <c r="G66" t="n">
-        <v>55361.80518099999</v>
+        <v>48544.21802808998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1009</v>
+        <v>992.2</v>
       </c>
       <c r="C67" t="n">
-        <v>1009</v>
+        <v>992.1</v>
       </c>
       <c r="D67" t="n">
-        <v>1009</v>
+        <v>992.2</v>
       </c>
       <c r="E67" t="n">
-        <v>1009</v>
+        <v>992.1</v>
       </c>
       <c r="F67" t="n">
-        <v>529.9571</v>
+        <v>100.7983</v>
       </c>
       <c r="G67" t="n">
-        <v>55891.76228099999</v>
+        <v>48443.41972808998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1007</v>
+        <v>992.1</v>
       </c>
       <c r="C68" t="n">
-        <v>1007</v>
+        <v>992.1</v>
       </c>
       <c r="D68" t="n">
-        <v>1007</v>
+        <v>992.1</v>
       </c>
       <c r="E68" t="n">
-        <v>1007</v>
+        <v>992.1</v>
       </c>
       <c r="F68" t="n">
-        <v>4.6492</v>
+        <v>2338.4094</v>
       </c>
       <c r="G68" t="n">
-        <v>55887.11308099999</v>
+        <v>48443.41972808998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2781,19 +2853,19 @@
         <v>1001</v>
       </c>
       <c r="C69" t="n">
-        <v>997.6</v>
+        <v>1001</v>
       </c>
       <c r="D69" t="n">
         <v>1001</v>
       </c>
       <c r="E69" t="n">
-        <v>997.6</v>
+        <v>1001</v>
       </c>
       <c r="F69" t="n">
-        <v>3687.5444</v>
+        <v>279.7812</v>
       </c>
       <c r="G69" t="n">
-        <v>52199.56868099999</v>
+        <v>48723.20092808997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,13 +2879,14 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>997.6</v>
+        <v>1005</v>
       </c>
       <c r="C70" t="n">
         <v>1005</v>
@@ -2822,13 +2895,13 @@
         <v>1005</v>
       </c>
       <c r="E70" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="F70" t="n">
-        <v>7907.0125</v>
+        <v>495</v>
       </c>
       <c r="G70" t="n">
-        <v>60106.58118099999</v>
+        <v>49218.20092808997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="C71" t="n">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="D71" t="n">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="E71" t="n">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="F71" t="n">
-        <v>642.1661</v>
+        <v>941.8437</v>
       </c>
       <c r="G71" t="n">
-        <v>59464.41508099998</v>
+        <v>50160.04462808997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="C72" t="n">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="D72" t="n">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="E72" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="F72" t="n">
-        <v>1946.1162</v>
+        <v>4523.7353</v>
       </c>
       <c r="G72" t="n">
-        <v>57518.29888099999</v>
+        <v>54683.77992808997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>994.7</v>
+        <v>1015</v>
       </c>
       <c r="C73" t="n">
-        <v>994.7</v>
+        <v>1016</v>
       </c>
       <c r="D73" t="n">
-        <v>994.7</v>
+        <v>1017</v>
       </c>
       <c r="E73" t="n">
-        <v>994.7</v>
+        <v>1015</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>345.8788</v>
       </c>
       <c r="G73" t="n">
-        <v>57498.29888099999</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>994.7</v>
+        <v>1017</v>
       </c>
       <c r="C74" t="n">
-        <v>994.7</v>
+        <v>1016</v>
       </c>
       <c r="D74" t="n">
-        <v>994.7</v>
+        <v>1020</v>
       </c>
       <c r="E74" t="n">
-        <v>994.7</v>
+        <v>1011</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6838</v>
+        <v>3467.951</v>
       </c>
       <c r="G74" t="n">
-        <v>57498.29888099999</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>994.7</v>
+        <v>1016</v>
       </c>
       <c r="C75" t="n">
-        <v>994.7</v>
+        <v>1016</v>
       </c>
       <c r="D75" t="n">
-        <v>994.7</v>
+        <v>1016</v>
       </c>
       <c r="E75" t="n">
-        <v>994.7</v>
+        <v>1016</v>
       </c>
       <c r="F75" t="n">
-        <v>80.8704</v>
+        <v>623.4948000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>57498.29888099999</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="C76" t="n">
-        <v>996</v>
+        <v>1016</v>
       </c>
       <c r="D76" t="n">
-        <v>996</v>
+        <v>1016</v>
       </c>
       <c r="E76" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="F76" t="n">
-        <v>2.3977</v>
+        <v>1667.5756</v>
       </c>
       <c r="G76" t="n">
-        <v>57500.69658099999</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>991.9</v>
+        <v>1016</v>
       </c>
       <c r="C77" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="D77" t="n">
-        <v>991.9</v>
+        <v>1016</v>
       </c>
       <c r="E77" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="F77" t="n">
-        <v>43.0373</v>
+        <v>860.2051</v>
       </c>
       <c r="G77" t="n">
-        <v>57457.65928099999</v>
+        <v>54169.45362808997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="C78" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="D78" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="E78" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="F78" t="n">
-        <v>69.6647</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>57457.65928099999</v>
+        <v>54167.45362808997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="C79" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="D79" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="E79" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="F79" t="n">
-        <v>61.2739</v>
+        <v>0.6</v>
       </c>
       <c r="G79" t="n">
-        <v>57457.65928099999</v>
+        <v>54168.05362808997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="C80" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="D80" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="E80" t="n">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="F80" t="n">
-        <v>46.9636</v>
+        <v>7036.4716</v>
       </c>
       <c r="G80" t="n">
-        <v>57457.65928099999</v>
+        <v>54168.05362808997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>987.4</v>
+        <v>1005</v>
       </c>
       <c r="C81" t="n">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="D81" t="n">
-        <v>987.4</v>
+        <v>1005</v>
       </c>
       <c r="E81" t="n">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="F81" t="n">
-        <v>1017.5401</v>
+        <v>7036.4716</v>
       </c>
       <c r="G81" t="n">
-        <v>56440.11918099999</v>
+        <v>47131.58202808997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="C82" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="D82" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="E82" t="n">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="F82" t="n">
-        <v>62.1922</v>
+        <v>1866.0681</v>
       </c>
       <c r="G82" t="n">
-        <v>56502.31138099998</v>
+        <v>47131.58202808997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="C83" t="n">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="D83" t="n">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="E83" t="n">
-        <v>994</v>
+        <v>1005</v>
       </c>
       <c r="F83" t="n">
-        <v>189.8102</v>
+        <v>5.3122</v>
       </c>
       <c r="G83" t="n">
-        <v>56692.12158099998</v>
+        <v>47136.89422808997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="C84" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D84" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="E84" t="n">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="F84" t="n">
-        <v>2327.93139297</v>
+        <v>913.9458</v>
       </c>
       <c r="G84" t="n">
-        <v>59020.05297396999</v>
+        <v>46222.94842808997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C85" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D85" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="E85" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="F85" t="n">
-        <v>1355.1831</v>
+        <v>181.0127</v>
       </c>
       <c r="G85" t="n">
-        <v>59020.05297396999</v>
+        <v>46222.94842808997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="C86" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D86" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="E86" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="F86" t="n">
-        <v>144.0769</v>
+        <v>2879.8346</v>
       </c>
       <c r="G86" t="n">
-        <v>59020.05297396999</v>
+        <v>43343.11382808997</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>994.1</v>
+        <v>1008</v>
       </c>
       <c r="C87" t="n">
-        <v>994.1</v>
+        <v>1008</v>
       </c>
       <c r="D87" t="n">
-        <v>994.1</v>
+        <v>1008</v>
       </c>
       <c r="E87" t="n">
-        <v>994.1</v>
+        <v>1008</v>
       </c>
       <c r="F87" t="n">
-        <v>441.4577</v>
+        <v>50.015</v>
       </c>
       <c r="G87" t="n">
-        <v>58578.59527396999</v>
+        <v>43393.12882808997</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="C88" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="D88" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="E88" t="n">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0001</v>
+        <v>64</v>
       </c>
       <c r="G88" t="n">
-        <v>58578.59537396998</v>
+        <v>43393.12882808997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="C89" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="D89" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E89" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F89" t="n">
-        <v>1200</v>
+        <v>2233.2014</v>
       </c>
       <c r="G89" t="n">
-        <v>59778.59537396998</v>
+        <v>41159.92742808997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>999.4</v>
+        <v>1006</v>
       </c>
       <c r="C90" t="n">
-        <v>999.3</v>
+        <v>1005</v>
       </c>
       <c r="D90" t="n">
-        <v>999.4</v>
+        <v>1006</v>
       </c>
       <c r="E90" t="n">
-        <v>999.3</v>
+        <v>1005</v>
       </c>
       <c r="F90" t="n">
-        <v>1655</v>
+        <v>2073.7299</v>
       </c>
       <c r="G90" t="n">
-        <v>58123.59537396998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="C91" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="D91" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="E91" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="F91" t="n">
-        <v>2400</v>
+        <v>1158</v>
       </c>
       <c r="G91" t="n">
-        <v>55723.59537396998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C92" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D92" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E92" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F92" t="n">
-        <v>2.20655412</v>
+        <v>100.1581</v>
       </c>
       <c r="G92" t="n">
-        <v>55725.80192808998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C93" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D93" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E93" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F93" t="n">
-        <v>1074</v>
+        <v>6076.5849</v>
       </c>
       <c r="G93" t="n">
-        <v>54651.80192808998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C94" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D94" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E94" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F94" t="n">
-        <v>36</v>
+        <v>675.4618</v>
       </c>
       <c r="G94" t="n">
-        <v>54651.80192808998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="C95" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="D95" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="E95" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="F95" t="n">
-        <v>6480.3207</v>
+        <v>596.8201</v>
       </c>
       <c r="G95" t="n">
-        <v>48171.48122808998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="C96" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="D96" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="E96" t="n">
-        <v>998.1</v>
+        <v>1005</v>
       </c>
       <c r="F96" t="n">
-        <v>62.2891</v>
+        <v>20.2348</v>
       </c>
       <c r="G96" t="n">
-        <v>48171.48122808998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C97" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="D97" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E97" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F97" t="n">
-        <v>199.8598</v>
+        <v>113.5594</v>
       </c>
       <c r="G97" t="n">
-        <v>48371.34102808998</v>
+        <v>39086.19752808997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C98" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D98" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E98" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F98" t="n">
-        <v>100.0999</v>
+        <v>390.8217</v>
       </c>
       <c r="G98" t="n">
-        <v>48371.34102808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C99" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D99" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E99" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F99" t="n">
-        <v>2886.8303</v>
+        <v>99.5</v>
       </c>
       <c r="G99" t="n">
-        <v>48371.34102808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C100" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D100" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E100" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F100" t="n">
-        <v>165.2299</v>
+        <v>107.2391</v>
       </c>
       <c r="G100" t="n">
-        <v>48371.34102808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C101" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D101" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E101" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F101" t="n">
-        <v>80.4264</v>
+        <v>254.4469</v>
       </c>
       <c r="G101" t="n">
-        <v>48371.34102808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,63 +4031,69 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C102" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D102" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E102" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F102" t="n">
-        <v>1326.8</v>
+        <v>595</v>
       </c>
       <c r="G102" t="n">
-        <v>48371.34102808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1001</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C103" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="D103" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E103" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="F103" t="n">
-        <v>557.2127</v>
+        <v>429</v>
       </c>
       <c r="G103" t="n">
-        <v>47814.12832808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4102,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="C104" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="D104" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="E104" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="F104" t="n">
-        <v>852.4299999999999</v>
+        <v>339</v>
       </c>
       <c r="G104" t="n">
-        <v>47814.12832808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,11 +4144,18 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4050,10 +4174,10 @@
         <v>1001</v>
       </c>
       <c r="F105" t="n">
-        <v>2212</v>
+        <v>25</v>
       </c>
       <c r="G105" t="n">
-        <v>50026.12832808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,6 +4191,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4076,19 +4201,19 @@
         <v>1001</v>
       </c>
       <c r="C106" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="D106" t="n">
         <v>1001</v>
       </c>
       <c r="E106" t="n">
-        <v>998.1</v>
+        <v>1000</v>
       </c>
       <c r="F106" t="n">
-        <v>773.2153</v>
+        <v>9583.8338</v>
       </c>
       <c r="G106" t="n">
-        <v>49252.91302808998</v>
+        <v>38695.37582808997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4227,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="C107" t="n">
-        <v>990.1</v>
+        <v>1000</v>
       </c>
       <c r="D107" t="n">
-        <v>998.1</v>
+        <v>1001</v>
       </c>
       <c r="E107" t="n">
-        <v>990.1</v>
+        <v>1000</v>
       </c>
       <c r="F107" t="n">
-        <v>937.8357999999999</v>
+        <v>5923.5537</v>
       </c>
       <c r="G107" t="n">
-        <v>48315.07722808998</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4263,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>994.2</v>
+        <v>1000</v>
       </c>
       <c r="C108" t="n">
-        <v>993.1</v>
+        <v>1000</v>
       </c>
       <c r="D108" t="n">
-        <v>994.2</v>
+        <v>1000</v>
       </c>
       <c r="E108" t="n">
-        <v>993.1</v>
+        <v>1000</v>
       </c>
       <c r="F108" t="n">
-        <v>229.1408</v>
+        <v>191</v>
       </c>
       <c r="G108" t="n">
-        <v>48544.21802808998</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4299,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>992.2</v>
+        <v>1000</v>
       </c>
       <c r="C109" t="n">
-        <v>992.1</v>
+        <v>1000</v>
       </c>
       <c r="D109" t="n">
-        <v>992.2</v>
+        <v>1000</v>
       </c>
       <c r="E109" t="n">
-        <v>992.1</v>
+        <v>1000</v>
       </c>
       <c r="F109" t="n">
-        <v>100.7983</v>
+        <v>382.8377</v>
       </c>
       <c r="G109" t="n">
-        <v>48443.41972808998</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4335,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>992.1</v>
+        <v>1000</v>
       </c>
       <c r="C110" t="n">
-        <v>992.1</v>
+        <v>1000</v>
       </c>
       <c r="D110" t="n">
-        <v>992.1</v>
+        <v>1000</v>
       </c>
       <c r="E110" t="n">
-        <v>992.1</v>
+        <v>1000</v>
       </c>
       <c r="F110" t="n">
-        <v>2338.4094</v>
+        <v>103</v>
       </c>
       <c r="G110" t="n">
-        <v>48443.41972808998</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4371,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C111" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D111" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E111" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F111" t="n">
-        <v>279.7812</v>
+        <v>370</v>
       </c>
       <c r="G111" t="n">
-        <v>48723.20092808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4407,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C112" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D112" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E112" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F112" t="n">
-        <v>495</v>
+        <v>278.705</v>
       </c>
       <c r="G112" t="n">
-        <v>49218.20092808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4443,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C113" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="D113" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="E113" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F113" t="n">
-        <v>941.8437</v>
+        <v>35.8227</v>
       </c>
       <c r="G113" t="n">
-        <v>50160.04462808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4479,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C114" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D114" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="E114" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="F114" t="n">
-        <v>4523.7353</v>
+        <v>43.3771</v>
       </c>
       <c r="G114" t="n">
-        <v>54683.77992808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4515,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="C115" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D115" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="E115" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F115" t="n">
-        <v>345.8788</v>
+        <v>411.4053</v>
       </c>
       <c r="G115" t="n">
-        <v>55029.65872808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4551,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="C116" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D116" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="E116" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="F116" t="n">
-        <v>3467.951</v>
+        <v>144.4053</v>
       </c>
       <c r="G116" t="n">
-        <v>55029.65872808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4587,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="C117" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D117" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="E117" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="F117" t="n">
-        <v>623.4948000000001</v>
+        <v>191.8461</v>
       </c>
       <c r="G117" t="n">
-        <v>55029.65872808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4623,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C118" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D118" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="E118" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="F118" t="n">
-        <v>1667.5756</v>
+        <v>510.8795</v>
       </c>
       <c r="G118" t="n">
-        <v>55029.65872808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4659,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="C119" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="D119" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="E119" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="F119" t="n">
-        <v>860.2051</v>
+        <v>1287.7059</v>
       </c>
       <c r="G119" t="n">
-        <v>54169.45362808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4695,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C120" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="D120" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="E120" t="n">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>12995.1543</v>
       </c>
       <c r="G120" t="n">
-        <v>54167.45362808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4731,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="C121" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D121" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="E121" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6</v>
+        <v>2677.6453</v>
       </c>
       <c r="G121" t="n">
-        <v>54168.05362808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4767,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="C122" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D122" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="E122" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="F122" t="n">
-        <v>7036.4716</v>
+        <v>41.2473</v>
       </c>
       <c r="G122" t="n">
-        <v>54168.05362808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4803,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C123" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D123" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E123" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F123" t="n">
-        <v>7036.4716</v>
+        <v>45.0659</v>
       </c>
       <c r="G123" t="n">
-        <v>47131.58202808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4839,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C124" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D124" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E124" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F124" t="n">
-        <v>1866.0681</v>
+        <v>76.43170000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>47131.58202808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4875,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C125" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D125" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E125" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F125" t="n">
-        <v>5.3122</v>
+        <v>40.0689</v>
       </c>
       <c r="G125" t="n">
-        <v>47136.89422808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4911,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C126" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D126" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E126" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F126" t="n">
-        <v>913.9458</v>
+        <v>768.5700000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>46222.94842808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4947,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C127" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D127" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E127" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="F127" t="n">
-        <v>181.0127</v>
+        <v>217</v>
       </c>
       <c r="G127" t="n">
-        <v>46222.94842808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,63 +4983,69 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C128" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D128" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E128" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F128" t="n">
-        <v>2879.8346</v>
+        <v>25</v>
       </c>
       <c r="G128" t="n">
-        <v>43343.11382808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1000</v>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C129" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="D129" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E129" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F129" t="n">
-        <v>50.015</v>
+        <v>4919.948</v>
       </c>
       <c r="G129" t="n">
-        <v>43393.12882808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,466 +5054,574 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C130" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="D130" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E130" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F130" t="n">
-        <v>64</v>
+        <v>230.9871</v>
       </c>
       <c r="G130" t="n">
-        <v>43393.12882808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C131" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D131" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="E131" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F131" t="n">
-        <v>2233.2014</v>
+        <v>2198.4819</v>
       </c>
       <c r="G131" t="n">
-        <v>41159.92742808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1000</v>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C132" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D132" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E132" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F132" t="n">
-        <v>2073.7299</v>
+        <v>1300.7261</v>
       </c>
       <c r="G132" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C133" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D133" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E133" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F133" t="n">
-        <v>1158</v>
+        <v>1224.4026</v>
       </c>
       <c r="G133" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C134" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D134" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E134" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F134" t="n">
-        <v>100.1581</v>
+        <v>44.9925</v>
       </c>
       <c r="G134" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1000</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C135" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D135" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E135" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F135" t="n">
-        <v>6076.5849</v>
+        <v>972.0734</v>
       </c>
       <c r="G135" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C136" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D136" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E136" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F136" t="n">
-        <v>675.4618</v>
+        <v>169.5863</v>
       </c>
       <c r="G136" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C137" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D137" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E137" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F137" t="n">
-        <v>596.8201</v>
+        <v>7843.155</v>
       </c>
       <c r="G137" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1000</v>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C138" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D138" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E138" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F138" t="n">
-        <v>20.2348</v>
+        <v>753.3468</v>
       </c>
       <c r="G138" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C139" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D139" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E139" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F139" t="n">
-        <v>113.5594</v>
+        <v>56.1976</v>
       </c>
       <c r="G139" t="n">
-        <v>39086.19752808997</v>
+        <v>32771.82212808997</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1002</v>
+        <v>997.7</v>
       </c>
       <c r="C140" t="n">
-        <v>1001</v>
+        <v>997.7</v>
       </c>
       <c r="D140" t="n">
-        <v>1002</v>
+        <v>997.7</v>
       </c>
       <c r="E140" t="n">
-        <v>1001</v>
+        <v>997.7</v>
       </c>
       <c r="F140" t="n">
-        <v>390.8217</v>
+        <v>1196.5955</v>
       </c>
       <c r="G140" t="n">
-        <v>38695.37582808997</v>
+        <v>31575.22662808997</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1000</v>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C141" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D141" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E141" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F141" t="n">
-        <v>99.5</v>
+        <v>225.27</v>
       </c>
       <c r="G141" t="n">
-        <v>38695.37582808997</v>
+        <v>31800.49662808998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C142" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D142" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E142" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F142" t="n">
-        <v>107.2391</v>
+        <v>11436.652</v>
       </c>
       <c r="G142" t="n">
-        <v>38695.37582808997</v>
+        <v>31800.49662808998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5380,10 +5640,10 @@
         <v>1001</v>
       </c>
       <c r="F143" t="n">
-        <v>254.4469</v>
+        <v>213.1157</v>
       </c>
       <c r="G143" t="n">
-        <v>38695.37582808997</v>
+        <v>32013.61232808997</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,6 +5657,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5415,10 +5676,10 @@
         <v>1001</v>
       </c>
       <c r="F144" t="n">
-        <v>595</v>
+        <v>84.61109999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>38695.37582808997</v>
+        <v>32013.61232808997</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,6 +5693,7 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5450,10 +5712,10 @@
         <v>1001</v>
       </c>
       <c r="F145" t="n">
-        <v>429</v>
+        <v>345</v>
       </c>
       <c r="G145" t="n">
-        <v>38695.37582808997</v>
+        <v>32013.61232808997</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,6 +5729,7 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5476,19 +5739,19 @@
         <v>1001</v>
       </c>
       <c r="C146" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D146" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E146" t="n">
         <v>1001</v>
       </c>
       <c r="F146" t="n">
-        <v>339</v>
+        <v>285.8907</v>
       </c>
       <c r="G146" t="n">
-        <v>38695.37582808997</v>
+        <v>32299.50302808997</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5765,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C147" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D147" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E147" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F147" t="n">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
-        <v>38695.37582808997</v>
+        <v>32589.50302808997</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5801,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C148" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D148" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E148" t="n">
         <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>9583.8338</v>
+        <v>2276.6843</v>
       </c>
       <c r="G148" t="n">
-        <v>38695.37582808997</v>
+        <v>30312.81872808997</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5837,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C149" t="n">
         <v>1000</v>
       </c>
       <c r="D149" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E149" t="n">
         <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>5923.5537</v>
+        <v>109.7029</v>
       </c>
       <c r="G149" t="n">
-        <v>32771.82212808997</v>
+        <v>30312.81872808997</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,1528 +5873,7 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F150" t="n">
-        <v>191</v>
-      </c>
-      <c r="G150" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F151" t="n">
-        <v>382.8377</v>
-      </c>
-      <c r="G151" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F152" t="n">
-        <v>103</v>
-      </c>
-      <c r="G152" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F153" t="n">
-        <v>370</v>
-      </c>
-      <c r="G153" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F154" t="n">
-        <v>278.705</v>
-      </c>
-      <c r="G154" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>35.8227</v>
-      </c>
-      <c r="G155" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F156" t="n">
-        <v>43.3771</v>
-      </c>
-      <c r="G156" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F157" t="n">
-        <v>411.4053</v>
-      </c>
-      <c r="G157" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K157" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F158" t="n">
-        <v>144.4053</v>
-      </c>
-      <c r="G158" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F159" t="n">
-        <v>191.8461</v>
-      </c>
-      <c r="G159" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F160" t="n">
-        <v>510.8795</v>
-      </c>
-      <c r="G160" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1287.7059</v>
-      </c>
-      <c r="G161" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F162" t="n">
-        <v>12995.1543</v>
-      </c>
-      <c r="G162" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2677.6453</v>
-      </c>
-      <c r="G163" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K163" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F164" t="n">
-        <v>41.2473</v>
-      </c>
-      <c r="G164" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F165" t="n">
-        <v>45.0659</v>
-      </c>
-      <c r="G165" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F166" t="n">
-        <v>76.43170000000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F167" t="n">
-        <v>40.0689</v>
-      </c>
-      <c r="G167" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F168" t="n">
-        <v>768.5700000000001</v>
-      </c>
-      <c r="G168" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F169" t="n">
-        <v>217</v>
-      </c>
-      <c r="G169" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F170" t="n">
-        <v>25</v>
-      </c>
-      <c r="G170" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4919.948</v>
-      </c>
-      <c r="G171" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F172" t="n">
-        <v>230.9871</v>
-      </c>
-      <c r="G172" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2198.4819</v>
-      </c>
-      <c r="G173" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1300.7261</v>
-      </c>
-      <c r="G174" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1224.4026</v>
-      </c>
-      <c r="G175" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F176" t="n">
-        <v>44.9925</v>
-      </c>
-      <c r="G176" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F177" t="n">
-        <v>972.0734</v>
-      </c>
-      <c r="G177" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F178" t="n">
-        <v>169.5863</v>
-      </c>
-      <c r="G178" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K178" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F179" t="n">
-        <v>7843.155</v>
-      </c>
-      <c r="G179" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K179" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F180" t="n">
-        <v>753.3468</v>
-      </c>
-      <c r="G180" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F181" t="n">
-        <v>56.1976</v>
-      </c>
-      <c r="G181" t="n">
-        <v>32771.82212808997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="C182" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="D182" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="E182" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1196.5955</v>
-      </c>
-      <c r="G182" t="n">
-        <v>31575.22662808997</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F183" t="n">
-        <v>225.27</v>
-      </c>
-      <c r="G183" t="n">
-        <v>31800.49662808998</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F184" t="n">
-        <v>11436.652</v>
-      </c>
-      <c r="G184" t="n">
-        <v>31800.49662808998</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F185" t="n">
-        <v>213.1157</v>
-      </c>
-      <c r="G185" t="n">
-        <v>32013.61232808997</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F186" t="n">
-        <v>84.61109999999999</v>
-      </c>
-      <c r="G186" t="n">
-        <v>32013.61232808997</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F187" t="n">
-        <v>345</v>
-      </c>
-      <c r="G187" t="n">
-        <v>32013.61232808997</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1002</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1002</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F188" t="n">
-        <v>285.8907</v>
-      </c>
-      <c r="G188" t="n">
-        <v>32299.50302808997</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F189" t="n">
-        <v>290</v>
-      </c>
-      <c r="G189" t="n">
-        <v>32589.50302808997</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2276.6843</v>
-      </c>
-      <c r="G190" t="n">
-        <v>30312.81872808997</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F191" t="n">
-        <v>109.7029</v>
-      </c>
-      <c r="G191" t="n">
-        <v>30312.81872808997</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="C2" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="D2" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="E2" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="F2" t="n">
-        <v>495</v>
+        <v>240.4838</v>
       </c>
       <c r="G2" t="n">
-        <v>51726.33169335999</v>
+        <v>24302.0398</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C3" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="D3" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="E3" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="F3" t="n">
-        <v>1677.9427</v>
+        <v>1922.62</v>
       </c>
       <c r="G3" t="n">
-        <v>51726.33169335999</v>
+        <v>22379.4198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C4" t="n">
-        <v>995.8</v>
+        <v>1010</v>
       </c>
       <c r="D4" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="E4" t="n">
-        <v>995.8</v>
+        <v>1010</v>
       </c>
       <c r="F4" t="n">
-        <v>2897.6135</v>
+        <v>563.1455999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>48828.71819335999</v>
+        <v>22379.4198</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="C5" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="D5" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="E5" t="n">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5298.3008</v>
       </c>
       <c r="G5" t="n">
-        <v>48829.71819335999</v>
+        <v>27677.7206</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="C6" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="D6" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="E6" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="F6" t="n">
-        <v>2511.9172</v>
+        <v>1430.6312</v>
       </c>
       <c r="G6" t="n">
-        <v>48829.71819335999</v>
+        <v>27677.7206</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C7" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D7" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="E7" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>406.5114</v>
       </c>
       <c r="G7" t="n">
-        <v>48830.71819335999</v>
+        <v>27677.7206</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="C8" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="D8" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="E8" t="n">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2322.8037</v>
       </c>
       <c r="G8" t="n">
-        <v>48831.71819335999</v>
+        <v>27677.7206</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C9" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D9" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E9" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F9" t="n">
-        <v>987.63069306</v>
+        <v>58.1</v>
       </c>
       <c r="G9" t="n">
-        <v>49819.34888641999</v>
+        <v>27619.6206</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C10" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D10" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E10" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>159.1033</v>
       </c>
       <c r="G10" t="n">
-        <v>49820.34888641999</v>
+        <v>27619.6206</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C11" t="n">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="D11" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E11" t="n">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>121.91</v>
       </c>
       <c r="G11" t="n">
-        <v>49821.34888641999</v>
+        <v>27497.7106</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C12" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D12" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E12" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F12" t="n">
-        <v>2700.91369458</v>
+        <v>210</v>
       </c>
       <c r="G12" t="n">
-        <v>52522.26258099999</v>
+        <v>27497.7106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="C13" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="D13" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="E13" t="n">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>141.1045</v>
       </c>
       <c r="G13" t="n">
-        <v>52523.26258099999</v>
+        <v>27497.7106</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="C14" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D14" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="E14" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>45.5646</v>
       </c>
       <c r="G14" t="n">
-        <v>52523.26258099999</v>
+        <v>27543.2752</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="C15" t="n">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="D15" t="n">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E15" t="n">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F15" t="n">
-        <v>3707.1818</v>
+        <v>14.4859</v>
       </c>
       <c r="G15" t="n">
-        <v>56230.44438099999</v>
+        <v>27543.2752</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="C16" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D16" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E16" t="n">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="F16" t="n">
-        <v>2774.139</v>
+        <v>62.289</v>
       </c>
       <c r="G16" t="n">
-        <v>59004.58338099999</v>
+        <v>27605.5642</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C17" t="n">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D17" t="n">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E17" t="n">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F17" t="n">
-        <v>568.3913</v>
+        <v>141.7476</v>
       </c>
       <c r="G17" t="n">
-        <v>58436.19208099999</v>
+        <v>27463.81660000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="C18" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D18" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E18" t="n">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="G18" t="n">
-        <v>58440.19208099999</v>
+        <v>27813.81660000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C19" t="n">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D19" t="n">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E19" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="F19" t="n">
-        <v>442.4577</v>
+        <v>3511.3421</v>
       </c>
       <c r="G19" t="n">
-        <v>58882.64978099999</v>
+        <v>31325.15870000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C20" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D20" t="n">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E20" t="n">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>532.36</v>
       </c>
       <c r="G20" t="n">
-        <v>58882.64978099999</v>
+        <v>31857.51870000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C21" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D21" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="E21" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="F21" t="n">
-        <v>3771.009</v>
+        <v>19.64636542</v>
       </c>
       <c r="G21" t="n">
-        <v>55111.64078099999</v>
+        <v>31857.51870000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C22" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D22" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E22" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F22" t="n">
-        <v>300.1644</v>
+        <v>0.5</v>
       </c>
       <c r="G22" t="n">
-        <v>55411.80518099999</v>
+        <v>31857.51870000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C23" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D23" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E23" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F23" t="n">
-        <v>30.119</v>
+        <v>88.8721</v>
       </c>
       <c r="G23" t="n">
-        <v>55381.68618099999</v>
+        <v>31768.64660000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C24" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D24" t="n">
         <v>1006</v>
       </c>
-      <c r="D24" t="n">
-        <v>1007</v>
-      </c>
       <c r="E24" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F24" t="n">
-        <v>19.881</v>
+        <v>71.8426</v>
       </c>
       <c r="G24" t="n">
-        <v>55361.80518099999</v>
+        <v>31768.64660000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C25" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D25" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E25" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F25" t="n">
-        <v>529.9571</v>
+        <v>35.1</v>
       </c>
       <c r="G25" t="n">
-        <v>55891.76228099999</v>
+        <v>31768.64660000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C26" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D26" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E26" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F26" t="n">
-        <v>4.6492</v>
+        <v>42.9799</v>
       </c>
       <c r="G26" t="n">
-        <v>55887.11308099999</v>
+        <v>31768.64660000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="C27" t="n">
-        <v>997.6</v>
+        <v>1005</v>
       </c>
       <c r="D27" t="n">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="E27" t="n">
-        <v>997.6</v>
+        <v>1005</v>
       </c>
       <c r="F27" t="n">
-        <v>3687.5444</v>
+        <v>15853.9077</v>
       </c>
       <c r="G27" t="n">
-        <v>52199.56868099999</v>
+        <v>31768.64660000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>997.6</v>
+        <v>1012</v>
       </c>
       <c r="C28" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D28" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E28" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F28" t="n">
-        <v>7907.0125</v>
+        <v>247.8068</v>
       </c>
       <c r="G28" t="n">
-        <v>60106.58118099999</v>
+        <v>32016.45340000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="C29" t="n">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="D29" t="n">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="E29" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F29" t="n">
-        <v>642.1661</v>
+        <v>3013.97959043</v>
       </c>
       <c r="G29" t="n">
-        <v>59464.41508099998</v>
+        <v>35030.43299043</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="C30" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="D30" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="E30" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="F30" t="n">
-        <v>1946.1162</v>
+        <v>26.1212</v>
       </c>
       <c r="G30" t="n">
-        <v>57518.29888099999</v>
+        <v>35004.31179043</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>994.7</v>
+        <v>1008</v>
       </c>
       <c r="C31" t="n">
-        <v>994.7</v>
+        <v>1005</v>
       </c>
       <c r="D31" t="n">
-        <v>994.7</v>
+        <v>1008</v>
       </c>
       <c r="E31" t="n">
-        <v>994.7</v>
+        <v>1005</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>3013.9796</v>
       </c>
       <c r="G31" t="n">
-        <v>57498.29888099999</v>
+        <v>31990.33219043</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>994.7</v>
+        <v>1013</v>
       </c>
       <c r="C32" t="n">
-        <v>994.7</v>
+        <v>1013</v>
       </c>
       <c r="D32" t="n">
-        <v>994.7</v>
+        <v>1013</v>
       </c>
       <c r="E32" t="n">
-        <v>994.7</v>
+        <v>1013</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6838</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>57498.29888099999</v>
+        <v>31991.33219043</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>994.7</v>
+        <v>1013</v>
       </c>
       <c r="C33" t="n">
-        <v>994.7</v>
+        <v>1014</v>
       </c>
       <c r="D33" t="n">
-        <v>994.7</v>
+        <v>1014</v>
       </c>
       <c r="E33" t="n">
-        <v>994.7</v>
+        <v>1013</v>
       </c>
       <c r="F33" t="n">
-        <v>80.8704</v>
+        <v>10249.7053</v>
       </c>
       <c r="G33" t="n">
-        <v>57498.29888099999</v>
+        <v>42241.03749043</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="C34" t="n">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="D34" t="n">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="E34" t="n">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="F34" t="n">
-        <v>2.3977</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>57500.69658099999</v>
+        <v>42242.03749043</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>991.9</v>
+        <v>1016</v>
       </c>
       <c r="C35" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="D35" t="n">
-        <v>991.9</v>
+        <v>1016</v>
       </c>
       <c r="E35" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="F35" t="n">
-        <v>43.0373</v>
+        <v>360</v>
       </c>
       <c r="G35" t="n">
-        <v>57457.65928099999</v>
+        <v>41882.03749043</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="C36" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="D36" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="E36" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="F36" t="n">
-        <v>69.6647</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>57457.65928099999</v>
+        <v>41877.03749043</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="C37" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="D37" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="E37" t="n">
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="F37" t="n">
-        <v>61.2739</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>57457.65928099999</v>
+        <v>41883.03749043</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="C38" t="n">
-        <v>990</v>
+        <v>1017</v>
       </c>
       <c r="D38" t="n">
-        <v>990</v>
+        <v>1017</v>
       </c>
       <c r="E38" t="n">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="F38" t="n">
-        <v>46.9636</v>
+        <v>3172.64427286</v>
       </c>
       <c r="G38" t="n">
-        <v>57457.65928099999</v>
+        <v>45055.68176329001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>987.4</v>
+        <v>1013</v>
       </c>
       <c r="C39" t="n">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="D39" t="n">
-        <v>987.4</v>
+        <v>1013</v>
       </c>
       <c r="E39" t="n">
-        <v>985</v>
+        <v>1012</v>
       </c>
       <c r="F39" t="n">
-        <v>1017.5401</v>
+        <v>2930.5428</v>
       </c>
       <c r="G39" t="n">
-        <v>56440.11918099999</v>
+        <v>42125.13896329</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="C40" t="n">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="D40" t="n">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="E40" t="n">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="F40" t="n">
-        <v>62.1922</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>56502.31138099998</v>
+        <v>42126.13896329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="C41" t="n">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="D41" t="n">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="E41" t="n">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="F41" t="n">
-        <v>189.8102</v>
+        <v>7838.0125</v>
       </c>
       <c r="G41" t="n">
-        <v>56692.12158099998</v>
+        <v>49964.15146329</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="C42" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="D42" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="E42" t="n">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="F42" t="n">
-        <v>2327.93139297</v>
+        <v>1195</v>
       </c>
       <c r="G42" t="n">
-        <v>59020.05297396999</v>
+        <v>49964.15146329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="C43" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="D43" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="E43" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="F43" t="n">
-        <v>1355.1831</v>
+        <v>961.26002714</v>
       </c>
       <c r="G43" t="n">
-        <v>59020.05297396999</v>
+        <v>50925.41149043</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="C44" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="D44" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="E44" t="n">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="F44" t="n">
-        <v>144.0769</v>
+        <v>539.7399</v>
       </c>
       <c r="G44" t="n">
-        <v>59020.05297396999</v>
+        <v>50385.67159043</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>994.1</v>
+        <v>1018</v>
       </c>
       <c r="C45" t="n">
-        <v>994.1</v>
+        <v>1018</v>
       </c>
       <c r="D45" t="n">
-        <v>994.1</v>
+        <v>1018</v>
       </c>
       <c r="E45" t="n">
-        <v>994.1</v>
+        <v>1018</v>
       </c>
       <c r="F45" t="n">
-        <v>441.4577</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>58578.59527396999</v>
+        <v>50386.67159043</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="C46" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="D46" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="E46" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0001</v>
+        <v>24.3672</v>
       </c>
       <c r="G46" t="n">
-        <v>58578.59537396998</v>
+        <v>50386.67159043</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="C47" t="n">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="D47" t="n">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="E47" t="n">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="F47" t="n">
-        <v>1200</v>
+        <v>3880.1393</v>
       </c>
       <c r="G47" t="n">
-        <v>59778.59537396998</v>
+        <v>54266.81089043</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>999.4</v>
+        <v>1021</v>
       </c>
       <c r="C48" t="n">
-        <v>999.3</v>
+        <v>1021</v>
       </c>
       <c r="D48" t="n">
-        <v>999.4</v>
+        <v>1021</v>
       </c>
       <c r="E48" t="n">
-        <v>999.3</v>
+        <v>1021</v>
       </c>
       <c r="F48" t="n">
-        <v>1655</v>
+        <v>2277.5652</v>
       </c>
       <c r="G48" t="n">
-        <v>58123.59537396998</v>
+        <v>56544.37609043</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="C49" t="n">
-        <v>998.1</v>
+        <v>1022</v>
       </c>
       <c r="D49" t="n">
-        <v>998.1</v>
+        <v>1022</v>
       </c>
       <c r="E49" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>1209.9612</v>
       </c>
       <c r="G49" t="n">
-        <v>55723.59537396998</v>
+        <v>57754.33729043</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C50" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="D50" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="E50" t="n">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="F50" t="n">
-        <v>2.20655412</v>
+        <v>3711.2893</v>
       </c>
       <c r="G50" t="n">
-        <v>55725.80192808998</v>
+        <v>54043.04799043</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="C51" t="n">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="D51" t="n">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="E51" t="n">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="F51" t="n">
-        <v>1074</v>
+        <v>2897.61350293</v>
       </c>
       <c r="G51" t="n">
-        <v>54651.80192808998</v>
+        <v>56940.66149336</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="C52" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="D52" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="E52" t="n">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="F52" t="n">
-        <v>36</v>
+        <v>74.55</v>
       </c>
       <c r="G52" t="n">
-        <v>54651.80192808998</v>
+        <v>56866.11149336</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="C53" t="n">
-        <v>998.1</v>
+        <v>1019</v>
       </c>
       <c r="D53" t="n">
-        <v>998.1</v>
+        <v>1021</v>
       </c>
       <c r="E53" t="n">
-        <v>998.1</v>
+        <v>1019</v>
       </c>
       <c r="F53" t="n">
-        <v>6480.3207</v>
+        <v>354.7363</v>
       </c>
       <c r="G53" t="n">
-        <v>48171.48122808998</v>
+        <v>56866.11149336</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>998.1</v>
+        <v>1019</v>
       </c>
       <c r="C54" t="n">
-        <v>998.1</v>
+        <v>1016</v>
       </c>
       <c r="D54" t="n">
-        <v>998.1</v>
+        <v>1019</v>
       </c>
       <c r="E54" t="n">
-        <v>998.1</v>
+        <v>1016</v>
       </c>
       <c r="F54" t="n">
-        <v>62.2891</v>
+        <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>48171.48122808998</v>
+        <v>56666.11149336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="C55" t="n">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="D55" t="n">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="E55" t="n">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="F55" t="n">
-        <v>199.8598</v>
+        <v>25</v>
       </c>
       <c r="G55" t="n">
-        <v>48371.34102808998</v>
+        <v>56641.11149336</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="C56" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="D56" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="E56" t="n">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="F56" t="n">
-        <v>100.0999</v>
+        <v>1147.2719</v>
       </c>
       <c r="G56" t="n">
-        <v>48371.34102808998</v>
+        <v>55493.83959336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C57" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D57" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="E57" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="F57" t="n">
-        <v>2886.8303</v>
+        <v>6.7222</v>
       </c>
       <c r="G57" t="n">
-        <v>48371.34102808998</v>
+        <v>55500.56179335999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="C58" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D58" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="E58" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="F58" t="n">
-        <v>165.2299</v>
+        <v>91.221</v>
       </c>
       <c r="G58" t="n">
-        <v>48371.34102808998</v>
+        <v>55500.56179335999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C59" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="D59" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="E59" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="F59" t="n">
-        <v>80.4264</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>48371.34102808998</v>
+        <v>55505.56179335999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C60" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="D60" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="E60" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="F60" t="n">
-        <v>1326.8</v>
+        <v>85.517</v>
       </c>
       <c r="G60" t="n">
-        <v>48371.34102808998</v>
+        <v>55505.56179335999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="C61" t="n">
-        <v>998.1</v>
+        <v>1014</v>
       </c>
       <c r="D61" t="n">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="E61" t="n">
-        <v>998.1</v>
+        <v>1012</v>
       </c>
       <c r="F61" t="n">
-        <v>557.2127</v>
+        <v>45</v>
       </c>
       <c r="G61" t="n">
-        <v>47814.12832808998</v>
+        <v>55550.56179335999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="C62" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="D62" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="E62" t="n">
-        <v>998.1</v>
+        <v>1009</v>
       </c>
       <c r="F62" t="n">
-        <v>852.4299999999999</v>
+        <v>85.2961</v>
       </c>
       <c r="G62" t="n">
-        <v>47814.12832808998</v>
+        <v>55465.26569335999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="C63" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D63" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="E63" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="F63" t="n">
-        <v>2212</v>
+        <v>887.2781</v>
       </c>
       <c r="G63" t="n">
-        <v>50026.12832808998</v>
+        <v>54577.98759335999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="C64" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="D64" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="E64" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="F64" t="n">
-        <v>773.2153</v>
+        <v>2225.124</v>
       </c>
       <c r="G64" t="n">
-        <v>49252.91302808998</v>
+        <v>52352.86359335999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="C65" t="n">
-        <v>990.1</v>
+        <v>1003</v>
       </c>
       <c r="D65" t="n">
-        <v>998.1</v>
+        <v>1003</v>
       </c>
       <c r="E65" t="n">
-        <v>990.1</v>
+        <v>1003</v>
       </c>
       <c r="F65" t="n">
-        <v>937.8357999999999</v>
+        <v>32.1363</v>
       </c>
       <c r="G65" t="n">
-        <v>48315.07722808998</v>
+        <v>52352.86359335999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>994.2</v>
+        <v>1002</v>
       </c>
       <c r="C66" t="n">
-        <v>993.1</v>
+        <v>1001</v>
       </c>
       <c r="D66" t="n">
-        <v>994.2</v>
+        <v>1002</v>
       </c>
       <c r="E66" t="n">
-        <v>993.1</v>
+        <v>1001</v>
       </c>
       <c r="F66" t="n">
-        <v>229.1408</v>
+        <v>346.4681</v>
       </c>
       <c r="G66" t="n">
-        <v>48544.21802808998</v>
+        <v>52006.39549335999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>992.2</v>
+        <v>1001</v>
       </c>
       <c r="C67" t="n">
-        <v>992.1</v>
+        <v>1001</v>
       </c>
       <c r="D67" t="n">
-        <v>992.2</v>
+        <v>1001</v>
       </c>
       <c r="E67" t="n">
-        <v>992.1</v>
+        <v>1001</v>
       </c>
       <c r="F67" t="n">
-        <v>100.7983</v>
+        <v>163.5319</v>
       </c>
       <c r="G67" t="n">
-        <v>48443.41972808998</v>
+        <v>52006.39549335999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>992.1</v>
+        <v>1004</v>
       </c>
       <c r="C68" t="n">
-        <v>992.1</v>
+        <v>1004</v>
       </c>
       <c r="D68" t="n">
-        <v>992.1</v>
+        <v>1004</v>
       </c>
       <c r="E68" t="n">
-        <v>992.1</v>
+        <v>1004</v>
       </c>
       <c r="F68" t="n">
-        <v>2338.4094</v>
+        <v>92</v>
       </c>
       <c r="G68" t="n">
-        <v>48443.41972808998</v>
+        <v>52098.39549335999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C69" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D69" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E69" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F69" t="n">
-        <v>279.7812</v>
+        <v>145.3808</v>
       </c>
       <c r="G69" t="n">
-        <v>48723.20092808997</v>
+        <v>51953.01469335999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C70" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D70" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E70" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F70" t="n">
-        <v>495</v>
+        <v>332.3318</v>
       </c>
       <c r="G70" t="n">
-        <v>49218.20092808997</v>
+        <v>51953.01469335999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C71" t="n">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="D71" t="n">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="E71" t="n">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F71" t="n">
-        <v>941.8437</v>
+        <v>1144.9231</v>
       </c>
       <c r="G71" t="n">
-        <v>50160.04462808997</v>
+        <v>53097.93779335999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="C72" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="D72" t="n">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="E72" t="n">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="F72" t="n">
-        <v>4523.7353</v>
+        <v>876.6061</v>
       </c>
       <c r="G72" t="n">
-        <v>54683.77992808997</v>
+        <v>52221.33169335999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="C73" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="D73" t="n">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="E73" t="n">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="F73" t="n">
-        <v>345.8788</v>
+        <v>495</v>
       </c>
       <c r="G73" t="n">
-        <v>55029.65872808997</v>
+        <v>51726.33169335999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="C74" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="D74" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="E74" t="n">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="F74" t="n">
-        <v>3467.951</v>
+        <v>1677.9427</v>
       </c>
       <c r="G74" t="n">
-        <v>55029.65872808997</v>
+        <v>51726.33169335999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C75" t="n">
-        <v>1016</v>
+        <v>995.8</v>
       </c>
       <c r="D75" t="n">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="E75" t="n">
-        <v>1016</v>
+        <v>995.8</v>
       </c>
       <c r="F75" t="n">
-        <v>623.4948000000001</v>
+        <v>2897.6135</v>
       </c>
       <c r="G75" t="n">
-        <v>55029.65872808997</v>
+        <v>48828.71819335999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C76" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="D76" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="E76" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F76" t="n">
-        <v>1667.5756</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>55029.65872808997</v>
+        <v>48829.71819335999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="C77" t="n">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="D77" t="n">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="E77" t="n">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="F77" t="n">
-        <v>860.2051</v>
+        <v>2511.9172</v>
       </c>
       <c r="G77" t="n">
-        <v>54169.45362808997</v>
+        <v>48829.71819335999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C78" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D78" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E78" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>54167.45362808997</v>
+        <v>48830.71819335999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C79" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D79" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E79" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>54168.05362808997</v>
+        <v>48831.71819335999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C80" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D80" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E80" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F80" t="n">
-        <v>7036.4716</v>
+        <v>987.63069306</v>
       </c>
       <c r="G80" t="n">
-        <v>54168.05362808997</v>
+        <v>49819.34888641999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="C81" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="D81" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="E81" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="F81" t="n">
-        <v>7036.4716</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>47131.58202808997</v>
+        <v>49820.34888641999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="C82" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="D82" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="E82" t="n">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="F82" t="n">
-        <v>1866.0681</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>47131.58202808997</v>
+        <v>49821.34888641999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="C83" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D83" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="E83" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="F83" t="n">
-        <v>5.3122</v>
+        <v>2700.91369458</v>
       </c>
       <c r="G83" t="n">
-        <v>47136.89422808997</v>
+        <v>52522.26258099999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="C84" t="n">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="D84" t="n">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="E84" t="n">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="F84" t="n">
-        <v>913.9458</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>46222.94842808997</v>
+        <v>52523.26258099999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="C85" t="n">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="D85" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="E85" t="n">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="F85" t="n">
-        <v>181.0127</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>46222.94842808997</v>
+        <v>52523.26258099999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="C86" t="n">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="D86" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="E86" t="n">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="F86" t="n">
-        <v>2879.8346</v>
+        <v>3707.1818</v>
       </c>
       <c r="G86" t="n">
-        <v>43343.11382808997</v>
+        <v>56230.44438099999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="C87" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="D87" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="E87" t="n">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="F87" t="n">
-        <v>50.015</v>
+        <v>2774.139</v>
       </c>
       <c r="G87" t="n">
-        <v>43393.12882808997</v>
+        <v>59004.58338099999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="C88" t="n">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="D88" t="n">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="E88" t="n">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="F88" t="n">
-        <v>64</v>
+        <v>568.3913</v>
       </c>
       <c r="G88" t="n">
-        <v>43393.12882808997</v>
+        <v>58436.19208099999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="C89" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="D89" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="E89" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="F89" t="n">
-        <v>2233.2014</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>41159.92742808997</v>
+        <v>58440.19208099999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="C90" t="n">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="D90" t="n">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="E90" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="F90" t="n">
-        <v>2073.7299</v>
+        <v>442.4577</v>
       </c>
       <c r="G90" t="n">
-        <v>39086.19752808997</v>
+        <v>58882.64978099999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="C91" t="n">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="D91" t="n">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="E91" t="n">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="F91" t="n">
-        <v>1158</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>39086.19752808997</v>
+        <v>58882.64978099999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="C92" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D92" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="E92" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="F92" t="n">
-        <v>100.1581</v>
+        <v>3771.009</v>
       </c>
       <c r="G92" t="n">
-        <v>39086.19752808997</v>
+        <v>55111.64078099999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="C93" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="D93" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="E93" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="F93" t="n">
-        <v>6076.5849</v>
+        <v>300.1644</v>
       </c>
       <c r="G93" t="n">
-        <v>39086.19752808997</v>
+        <v>55411.80518099999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C94" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="D94" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E94" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="F94" t="n">
-        <v>675.4618</v>
+        <v>30.119</v>
       </c>
       <c r="G94" t="n">
-        <v>39086.19752808997</v>
+        <v>55381.68618099999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C95" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D95" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E95" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F95" t="n">
-        <v>596.8201</v>
+        <v>19.881</v>
       </c>
       <c r="G95" t="n">
-        <v>39086.19752808997</v>
+        <v>55361.80518099999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C96" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="D96" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E96" t="n">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="F96" t="n">
-        <v>20.2348</v>
+        <v>529.9571</v>
       </c>
       <c r="G96" t="n">
-        <v>39086.19752808997</v>
+        <v>55891.76228099999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C97" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D97" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E97" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F97" t="n">
-        <v>113.5594</v>
+        <v>4.6492</v>
       </c>
       <c r="G97" t="n">
-        <v>39086.19752808997</v>
+        <v>55887.11308099999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C98" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="D98" t="n">
         <v>1001</v>
       </c>
-      <c r="D98" t="n">
-        <v>1002</v>
-      </c>
       <c r="E98" t="n">
-        <v>1001</v>
+        <v>997.6</v>
       </c>
       <c r="F98" t="n">
-        <v>390.8217</v>
+        <v>3687.5444</v>
       </c>
       <c r="G98" t="n">
-        <v>38695.37582808997</v>
+        <v>52199.56868099999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1001</v>
+        <v>997.6</v>
       </c>
       <c r="C99" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="D99" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E99" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F99" t="n">
-        <v>99.5</v>
+        <v>7907.0125</v>
       </c>
       <c r="G99" t="n">
-        <v>38695.37582808997</v>
+        <v>60106.58118099999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C100" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D100" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E100" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F100" t="n">
-        <v>107.2391</v>
+        <v>642.1661</v>
       </c>
       <c r="G100" t="n">
-        <v>38695.37582808997</v>
+        <v>59464.41508099998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C101" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D101" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E101" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F101" t="n">
-        <v>254.4469</v>
+        <v>1946.1162</v>
       </c>
       <c r="G101" t="n">
-        <v>38695.37582808997</v>
+        <v>57518.29888099999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,35 +4038,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="C102" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="D102" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="E102" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="F102" t="n">
-        <v>595</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>38695.37582808997</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1001</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4078,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="C103" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="D103" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="E103" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="F103" t="n">
-        <v>429</v>
+        <v>0.6838</v>
       </c>
       <c r="G103" t="n">
-        <v>38695.37582808997</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4102,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="C104" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="D104" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="E104" t="n">
-        <v>1001</v>
+        <v>994.7</v>
       </c>
       <c r="F104" t="n">
-        <v>339</v>
+        <v>80.8704</v>
       </c>
       <c r="G104" t="n">
-        <v>38695.37582808997</v>
+        <v>57498.29888099999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4144,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C105" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D105" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E105" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F105" t="n">
-        <v>25</v>
+        <v>2.3977</v>
       </c>
       <c r="G105" t="n">
-        <v>38695.37582808997</v>
+        <v>57500.69658099999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4198,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1001</v>
+        <v>991.9</v>
       </c>
       <c r="C106" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="D106" t="n">
-        <v>1001</v>
+        <v>991.9</v>
       </c>
       <c r="E106" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F106" t="n">
-        <v>9583.8338</v>
+        <v>43.0373</v>
       </c>
       <c r="G106" t="n">
-        <v>38695.37582808997</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4234,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C107" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D107" t="n">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="E107" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F107" t="n">
-        <v>5923.5537</v>
+        <v>69.6647</v>
       </c>
       <c r="G107" t="n">
-        <v>32771.82212808997</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4270,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="C108" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D108" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="E108" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F108" t="n">
-        <v>191</v>
+        <v>61.2739</v>
       </c>
       <c r="G108" t="n">
-        <v>32771.82212808997</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4306,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="C109" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D109" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="E109" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F109" t="n">
-        <v>382.8377</v>
+        <v>46.9636</v>
       </c>
       <c r="G109" t="n">
-        <v>32771.82212808997</v>
+        <v>57457.65928099999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4342,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1000</v>
+        <v>987.4</v>
       </c>
       <c r="C110" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="D110" t="n">
-        <v>1000</v>
+        <v>987.4</v>
       </c>
       <c r="E110" t="n">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="F110" t="n">
-        <v>103</v>
+        <v>1017.5401</v>
       </c>
       <c r="G110" t="n">
-        <v>32771.82212808997</v>
+        <v>56440.11918099999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4378,31 +4362,35 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="C111" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="D111" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="E111" t="n">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="F111" t="n">
-        <v>370</v>
+        <v>62.1922</v>
       </c>
       <c r="G111" t="n">
-        <v>32771.82212808997</v>
+        <v>56502.31138099998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>985</v>
+      </c>
+      <c r="K111" t="n">
+        <v>985</v>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
@@ -4414,32 +4402,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C112" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D112" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E112" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F112" t="n">
-        <v>278.705</v>
+        <v>189.8102</v>
       </c>
       <c r="G112" t="n">
-        <v>32771.82212808997</v>
+        <v>56692.12158099998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>986</v>
+      </c>
+      <c r="K112" t="n">
+        <v>985</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4450,32 +4446,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C113" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D113" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E113" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F113" t="n">
-        <v>35.8227</v>
+        <v>2327.93139297</v>
       </c>
       <c r="G113" t="n">
-        <v>32771.82212808997</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>994</v>
+      </c>
+      <c r="K113" t="n">
+        <v>985</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4486,22 +4490,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C114" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D114" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E114" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F114" t="n">
-        <v>43.3771</v>
+        <v>1355.1831</v>
       </c>
       <c r="G114" t="n">
-        <v>32771.82212808997</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4522,31 +4526,35 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C115" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D115" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E115" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F115" t="n">
-        <v>411.4053</v>
+        <v>144.0769</v>
       </c>
       <c r="G115" t="n">
-        <v>32771.82212808997</v>
+        <v>59020.05297396999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>997</v>
+      </c>
+      <c r="K115" t="n">
+        <v>997</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4558,32 +4566,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="C116" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="D116" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="E116" t="n">
-        <v>1000</v>
+        <v>994.1</v>
       </c>
       <c r="F116" t="n">
-        <v>144.4053</v>
+        <v>441.4577</v>
       </c>
       <c r="G116" t="n">
-        <v>32771.82212808997</v>
+        <v>58578.59527396999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>997</v>
+      </c>
+      <c r="K116" t="n">
+        <v>997</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4594,32 +4610,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C117" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D117" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E117" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F117" t="n">
-        <v>191.8461</v>
+        <v>0.0001</v>
       </c>
       <c r="G117" t="n">
-        <v>32771.82212808997</v>
+        <v>58578.59537396998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>994.1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>997</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4630,31 +4654,35 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C118" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D118" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E118" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="F118" t="n">
-        <v>510.8795</v>
+        <v>1200</v>
       </c>
       <c r="G118" t="n">
-        <v>32771.82212808997</v>
+        <v>59778.59537396998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>997</v>
+      </c>
+      <c r="K118" t="n">
+        <v>997</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4666,22 +4694,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1000</v>
+        <v>999.4</v>
       </c>
       <c r="C119" t="n">
-        <v>1000</v>
+        <v>999.3</v>
       </c>
       <c r="D119" t="n">
-        <v>1000</v>
+        <v>999.4</v>
       </c>
       <c r="E119" t="n">
-        <v>1000</v>
+        <v>999.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1287.7059</v>
+        <v>1655</v>
       </c>
       <c r="G119" t="n">
-        <v>32771.82212808997</v>
+        <v>58123.59537396998</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4690,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>997</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4702,22 +4736,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="C120" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="D120" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="E120" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="F120" t="n">
-        <v>12995.1543</v>
+        <v>2400</v>
       </c>
       <c r="G120" t="n">
-        <v>32771.82212808997</v>
+        <v>55723.59537396998</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4726,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>997</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4778,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="C121" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="D121" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="E121" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="F121" t="n">
-        <v>2677.6453</v>
+        <v>2.20655412</v>
       </c>
       <c r="G121" t="n">
-        <v>32771.82212808997</v>
+        <v>55725.80192808998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4774,22 +4814,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C122" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D122" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E122" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F122" t="n">
-        <v>41.2473</v>
+        <v>1074</v>
       </c>
       <c r="G122" t="n">
-        <v>32771.82212808997</v>
+        <v>54651.80192808998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4810,22 +4850,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C123" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D123" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E123" t="n">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F123" t="n">
-        <v>45.0659</v>
+        <v>36</v>
       </c>
       <c r="G123" t="n">
-        <v>32771.82212808997</v>
+        <v>54651.80192808998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4846,22 +4886,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="C124" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="D124" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="E124" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="F124" t="n">
-        <v>76.43170000000001</v>
+        <v>6480.3207</v>
       </c>
       <c r="G124" t="n">
-        <v>32771.82212808997</v>
+        <v>48171.48122808998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4882,22 +4922,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="C125" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="D125" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="E125" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="F125" t="n">
-        <v>40.0689</v>
+        <v>62.2891</v>
       </c>
       <c r="G125" t="n">
-        <v>32771.82212808997</v>
+        <v>48171.48122808998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4918,22 +4958,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C126" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D126" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E126" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F126" t="n">
-        <v>768.5700000000001</v>
+        <v>199.8598</v>
       </c>
       <c r="G126" t="n">
-        <v>32771.82212808997</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4954,22 +4994,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C127" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D127" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E127" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F127" t="n">
-        <v>217</v>
+        <v>100.0999</v>
       </c>
       <c r="G127" t="n">
-        <v>32771.82212808997</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4990,35 +5030,31 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C128" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D128" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E128" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F128" t="n">
-        <v>25</v>
+        <v>2886.8303</v>
       </c>
       <c r="G128" t="n">
-        <v>32771.82212808997</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1000</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
@@ -5030,22 +5066,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C129" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D129" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E129" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F129" t="n">
-        <v>4919.948</v>
+        <v>165.2299</v>
       </c>
       <c r="G129" t="n">
-        <v>32771.82212808997</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5054,14 +5090,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5072,40 +5102,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C130" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D130" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E130" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F130" t="n">
-        <v>230.9871</v>
+        <v>80.4264</v>
       </c>
       <c r="G130" t="n">
-        <v>32771.82212808997</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5116,35 +5138,31 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C131" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D131" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E131" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F131" t="n">
-        <v>2198.4819</v>
+        <v>1326.8</v>
       </c>
       <c r="G131" t="n">
-        <v>32771.82212808997</v>
+        <v>48371.34102808998</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1000</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
@@ -5156,40 +5174,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C132" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="D132" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E132" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="F132" t="n">
-        <v>1300.7261</v>
+        <v>557.2127</v>
       </c>
       <c r="G132" t="n">
-        <v>32771.82212808997</v>
+        <v>47814.12832808998</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5200,40 +5210,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="C133" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="D133" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="E133" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="F133" t="n">
-        <v>1224.4026</v>
+        <v>852.4299999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>32771.82212808997</v>
+        <v>47814.12832808998</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5244,35 +5246,31 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C134" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D134" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E134" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F134" t="n">
-        <v>44.9925</v>
+        <v>2212</v>
       </c>
       <c r="G134" t="n">
-        <v>32771.82212808997</v>
+        <v>50026.12832808998</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1000</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
@@ -5284,40 +5282,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C135" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="D135" t="n">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E135" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="F135" t="n">
-        <v>972.0734</v>
+        <v>773.2153</v>
       </c>
       <c r="G135" t="n">
-        <v>32771.82212808997</v>
+        <v>49252.91302808998</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5328,40 +5318,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="C136" t="n">
-        <v>1000</v>
+        <v>990.1</v>
       </c>
       <c r="D136" t="n">
-        <v>1000</v>
+        <v>998.1</v>
       </c>
       <c r="E136" t="n">
-        <v>1000</v>
+        <v>990.1</v>
       </c>
       <c r="F136" t="n">
-        <v>169.5863</v>
+        <v>937.8357999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>32771.82212808997</v>
+        <v>48315.07722808998</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5372,35 +5354,31 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1000</v>
+        <v>994.2</v>
       </c>
       <c r="C137" t="n">
-        <v>1000</v>
+        <v>993.1</v>
       </c>
       <c r="D137" t="n">
-        <v>1000</v>
+        <v>994.2</v>
       </c>
       <c r="E137" t="n">
-        <v>1000</v>
+        <v>993.1</v>
       </c>
       <c r="F137" t="n">
-        <v>7843.155</v>
+        <v>229.1408</v>
       </c>
       <c r="G137" t="n">
-        <v>32771.82212808997</v>
+        <v>48544.21802808998</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1000</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5412,40 +5390,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1000</v>
+        <v>992.2</v>
       </c>
       <c r="C138" t="n">
-        <v>1000</v>
+        <v>992.1</v>
       </c>
       <c r="D138" t="n">
-        <v>1000</v>
+        <v>992.2</v>
       </c>
       <c r="E138" t="n">
-        <v>1000</v>
+        <v>992.1</v>
       </c>
       <c r="F138" t="n">
-        <v>753.3468</v>
+        <v>100.7983</v>
       </c>
       <c r="G138" t="n">
-        <v>32771.82212808997</v>
+        <v>48443.41972808998</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K138" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5456,40 +5426,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1000</v>
+        <v>992.1</v>
       </c>
       <c r="C139" t="n">
-        <v>1000</v>
+        <v>992.1</v>
       </c>
       <c r="D139" t="n">
-        <v>1000</v>
+        <v>992.1</v>
       </c>
       <c r="E139" t="n">
-        <v>1000</v>
+        <v>992.1</v>
       </c>
       <c r="F139" t="n">
-        <v>56.1976</v>
+        <v>2338.4094</v>
       </c>
       <c r="G139" t="n">
-        <v>32771.82212808997</v>
+        <v>48443.41972808998</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5500,35 +5462,31 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>997.7</v>
+        <v>1001</v>
       </c>
       <c r="C140" t="n">
-        <v>997.7</v>
+        <v>1001</v>
       </c>
       <c r="D140" t="n">
-        <v>997.7</v>
+        <v>1001</v>
       </c>
       <c r="E140" t="n">
-        <v>997.7</v>
+        <v>1001</v>
       </c>
       <c r="F140" t="n">
-        <v>1196.5955</v>
+        <v>279.7812</v>
       </c>
       <c r="G140" t="n">
-        <v>31575.22662808997</v>
+        <v>48723.20092808997</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1000</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
@@ -5540,40 +5498,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C141" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="D141" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E141" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F141" t="n">
-        <v>225.27</v>
+        <v>495</v>
       </c>
       <c r="G141" t="n">
-        <v>31800.49662808998</v>
+        <v>49218.20092808997</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>997.7</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5584,40 +5534,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="C142" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="D142" t="n">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="E142" t="n">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="F142" t="n">
-        <v>11436.652</v>
+        <v>941.8437</v>
       </c>
       <c r="G142" t="n">
-        <v>31800.49662808998</v>
+        <v>50160.04462808997</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K142" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5628,22 +5570,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="C143" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="D143" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="E143" t="n">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="F143" t="n">
-        <v>213.1157</v>
+        <v>4523.7353</v>
       </c>
       <c r="G143" t="n">
-        <v>32013.61232808997</v>
+        <v>54683.77992808997</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5664,22 +5606,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="C144" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D144" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="E144" t="n">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="F144" t="n">
-        <v>84.61109999999999</v>
+        <v>345.8788</v>
       </c>
       <c r="G144" t="n">
-        <v>32013.61232808997</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5700,22 +5642,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="C145" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D145" t="n">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="E145" t="n">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="F145" t="n">
-        <v>345</v>
+        <v>3467.951</v>
       </c>
       <c r="G145" t="n">
-        <v>32013.61232808997</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5736,22 +5678,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="C146" t="n">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="D146" t="n">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="E146" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="F146" t="n">
-        <v>285.8907</v>
+        <v>623.4948000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>32299.50302808997</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5772,22 +5714,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C147" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="D147" t="n">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="E147" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="F147" t="n">
-        <v>290</v>
+        <v>1667.5756</v>
       </c>
       <c r="G147" t="n">
-        <v>32589.50302808997</v>
+        <v>55029.65872808997</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5808,22 +5750,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="C148" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="D148" t="n">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="E148" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="F148" t="n">
-        <v>2276.6843</v>
+        <v>860.2051</v>
       </c>
       <c r="G148" t="n">
-        <v>30312.81872808997</v>
+        <v>54169.45362808997</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5844,22 +5786,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="C149" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D149" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="E149" t="n">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F149" t="n">
-        <v>109.7029</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>30312.81872808997</v>
+        <v>54167.45362808997</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5875,6 +5817,2750 @@
       </c>
       <c r="N149" t="inlineStr"/>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G150" t="n">
+        <v>54168.05362808997</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7036.4716</v>
+      </c>
+      <c r="G151" t="n">
+        <v>54168.05362808997</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7036.4716</v>
+      </c>
+      <c r="G152" t="n">
+        <v>47131.58202808997</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1866.0681</v>
+      </c>
+      <c r="G153" t="n">
+        <v>47131.58202808997</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5.3122</v>
+      </c>
+      <c r="G154" t="n">
+        <v>47136.89422808997</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F155" t="n">
+        <v>913.9458</v>
+      </c>
+      <c r="G155" t="n">
+        <v>46222.94842808997</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1004</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F156" t="n">
+        <v>181.0127</v>
+      </c>
+      <c r="G156" t="n">
+        <v>46222.94842808997</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2879.8346</v>
+      </c>
+      <c r="G157" t="n">
+        <v>43343.11382808997</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F158" t="n">
+        <v>50.015</v>
+      </c>
+      <c r="G158" t="n">
+        <v>43393.12882808997</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F159" t="n">
+        <v>64</v>
+      </c>
+      <c r="G159" t="n">
+        <v>43393.12882808997</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2233.2014</v>
+      </c>
+      <c r="G160" t="n">
+        <v>41159.92742808997</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2073.7299</v>
+      </c>
+      <c r="G161" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G162" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100.1581</v>
+      </c>
+      <c r="G163" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6076.5849</v>
+      </c>
+      <c r="G164" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F165" t="n">
+        <v>675.4618</v>
+      </c>
+      <c r="G165" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F166" t="n">
+        <v>596.8201</v>
+      </c>
+      <c r="G166" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F167" t="n">
+        <v>20.2348</v>
+      </c>
+      <c r="G167" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F168" t="n">
+        <v>113.5594</v>
+      </c>
+      <c r="G168" t="n">
+        <v>39086.19752808997</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>390.8217</v>
+      </c>
+      <c r="G169" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G170" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>107.2391</v>
+      </c>
+      <c r="G171" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>254.4469</v>
+      </c>
+      <c r="G172" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>595</v>
+      </c>
+      <c r="G173" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>429</v>
+      </c>
+      <c r="G174" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>339</v>
+      </c>
+      <c r="G175" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>25</v>
+      </c>
+      <c r="G176" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F177" t="n">
+        <v>9583.8338</v>
+      </c>
+      <c r="G177" t="n">
+        <v>38695.37582808997</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5923.5537</v>
+      </c>
+      <c r="G178" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>191</v>
+      </c>
+      <c r="G179" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>382.8377</v>
+      </c>
+      <c r="G180" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>103</v>
+      </c>
+      <c r="G181" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>370</v>
+      </c>
+      <c r="G182" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>278.705</v>
+      </c>
+      <c r="G183" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>35.8227</v>
+      </c>
+      <c r="G184" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F185" t="n">
+        <v>43.3771</v>
+      </c>
+      <c r="G185" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>411.4053</v>
+      </c>
+      <c r="G186" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F187" t="n">
+        <v>144.4053</v>
+      </c>
+      <c r="G187" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F188" t="n">
+        <v>191.8461</v>
+      </c>
+      <c r="G188" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F189" t="n">
+        <v>510.8795</v>
+      </c>
+      <c r="G189" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1287.7059</v>
+      </c>
+      <c r="G190" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F191" t="n">
+        <v>12995.1543</v>
+      </c>
+      <c r="G191" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2677.6453</v>
+      </c>
+      <c r="G192" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F193" t="n">
+        <v>41.2473</v>
+      </c>
+      <c r="G193" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F194" t="n">
+        <v>45.0659</v>
+      </c>
+      <c r="G194" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F195" t="n">
+        <v>76.43170000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F196" t="n">
+        <v>40.0689</v>
+      </c>
+      <c r="G196" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>768.5700000000001</v>
+      </c>
+      <c r="G197" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>217</v>
+      </c>
+      <c r="G198" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4919.948</v>
+      </c>
+      <c r="G200" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>230.9871</v>
+      </c>
+      <c r="G201" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2198.4819</v>
+      </c>
+      <c r="G202" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1300.7261</v>
+      </c>
+      <c r="G203" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1224.4026</v>
+      </c>
+      <c r="G204" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F205" t="n">
+        <v>44.9925</v>
+      </c>
+      <c r="G205" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F206" t="n">
+        <v>972.0734</v>
+      </c>
+      <c r="G206" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F207" t="n">
+        <v>169.5863</v>
+      </c>
+      <c r="G207" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7843.155</v>
+      </c>
+      <c r="G208" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>753.3468</v>
+      </c>
+      <c r="G209" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>56.1976</v>
+      </c>
+      <c r="G210" t="n">
+        <v>32771.82212808997</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="C211" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="D211" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="E211" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1196.5955</v>
+      </c>
+      <c r="G211" t="n">
+        <v>31575.22662808997</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>225.27</v>
+      </c>
+      <c r="G212" t="n">
+        <v>31800.49662808998</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>11436.652</v>
+      </c>
+      <c r="G213" t="n">
+        <v>31800.49662808998</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F214" t="n">
+        <v>213.1157</v>
+      </c>
+      <c r="G214" t="n">
+        <v>32013.61232808997</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F215" t="n">
+        <v>84.61109999999999</v>
+      </c>
+      <c r="G215" t="n">
+        <v>32013.61232808997</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>345</v>
+      </c>
+      <c r="G216" t="n">
+        <v>32013.61232808997</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1002</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F217" t="n">
+        <v>285.8907</v>
+      </c>
+      <c r="G217" t="n">
+        <v>32299.50302808997</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F218" t="n">
+        <v>290</v>
+      </c>
+      <c r="G218" t="n">
+        <v>32589.50302808997</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2276.6843</v>
+      </c>
+      <c r="G219" t="n">
+        <v>30312.81872808997</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F220" t="n">
+        <v>109.7029</v>
+      </c>
+      <c r="G220" t="n">
+        <v>30312.81872808997</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>24302.0398</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>22379.4198</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1012</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1012</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>22379.4198</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>27677.7206</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>27677.7206</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1012</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +686,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +761,19 @@
         <v>27619.6206</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1009</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +802,19 @@
         <v>27497.7106</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1009</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +843,19 @@
         <v>27497.7106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +884,19 @@
         <v>27497.7106</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +925,19 @@
         <v>27543.2752</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +969,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1005,17 @@
         <v>27605.5642</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1047,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1086,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1125,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1164,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1203,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1242,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1281,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1320,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1359,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1398,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1437,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1476,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1515,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1554,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1590,17 @@
         <v>31990.33219043</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1632,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1671,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1710,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1749,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1827,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1866,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1905,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1944,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1983,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,13 +2019,19 @@
         <v>49964.15146329</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1012</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0.9999407114624507</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -1804,7 +2058,7 @@
         <v>50925.41149043</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2091,7 @@
         <v>50385.67159043</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2124,7 @@
         <v>50386.67159043</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2157,7 @@
         <v>50386.67159043</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2190,7 @@
         <v>54266.81089043</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2223,7 @@
         <v>56544.37609043</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2289,7 @@
         <v>54043.04799043</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2322,7 @@
         <v>56940.66149336</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2355,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2388,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2421,7 @@
         <v>56666.11149336</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2454,7 @@
         <v>56641.11149336</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2487,7 @@
         <v>55493.83959336</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2520,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2553,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2586,7 @@
         <v>55505.56179335999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2619,7 @@
         <v>55505.56179335999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2652,7 @@
         <v>55550.56179335999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2685,7 @@
         <v>55465.26569335999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2718,7 @@
         <v>54577.98759335999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2784,7 @@
         <v>52352.86359335999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2817,7 @@
         <v>52006.39549335999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2850,7 @@
         <v>52006.39549335999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2883,7 @@
         <v>52098.39549335999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2916,7 @@
         <v>51953.01469335999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2949,7 @@
         <v>51953.01469335999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2982,7 @@
         <v>53097.93779335999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3015,7 @@
         <v>52221.33169335999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3048,7 @@
         <v>51726.33169335999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3081,7 @@
         <v>51726.33169335999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +3147,7 @@
         <v>48829.71819335999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3180,7 @@
         <v>48829.71819335999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3213,7 @@
         <v>48830.71819335999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3246,7 @@
         <v>48831.71819335999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3157,7 +3411,7 @@
         <v>52523.26258099999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3444,7 @@
         <v>52523.26258099999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3322,7 +3576,7 @@
         <v>58440.19208099999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3487,7 +3741,7 @@
         <v>55381.68618099999</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3774,7 @@
         <v>55361.80518099999</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3840,7 @@
         <v>55887.11308099999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3873,7 @@
         <v>52199.56868099999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3906,7 @@
         <v>60106.58118099999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3939,7 @@
         <v>59464.41508099998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3972,7 @@
         <v>57518.29888099999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +4005,7 @@
         <v>57498.29888099999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4038,7 @@
         <v>57498.29888099999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4071,7 @@
         <v>57498.29888099999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4104,7 @@
         <v>57500.69658099999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4015,7 +4269,7 @@
         <v>56440.11918099999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4302,7 @@
         <v>56502.31138099998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4335,7 @@
         <v>56692.12158099998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5896,7 +6150,7 @@
         <v>39086.19752808997</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6028,7 +6282,7 @@
         <v>38695.37582808997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7183,14 +7437,10 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J206" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7220,19 +7470,11 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J207" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7261,19 +7503,11 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7302,14 +7536,10 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J209" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7339,19 +7569,11 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J210" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7383,14 +7605,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7518,14 +7734,10 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1001</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
@@ -7555,19 +7767,11 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1001</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7596,19 +7800,11 @@
         <v>32299.50302808997</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1001</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7637,19 +7833,11 @@
         <v>32589.50302808997</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1002</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7678,19 +7866,11 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7719,25 +7899,17 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>24302.0398</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>22379.4198</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1012</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>22379.4198</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>27677.7206</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>27677.7206</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1012</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,17 +616,11 @@
         <v>27677.7206</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,17 +649,11 @@
         <v>27677.7206</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,17 +682,11 @@
         <v>27619.6206</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -761,19 +715,11 @@
         <v>27619.6206</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -802,19 +748,11 @@
         <v>27497.7106</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,19 +781,11 @@
         <v>27497.7106</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -884,19 +814,11 @@
         <v>27497.7106</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -925,19 +847,11 @@
         <v>27543.2752</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -966,17 +880,11 @@
         <v>27543.2752</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1008,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1086,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1125,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1203,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1242,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1281,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1359,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1398,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1434,17 +1276,11 @@
         <v>31768.64660000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1473,17 +1309,11 @@
         <v>32016.45340000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1515,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1554,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1593,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1632,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1671,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1710,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1749,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1788,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1827,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1866,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1905,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1983,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2019,19 +1771,13 @@
         <v>49964.15146329</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1012</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.9999407114624507</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -2058,7 +1804,7 @@
         <v>50925.41149043</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2091,7 +1837,7 @@
         <v>50385.67159043</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2124,7 +1870,7 @@
         <v>50386.67159043</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2157,7 +1903,7 @@
         <v>50386.67159043</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2190,7 +1936,7 @@
         <v>54266.81089043</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2223,7 +1969,7 @@
         <v>56544.37609043</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2289,7 +2035,7 @@
         <v>54043.04799043</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2322,7 +2068,7 @@
         <v>56940.66149336</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2355,7 +2101,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2388,7 +2134,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2421,7 +2167,7 @@
         <v>56666.11149336</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2454,7 +2200,7 @@
         <v>56641.11149336</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2487,7 +2233,7 @@
         <v>55493.83959336</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2520,7 +2266,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2553,7 +2299,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2586,7 +2332,7 @@
         <v>55505.56179335999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2619,7 +2365,7 @@
         <v>55505.56179335999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2652,7 +2398,7 @@
         <v>55550.56179335999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2685,7 +2431,7 @@
         <v>55465.26569335999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2718,7 +2464,7 @@
         <v>54577.98759335999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2784,7 +2530,7 @@
         <v>52352.86359335999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2817,7 +2563,7 @@
         <v>52006.39549335999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2850,7 +2596,7 @@
         <v>52006.39549335999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2883,7 +2629,7 @@
         <v>52098.39549335999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2916,7 +2662,7 @@
         <v>51953.01469335999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2949,7 +2695,7 @@
         <v>51953.01469335999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2982,7 +2728,7 @@
         <v>53097.93779335999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3015,7 +2761,7 @@
         <v>52221.33169335999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3048,7 +2794,7 @@
         <v>51726.33169335999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3081,7 +2827,7 @@
         <v>51726.33169335999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3147,7 +2893,7 @@
         <v>48829.71819335999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3180,7 +2926,7 @@
         <v>48829.71819335999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3213,7 +2959,7 @@
         <v>48830.71819335999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3246,7 +2992,7 @@
         <v>48831.71819335999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3840,7 +3586,7 @@
         <v>55887.11308099999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3873,7 +3619,7 @@
         <v>52199.56868099999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3906,7 +3652,7 @@
         <v>60106.58118099999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3939,7 +3685,7 @@
         <v>59464.41508099998</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3972,7 +3718,7 @@
         <v>57518.29888099999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4005,7 +3751,7 @@
         <v>57498.29888099999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4038,7 +3784,7 @@
         <v>57498.29888099999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4071,7 +3817,7 @@
         <v>57498.29888099999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4104,7 +3850,7 @@
         <v>57500.69658099999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4269,7 +4015,7 @@
         <v>56440.11918099999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4302,10 +4048,14 @@
         <v>56502.31138099998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>985</v>
+      </c>
+      <c r="J111" t="n">
+        <v>985</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4335,11 +4085,19 @@
         <v>56692.12158099998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>986</v>
+      </c>
+      <c r="J112" t="n">
+        <v>985</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4371,8 +4129,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>985</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -5754,7 +5518,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5787,7 +5551,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5853,7 +5617,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5886,7 +5650,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6018,7 +5782,7 @@
         <v>39086.19752808997</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6150,7 +5914,7 @@
         <v>39086.19752808997</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6282,7 +6046,7 @@
         <v>38695.37582808997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6513,7 +6277,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7569,10 +7333,14 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1000</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7602,11 +7370,19 @@
         <v>31575.22662808997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7635,11 +7411,19 @@
         <v>31800.49662808998</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>997.7</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7910,6 +7694,6 @@
       <c r="M220" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-19 BackTest WAVES.xlsx
@@ -616,7 +616,7 @@
         <v>27677.7206</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27677.7206</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>27619.6206</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>27619.6206</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27497.7106</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,10 +847,14 @@
         <v>27543.2752</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1006</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,11 +884,17 @@
         <v>27543.2752</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -979,10 +995,14 @@
         <v>27813.81660000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1005</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1015,8 +1035,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1074,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1276,7 +1308,7 @@
         <v>31768.64660000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1341,7 @@
         <v>32016.45340000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1771,7 +1803,7 @@
         <v>49964.15146329</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1969,7 +2001,7 @@
         <v>56544.37609043</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2034,7 @@
         <v>57754.33729043</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2067,7 @@
         <v>54043.04799043</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2100,7 @@
         <v>56940.66149336</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2133,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2166,7 @@
         <v>56866.11149336</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2199,7 @@
         <v>56666.11149336</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2232,7 @@
         <v>56641.11149336</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2265,7 @@
         <v>55493.83959336</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2298,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2331,7 @@
         <v>55500.56179335999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3256,7 +3288,7 @@
         <v>59004.58338099999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3321,7 @@
         <v>58436.19208099999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3354,7 @@
         <v>58440.19208099999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3387,7 @@
         <v>58882.64978099999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3420,7 @@
         <v>58882.64978099999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3453,7 @@
         <v>55111.64078099999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3486,7 @@
         <v>55411.80518099999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3519,7 @@
         <v>55381.68618099999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4048,14 +4080,10 @@
         <v>56502.31138099998</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>985</v>
-      </c>
-      <c r="J111" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4085,19 +4113,11 @@
         <v>56692.12158099998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>986</v>
-      </c>
-      <c r="J112" t="n">
-        <v>985</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4129,14 +4149,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>985</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5532,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5551,7 +5565,7 @@
         <v>46222.94842808997</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5617,7 +5631,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5650,7 +5664,7 @@
         <v>43393.12882808997</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5782,7 +5796,7 @@
         <v>39086.19752808997</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6277,7 +6291,7 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7168,10 +7182,14 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1000</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7201,11 +7219,19 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +7260,19 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7267,10 +7301,14 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1000</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7300,11 +7338,19 @@
         <v>32771.82212808997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7341,7 +7387,11 @@
       <c r="J210" t="n">
         <v>1000</v>
       </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7378,11 +7428,7 @@
       <c r="J211" t="n">
         <v>1000</v>
       </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7452,11 +7498,19 @@
         <v>31800.49662808998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7485,10 +7539,14 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1000</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7518,11 +7576,19 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1001</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +7617,19 @@
         <v>32013.61232808997</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1001</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +7658,19 @@
         <v>32299.50302808997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1001</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7617,11 +7699,19 @@
         <v>32589.50302808997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1002</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +7740,19 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +7781,19 @@
         <v>30312.81872808997</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
